--- a/VRTX.xlsx
+++ b/VRTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDCA683-EABF-4886-9E79-242B87FD865B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5B8BD8-EB60-4AA8-8694-F7E89134A1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47325" yWindow="1515" windowWidth="33540" windowHeight="17970" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
+    <workbookView xWindow="50750" yWindow="1660" windowWidth="25050" windowHeight="15270" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2349,24 +2349,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE714A94-C7D9-4203-913D-E82693A2B152}">
   <dimension ref="B2:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="31.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="4.1796875" customWidth="1"/>
+    <col min="11" max="11" width="4.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2392,10 +2390,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>434.56</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
@@ -2424,7 +2422,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
@@ -2448,11 +2446,11 @@
       </c>
       <c r="M4" s="2">
         <f>+M3*M2</f>
-        <v>111593.78558272001</v>
+        <v>102718.87480000001</v>
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>23</v>
       </c>
@@ -2478,7 +2476,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
@@ -2510,7 +2508,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>319</v>
       </c>
@@ -2534,11 +2532,11 @@
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>100235.78558272001</v>
+        <v>91360.874800000005</v>
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>360</v>
       </c>
@@ -2553,7 +2551,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="28" t="s">
         <v>357</v>
       </c>
@@ -2569,7 +2567,7 @@
       <c r="F9" s="26"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2580,7 +2578,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>39</v>
       </c>
@@ -2598,7 +2596,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>386</v>
       </c>
@@ -2619,7 +2617,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>49</v>
       </c>
@@ -2640,7 +2638,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>308</v>
       </c>
@@ -2663,7 +2661,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>325</v>
       </c>
@@ -2681,7 +2679,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>382</v>
       </c>
@@ -2699,7 +2697,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>331</v>
       </c>
@@ -2714,7 +2712,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>298</v>
       </c>
@@ -2729,7 +2727,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>333</v>
       </c>
@@ -2740,7 +2738,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>379</v>
       </c>
@@ -2755,7 +2753,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>336</v>
       </c>
@@ -2767,7 +2765,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="D22" t="s">
         <v>54</v>
@@ -2780,7 +2778,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="D23" t="s">
         <v>125</v>
@@ -2792,7 +2790,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
         <v>295</v>
       </c>
@@ -2809,7 +2807,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>317</v>
       </c>
@@ -2817,7 +2815,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>378</v>
       </c>
@@ -2825,7 +2823,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>383</v>
       </c>
@@ -2833,112 +2831,112 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E29" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E30" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E31" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E32" s="17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E33" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E34" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E35" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E36" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E37" s="17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E38" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E39" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E40" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E41" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E42" s="17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E43" s="17" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E44" s="17" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E45" s="17" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E46" s="17" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E47" s="17" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E48" s="17" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E49" s="17" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E51" s="17" t="s">
         <v>366</v>
       </c>
@@ -2967,19 +2965,19 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2989,7 +2987,7 @@
       <c r="H2" s="20"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -2997,7 +2995,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -3005,7 +3003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>118</v>
       </c>
@@ -3013,27 +3011,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="18" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="C14" s="18" t="s">
         <v>320</v>
       </c>
@@ -3052,19 +3050,19 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3072,7 +3070,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -3080,7 +3078,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -3088,7 +3086,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -3096,7 +3094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>233</v>
       </c>
@@ -3104,7 +3102,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>340</v>
       </c>
@@ -3112,7 +3110,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>396</v>
       </c>
@@ -3120,28 +3118,28 @@
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="18" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C14" s="18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C15" s="18"/>
       <c r="D15" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>234</v>
       </c>
@@ -3149,7 +3147,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>236</v>
       </c>
@@ -3160,7 +3158,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>238</v>
       </c>
@@ -3171,7 +3169,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>239</v>
       </c>
@@ -3182,7 +3180,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>240</v>
       </c>
@@ -3193,23 +3191,23 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D21" s="22"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D22" s="22"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C23" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>234</v>
       </c>
@@ -3217,7 +3215,7 @@
         <v>72.7</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>236</v>
       </c>
@@ -3228,7 +3226,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>238</v>
       </c>
@@ -3239,7 +3237,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>240</v>
       </c>
@@ -3250,27 +3248,27 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C30" s="18" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C32" s="18" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C35" s="18" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>339</v>
       </c>
@@ -3290,18 +3288,18 @@
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3309,7 +3307,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -3317,7 +3315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>131</v>
       </c>
@@ -3325,17 +3323,17 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="18" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>324</v>
       </c>
@@ -3354,18 +3352,18 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3373,7 +3371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -3381,7 +3379,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -3389,7 +3387,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -3397,22 +3395,22 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="18" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>328</v>
       </c>
@@ -3432,18 +3430,18 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3451,7 +3449,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -3459,7 +3457,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>118</v>
       </c>
@@ -3481,19 +3479,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="7" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>61</v>
       </c>
@@ -3519,7 +3517,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>11390600</v>
       </c>
@@ -3545,7 +3543,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>11370798</v>
       </c>
@@ -3571,7 +3569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>11369692</v>
       </c>
@@ -3597,7 +3595,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>11358977</v>
       </c>
@@ -3623,7 +3621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>11345700</v>
       </c>
@@ -3649,7 +3647,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>11291662</v>
       </c>
@@ -3675,7 +3673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>11268077</v>
       </c>
@@ -3701,7 +3699,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>11253509</v>
       </c>
@@ -3724,7 +3722,7 @@
         <v>44614</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>11203571</v>
       </c>
@@ -3750,7 +3748,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11186566</v>
       </c>
@@ -3776,7 +3774,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11179394</v>
       </c>
@@ -3802,7 +3800,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11179367</v>
       </c>
@@ -3828,7 +3826,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>11155533</v>
       </c>
@@ -3854,7 +3852,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>11147770</v>
       </c>
@@ -3880,7 +3878,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>11124805</v>
       </c>
@@ -3906,7 +3904,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>11117900</v>
       </c>
@@ -3929,7 +3927,7 @@
         <v>44453</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>11110108</v>
       </c>
@@ -3952,7 +3950,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>11110086</v>
       </c>
@@ -3975,7 +3973,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>11084804</v>
       </c>
@@ -4001,7 +3999,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>11066417</v>
       </c>
@@ -4024,7 +4022,7 @@
         <v>44397</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>11059826</v>
       </c>
@@ -4050,7 +4048,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11052075</v>
       </c>
@@ -4092,18 +4090,18 @@
       <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -4120,7 +4118,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>100</v>
       </c>
@@ -4137,7 +4135,7 @@
         <v>40686</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>110</v>
       </c>
@@ -4154,7 +4152,7 @@
         <v>42187</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>114</v>
       </c>
@@ -4165,7 +4163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -4176,12 +4174,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>105</v>
       </c>
@@ -4195,7 +4193,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>106</v>
       </c>
@@ -4209,7 +4207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>69</v>
       </c>
@@ -4226,7 +4224,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>251</v>
       </c>
@@ -4240,7 +4238,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>102</v>
       </c>
@@ -4267,26 +4265,26 @@
   <dimension ref="A1:DP80"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AQ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BB25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="BK32" sqref="BK32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="21" width="9.140625" style="3"/>
-    <col min="58" max="58" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="21" width="9.1796875" style="3"/>
+    <col min="58" max="58" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>307</v>
       </c>
@@ -4482,7 +4480,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>49</v>
       </c>
@@ -4542,7 +4540,7 @@
         <v>1767.3954006579272</v>
       </c>
     </row>
-    <row r="4" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>357</v>
       </c>
@@ -4569,76 +4567,76 @@
         <v>0</v>
       </c>
       <c r="AD4" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE4" s="2">
         <v>25</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AF4" s="2">
         <v>50</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>75</v>
       </c>
       <c r="AS4" s="2">
         <f>SUM(AC4:AF4)</f>
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="AT4" s="2">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AU4" s="2">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="AV4" s="2">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="AW4" s="2">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="AX4" s="2">
         <f>+AW4*1.01</f>
-        <v>2222</v>
+        <v>808</v>
       </c>
       <c r="AY4" s="2">
         <f>+AX4*1.01</f>
-        <v>2244.2199999999998</v>
+        <v>816.08</v>
       </c>
       <c r="AZ4" s="2">
         <f t="shared" ref="AZ4:BB5" si="12">+AY4*1.01</f>
-        <v>2266.6621999999998</v>
+        <v>824.24080000000004</v>
       </c>
       <c r="BA4" s="2">
         <f t="shared" si="12"/>
-        <v>2289.3288219999999</v>
+        <v>832.48320799999999</v>
       </c>
       <c r="BB4" s="2">
         <f t="shared" si="12"/>
-        <v>2312.2221102200001</v>
+        <v>840.80804007999996</v>
       </c>
       <c r="BC4" s="2">
         <f t="shared" si="6"/>
-        <v>2335.3443313222001</v>
+        <v>849.21612048079999</v>
       </c>
       <c r="BD4" s="2">
         <f t="shared" si="7"/>
-        <v>2358.6977746354223</v>
+        <v>857.70828168560797</v>
       </c>
       <c r="BE4" s="2">
         <f t="shared" si="8"/>
-        <v>2382.2847523817763</v>
+        <v>866.28536450246406</v>
       </c>
       <c r="BF4" s="2">
         <f t="shared" si="9"/>
-        <v>2406.1075999055943</v>
+        <v>874.94821814748866</v>
       </c>
       <c r="BG4" s="2">
         <f t="shared" si="10"/>
-        <v>2430.1686759046502</v>
+        <v>883.69770032896361</v>
       </c>
       <c r="BH4" s="2">
         <f t="shared" ref="BH4" si="13">+BG4*0.1</f>
-        <v>243.01686759046504</v>
-      </c>
-    </row>
-    <row r="5" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>88.369770032896369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>385</v>
       </c>
@@ -4718,7 +4716,7 @@
         <v>1004.1015119987851</v>
       </c>
     </row>
-    <row r="6" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
@@ -4742,7 +4740,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
     </row>
-    <row r="7" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>319</v>
       </c>
@@ -4769,83 +4767,82 @@
         <v>14.2</v>
       </c>
       <c r="AD7" s="2">
-        <f>+AC7+5</f>
-        <v>19.2</v>
+        <v>30.4</v>
       </c>
       <c r="AE7" s="2">
         <f>+AD7+5</f>
-        <v>24.2</v>
+        <v>35.4</v>
       </c>
       <c r="AF7" s="2">
         <f>+AE7+5</f>
-        <v>29.2</v>
+        <v>40.4</v>
       </c>
       <c r="AS7" s="2">
         <f>SUM(AC7:AF7)</f>
-        <v>86.8</v>
+        <v>120.4</v>
       </c>
       <c r="AT7" s="2">
         <f>+AS7*1.01</f>
-        <v>87.667999999999992</v>
+        <v>121.60400000000001</v>
       </c>
       <c r="AU7" s="2">
         <f t="shared" ref="AU7:BH7" si="16">+AT7*1.01</f>
-        <v>88.54468</v>
+        <v>122.82004000000002</v>
       </c>
       <c r="AV7" s="2">
         <f t="shared" si="16"/>
-        <v>89.430126799999996</v>
+        <v>124.04824040000003</v>
       </c>
       <c r="AW7" s="2">
         <f t="shared" si="16"/>
-        <v>90.324428068000003</v>
+        <v>125.28872280400003</v>
       </c>
       <c r="AX7" s="2">
         <f t="shared" si="16"/>
-        <v>91.227672348680002</v>
+        <v>126.54161003204003</v>
       </c>
       <c r="AY7" s="2">
         <f t="shared" si="16"/>
-        <v>92.1399490721668</v>
+        <v>127.80702613236043</v>
       </c>
       <c r="AZ7" s="2">
         <f t="shared" si="16"/>
-        <v>93.061348562888469</v>
+        <v>129.08509639368404</v>
       </c>
       <c r="BA7" s="2">
         <f t="shared" si="16"/>
-        <v>93.991962048517351</v>
+        <v>130.37594735762087</v>
       </c>
       <c r="BB7" s="2">
         <f t="shared" si="16"/>
-        <v>94.931881669002522</v>
+        <v>131.67970683119708</v>
       </c>
       <c r="BC7" s="2">
         <f t="shared" si="16"/>
-        <v>95.881200485692545</v>
+        <v>132.99650389950907</v>
       </c>
       <c r="BD7" s="2">
         <f t="shared" si="16"/>
-        <v>96.840012490549469</v>
+        <v>134.32646893850415</v>
       </c>
       <c r="BE7" s="2">
         <f t="shared" si="16"/>
-        <v>97.808412615454969</v>
+        <v>135.6697336278892</v>
       </c>
       <c r="BF7" s="2">
         <f t="shared" si="16"/>
-        <v>98.786496741609525</v>
+        <v>137.0264309641681</v>
       </c>
       <c r="BG7" s="2">
         <f t="shared" si="16"/>
-        <v>99.774361709025627</v>
+        <v>138.39669527380977</v>
       </c>
       <c r="BH7" s="2">
         <f t="shared" si="16"/>
-        <v>100.77210532611588</v>
-      </c>
-    </row>
-    <row r="8" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>139.78066222654786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>260</v>
       </c>
@@ -4878,8 +4875,11 @@
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
-    </row>
-    <row r="9" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD8" s="2">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>367</v>
       </c>
@@ -4906,16 +4906,15 @@
         <v>53.9</v>
       </c>
       <c r="AD9" s="2">
-        <f>+AC9+200</f>
-        <v>253.9</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="AE9" s="2">
         <f>+AD9+200</f>
-        <v>453.9</v>
+        <v>356.8</v>
       </c>
       <c r="AF9" s="2">
         <f>+AE9+200</f>
-        <v>653.9</v>
+        <v>556.79999999999995</v>
       </c>
       <c r="AR9" s="2">
         <f t="shared" ref="AR9:AR14" si="17">SUM(Y9:AB9)</f>
@@ -4923,70 +4922,70 @@
       </c>
       <c r="AS9" s="2">
         <f>SUM(AC9:AF9)</f>
-        <v>1415.6</v>
+        <v>1124.3</v>
       </c>
       <c r="AT9" s="2">
         <f>+AS9*1.8</f>
-        <v>2548.08</v>
+        <v>2023.74</v>
       </c>
       <c r="AU9" s="2">
         <f>+AT9*1.5</f>
-        <v>3822.12</v>
+        <v>3035.61</v>
       </c>
       <c r="AV9" s="2">
         <f>+AU9*1.5</f>
-        <v>5733.18</v>
+        <v>4553.415</v>
       </c>
       <c r="AW9" s="2">
         <f>+AV9*1.3</f>
-        <v>7453.1340000000009</v>
+        <v>5919.4395000000004</v>
       </c>
       <c r="AX9" s="2">
         <f>+AW9*1.3</f>
-        <v>9689.0742000000009</v>
+        <v>7695.2713500000009</v>
       </c>
       <c r="AY9" s="2">
         <f>+AX9*1.15</f>
-        <v>11142.43533</v>
+        <v>8849.5620524999995</v>
       </c>
       <c r="AZ9" s="2">
         <f>+AY9*1.03</f>
-        <v>11476.708389900001</v>
+        <v>9115.0489140749996</v>
       </c>
       <c r="BA9" s="2">
         <f t="shared" ref="BA9:BG9" si="18">+AZ9*1.03</f>
-        <v>11821.009641597002</v>
+        <v>9388.5003814972497</v>
       </c>
       <c r="BB9" s="2">
         <f t="shared" si="18"/>
-        <v>12175.639930844913</v>
+        <v>9670.155392942168</v>
       </c>
       <c r="BC9" s="2">
         <f t="shared" si="18"/>
-        <v>12540.909128770259</v>
+        <v>9960.2600547304337</v>
       </c>
       <c r="BD9" s="2">
         <f t="shared" si="18"/>
-        <v>12917.136402633367</v>
+        <v>10259.067856372347</v>
       </c>
       <c r="BE9" s="2">
         <f t="shared" si="18"/>
-        <v>13304.650494712369</v>
+        <v>10566.839892063517</v>
       </c>
       <c r="BF9" s="2">
         <f t="shared" si="18"/>
-        <v>13703.790009553741</v>
+        <v>10883.845088825423</v>
       </c>
       <c r="BG9" s="2">
         <f t="shared" si="18"/>
-        <v>14114.903709840353</v>
+        <v>11210.360441490186</v>
       </c>
       <c r="BH9" s="2">
         <f>+BG9*0.5</f>
-        <v>7057.4518549201766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5605.1802207450928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -5072,16 +5071,15 @@
         <v>2535.5</v>
       </c>
       <c r="AD10" s="2">
-        <f>+AC10-180</f>
-        <v>2355.5</v>
+        <v>2551.1</v>
       </c>
       <c r="AE10" s="2">
         <f>+AD10-180</f>
-        <v>2175.5</v>
+        <v>2371.1</v>
       </c>
       <c r="AF10" s="2">
         <f>+AE10-180</f>
-        <v>1995.5</v>
+        <v>2191.1</v>
       </c>
       <c r="AO10" s="2">
         <f>SUM(M10:P10)</f>
@@ -5101,70 +5099,70 @@
       </c>
       <c r="AS10" s="2">
         <f>SUM(AC10:AF10)</f>
-        <v>9062</v>
+        <v>9648.8000000000011</v>
       </c>
       <c r="AT10" s="2">
         <f>+AS10-1000</f>
-        <v>8062</v>
+        <v>8648.8000000000011</v>
       </c>
       <c r="AU10" s="2">
         <f>+AT10-1200</f>
-        <v>6862</v>
+        <v>7448.8000000000011</v>
       </c>
       <c r="AV10" s="2">
         <f>+AU10-1800</f>
-        <v>5062</v>
+        <v>5648.8000000000011</v>
       </c>
       <c r="AW10" s="2">
         <f>+AV10-1600</f>
-        <v>3462</v>
+        <v>4048.8000000000011</v>
       </c>
       <c r="AX10" s="2">
         <f>+AW10-2000</f>
-        <v>1462</v>
+        <v>2048.8000000000011</v>
       </c>
       <c r="AY10" s="2">
         <f>+AX10-500</f>
-        <v>962</v>
+        <v>1548.8000000000011</v>
       </c>
       <c r="AZ10" s="2">
         <f>+AY10*0.8</f>
-        <v>769.6</v>
+        <v>1239.0400000000009</v>
       </c>
       <c r="BA10" s="2">
         <f t="shared" ref="BA10:BH10" si="20">+AZ10*0.8</f>
-        <v>615.68000000000006</v>
+        <v>991.23200000000077</v>
       </c>
       <c r="BB10" s="2">
         <f t="shared" si="20"/>
-        <v>492.5440000000001</v>
+        <v>792.98560000000066</v>
       </c>
       <c r="BC10" s="2">
         <f t="shared" si="20"/>
-        <v>394.03520000000009</v>
+        <v>634.38848000000053</v>
       </c>
       <c r="BD10" s="2">
         <f t="shared" si="20"/>
-        <v>315.22816000000012</v>
+        <v>507.51078400000046</v>
       </c>
       <c r="BE10" s="2">
         <f t="shared" si="20"/>
-        <v>252.1825280000001</v>
+        <v>406.00862720000038</v>
       </c>
       <c r="BF10" s="2">
         <f t="shared" si="20"/>
-        <v>201.7460224000001</v>
+        <v>324.8069017600003</v>
       </c>
       <c r="BG10" s="2">
         <f t="shared" si="20"/>
-        <v>161.3968179200001</v>
+        <v>259.84552140800025</v>
       </c>
       <c r="BH10" s="2">
         <f t="shared" si="20"/>
-        <v>129.11745433600009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>207.87641712640021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
@@ -5239,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -5314,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>315</v>
       </c>
@@ -5365,8 +5363,8 @@
         <v>166.60000000000002</v>
       </c>
       <c r="AD13" s="2">
-        <f>+Z13</f>
-        <v>196.4</v>
+        <f>236.1-AD7-AD4</f>
+        <v>193.7</v>
       </c>
       <c r="AE13" s="2">
         <f>+AA13</f>
@@ -5386,70 +5384,70 @@
       </c>
       <c r="AS13" s="2">
         <f>SUM(AC13:AF13)</f>
-        <v>741.09999999999991</v>
+        <v>738.40000000000009</v>
       </c>
       <c r="AT13" s="2">
         <f>+AS13*1.01</f>
-        <v>748.51099999999997</v>
+        <v>745.78400000000011</v>
       </c>
       <c r="AU13" s="2">
         <f t="shared" ref="AU13:BB13" si="22">+AT13*1.01</f>
-        <v>755.99610999999993</v>
+        <v>753.24184000000014</v>
       </c>
       <c r="AV13" s="2">
         <f t="shared" si="22"/>
-        <v>763.55607109999994</v>
+        <v>760.77425840000012</v>
       </c>
       <c r="AW13" s="2">
         <f t="shared" si="22"/>
-        <v>771.19163181099998</v>
+        <v>768.38200098400011</v>
       </c>
       <c r="AX13" s="2">
         <f t="shared" si="22"/>
-        <v>778.90354812910994</v>
+        <v>776.06582099384013</v>
       </c>
       <c r="AY13" s="2">
         <f t="shared" si="22"/>
-        <v>786.69258361040102</v>
+        <v>783.82647920377849</v>
       </c>
       <c r="AZ13" s="2">
         <f t="shared" si="22"/>
-        <v>794.55950944650499</v>
+        <v>791.66474399581625</v>
       </c>
       <c r="BA13" s="2">
         <f t="shared" si="22"/>
-        <v>802.50510454097002</v>
+        <v>799.58139143577444</v>
       </c>
       <c r="BB13" s="2">
         <f t="shared" si="22"/>
-        <v>810.53015558637969</v>
+        <v>807.5772053501322</v>
       </c>
       <c r="BC13" s="2">
         <f t="shared" ref="BC13:BH13" si="23">+BB13*0.5</f>
-        <v>405.26507779318985</v>
+        <v>403.7886026750661</v>
       </c>
       <c r="BD13" s="2">
         <f t="shared" si="23"/>
-        <v>202.63253889659492</v>
+        <v>201.89430133753305</v>
       </c>
       <c r="BE13" s="2">
         <f t="shared" si="23"/>
-        <v>101.31626944829746</v>
+        <v>100.94715066876653</v>
       </c>
       <c r="BF13" s="2">
         <f t="shared" si="23"/>
-        <v>50.658134724148731</v>
+        <v>50.473575334383263</v>
       </c>
       <c r="BG13" s="2">
         <f t="shared" si="23"/>
-        <v>25.329067362074365</v>
+        <v>25.236787667191631</v>
       </c>
       <c r="BH13" s="2">
         <f t="shared" si="23"/>
-        <v>12.664533681037183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>12.618393833595816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -5524,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:60" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:60" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>24</v>
       </c>
@@ -5638,15 +5636,15 @@
       </c>
       <c r="AD15" s="14">
         <f>SUM(AD3:AD14)</f>
-        <v>2850</v>
+        <v>2964.7</v>
       </c>
       <c r="AE15" s="14">
         <f>SUM(AE3:AE14)</f>
-        <v>2890.5</v>
+        <v>2975.2</v>
       </c>
       <c r="AF15" s="14">
         <f>SUM(AF3:AF14)</f>
-        <v>2944.7999999999997</v>
+        <v>3029.4999999999995</v>
       </c>
       <c r="AG15" s="14"/>
       <c r="AN15" s="13">
@@ -5671,70 +5669,70 @@
       </c>
       <c r="AS15" s="13">
         <f t="shared" si="29"/>
-        <v>11455.5</v>
+        <v>11718.900000000001</v>
       </c>
       <c r="AT15" s="13">
         <f t="shared" si="29"/>
-        <v>12946.259</v>
+        <v>12239.928</v>
       </c>
       <c r="AU15" s="13">
         <f t="shared" si="29"/>
-        <v>14328.66079</v>
+        <v>13060.471880000003</v>
       </c>
       <c r="AV15" s="13">
         <f t="shared" si="29"/>
-        <v>15548.1661979</v>
+        <v>13587.037498800002</v>
       </c>
       <c r="AW15" s="13">
         <f t="shared" si="29"/>
-        <v>16276.650059879001</v>
+        <v>13961.910223788002</v>
       </c>
       <c r="AX15" s="13">
         <f t="shared" si="29"/>
-        <v>16752.205420477792</v>
+        <v>13963.678781025883</v>
       </c>
       <c r="AY15" s="13">
         <f t="shared" si="29"/>
-        <v>17761.577862682567</v>
+        <v>14660.165557836141</v>
       </c>
       <c r="AZ15" s="13">
         <f t="shared" si="29"/>
-        <v>17960.022347909395</v>
+        <v>14658.510454464502</v>
       </c>
       <c r="BA15" s="13">
         <f t="shared" si="29"/>
-        <v>18207.54073918649</v>
+        <v>14727.198137290645</v>
       </c>
       <c r="BB15" s="13">
         <f t="shared" si="29"/>
-        <v>18496.743539410298</v>
+        <v>14854.081406293497</v>
       </c>
       <c r="BC15" s="13">
         <f t="shared" si="29"/>
-        <v>18408.419154072239</v>
+        <v>14617.63397748671</v>
       </c>
       <c r="BD15" s="13">
         <f t="shared" ref="BD15:BH15" si="30">SUM(BD3:BD14)</f>
-        <v>18553.888946513842</v>
+        <v>14623.861750191902</v>
       </c>
       <c r="BE15" s="13">
         <f t="shared" si="30"/>
-        <v>18828.230055594388</v>
+        <v>14765.738366499125</v>
       </c>
       <c r="BF15" s="13">
         <f t="shared" si="30"/>
-        <v>19177.975737745946</v>
+        <v>14987.987689452317</v>
       </c>
       <c r="BG15" s="13">
         <f t="shared" si="30"/>
-        <v>19575.628981901169</v>
+        <v>15261.593495333213</v>
       </c>
       <c r="BH15" s="13">
         <f t="shared" si="30"/>
-        <v>10314.519728510508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>8825.3223766212468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>55</v>
       </c>
@@ -5820,16 +5818,15 @@
         <v>355.4</v>
       </c>
       <c r="AD16" s="2">
-        <f>+AD15-AD17</f>
-        <v>370.5</v>
+        <v>399.9</v>
       </c>
       <c r="AE16" s="2">
         <f>+AE15-AE17</f>
-        <v>375.76499999999987</v>
+        <v>386.77599999999984</v>
       </c>
       <c r="AF16" s="2">
         <f>+AF15-AF17</f>
-        <v>382.82400000000007</v>
+        <v>393.83500000000004</v>
       </c>
       <c r="AO16" s="2">
         <f t="shared" si="21"/>
@@ -5849,70 +5846,70 @@
       </c>
       <c r="AS16" s="2">
         <f t="shared" si="32"/>
-        <v>801.8850000000001</v>
+        <v>820.32300000000021</v>
       </c>
       <c r="AT16" s="2">
         <f t="shared" si="32"/>
-        <v>906.23813000000007</v>
+        <v>856.79496000000006</v>
       </c>
       <c r="AU16" s="2">
         <f t="shared" si="32"/>
-        <v>1003.0062553000001</v>
+        <v>914.23303160000023</v>
       </c>
       <c r="AV16" s="2">
         <f t="shared" si="32"/>
-        <v>1088.371633853</v>
+        <v>951.0926249160002</v>
       </c>
       <c r="AW16" s="2">
         <f t="shared" si="32"/>
-        <v>1139.3655041915301</v>
+        <v>977.33371566516018</v>
       </c>
       <c r="AX16" s="2">
         <f t="shared" si="32"/>
-        <v>1172.6543794334457</v>
+        <v>977.45751467181185</v>
       </c>
       <c r="AY16" s="2">
         <f t="shared" si="32"/>
-        <v>1243.3104503877798</v>
+        <v>1026.21158904853</v>
       </c>
       <c r="AZ16" s="2">
         <f t="shared" si="32"/>
-        <v>1257.2015643536577</v>
+        <v>1026.0957318125152</v>
       </c>
       <c r="BA16" s="2">
         <f t="shared" ref="BA16:BF16" si="33">+BA15*0.05</f>
-        <v>910.37703695932453</v>
+        <v>736.35990686453226</v>
       </c>
       <c r="BB16" s="2">
         <f t="shared" si="33"/>
-        <v>924.83717697051497</v>
+        <v>742.70407031467494</v>
       </c>
       <c r="BC16" s="2">
         <f t="shared" si="33"/>
-        <v>920.42095770361198</v>
+        <v>730.8816988743356</v>
       </c>
       <c r="BD16" s="2">
         <f t="shared" si="33"/>
-        <v>927.69444732569218</v>
+        <v>731.1930875095951</v>
       </c>
       <c r="BE16" s="2">
         <f t="shared" si="33"/>
-        <v>941.4115027797194</v>
+        <v>738.28691832495633</v>
       </c>
       <c r="BF16" s="2">
         <f t="shared" si="33"/>
-        <v>958.89878688729732</v>
+        <v>749.39938447261591</v>
       </c>
       <c r="BG16" s="2">
         <f>+BG15*0.05</f>
-        <v>978.78144909505852</v>
+        <v>763.07967476666067</v>
       </c>
       <c r="BH16" s="2">
         <f t="shared" ref="BH16" si="34">+BH15*0.07</f>
-        <v>722.01638099573563</v>
-      </c>
-    </row>
-    <row r="17" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>617.77256636348739</v>
+      </c>
+    </row>
+    <row r="17" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>56</v>
       </c>
@@ -6025,16 +6022,16 @@
         <v>2414.7999999999997</v>
       </c>
       <c r="AD17" s="2">
-        <f>+AD15*0.87</f>
-        <v>2479.5</v>
+        <f>+AD15-AD16</f>
+        <v>2564.7999999999997</v>
       </c>
       <c r="AE17" s="2">
         <f>+AE15*0.87</f>
-        <v>2514.7350000000001</v>
+        <v>2588.424</v>
       </c>
       <c r="AF17" s="2">
         <f>+AF15*0.87</f>
-        <v>2561.9759999999997</v>
+        <v>2635.6649999999995</v>
       </c>
       <c r="AN17" s="2">
         <f t="shared" ref="AN17" si="39">+AN15-AN16</f>
@@ -6058,70 +6055,70 @@
       </c>
       <c r="AS17" s="2">
         <f t="shared" si="40"/>
-        <v>10653.615</v>
+        <v>10898.577000000001</v>
       </c>
       <c r="AT17" s="2">
         <f t="shared" si="40"/>
-        <v>12040.02087</v>
+        <v>11383.133040000001</v>
       </c>
       <c r="AU17" s="2">
         <f t="shared" si="40"/>
-        <v>13325.654534699999</v>
+        <v>12146.238848400002</v>
       </c>
       <c r="AV17" s="2">
         <f t="shared" si="40"/>
-        <v>14459.794564047001</v>
+        <v>12635.944873884002</v>
       </c>
       <c r="AW17" s="2">
         <f t="shared" si="40"/>
-        <v>15137.284555687471</v>
+        <v>12984.576508122842</v>
       </c>
       <c r="AX17" s="2">
         <f t="shared" si="40"/>
-        <v>15579.551041044346</v>
+        <v>12986.22126635407</v>
       </c>
       <c r="AY17" s="2">
         <f t="shared" si="40"/>
-        <v>16518.267412294786</v>
+        <v>13633.953968787611</v>
       </c>
       <c r="AZ17" s="2">
         <f t="shared" si="40"/>
-        <v>16702.820783555737</v>
+        <v>13632.414722651987</v>
       </c>
       <c r="BA17" s="2">
         <f t="shared" si="40"/>
-        <v>17297.163702227164</v>
+        <v>13990.838230426112</v>
       </c>
       <c r="BB17" s="2">
         <f t="shared" si="40"/>
-        <v>17571.906362439782</v>
+        <v>14111.377335978821</v>
       </c>
       <c r="BC17" s="2">
         <f t="shared" si="40"/>
-        <v>17487.998196368626</v>
+        <v>13886.752278612374</v>
       </c>
       <c r="BD17" s="2">
         <f t="shared" ref="BD17:BH17" si="41">+BD15-BD16</f>
-        <v>17626.19449918815</v>
+        <v>13892.668662682307</v>
       </c>
       <c r="BE17" s="2">
         <f t="shared" si="41"/>
-        <v>17886.818552814668</v>
+        <v>14027.451448174168</v>
       </c>
       <c r="BF17" s="2">
         <f t="shared" si="41"/>
-        <v>18219.076950858649</v>
+        <v>14238.588304979701</v>
       </c>
       <c r="BG17" s="2">
         <f t="shared" si="41"/>
-        <v>18596.84753280611</v>
+        <v>14498.513820566552</v>
       </c>
       <c r="BH17" s="2">
         <f t="shared" si="41"/>
-        <v>9592.503347514772</v>
-      </c>
-    </row>
-    <row r="18" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>8207.5498102577585</v>
+      </c>
+    </row>
+    <row r="18" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>57</v>
       </c>
@@ -6207,15 +6204,14 @@
         <v>333</v>
       </c>
       <c r="AD18" s="2">
-        <f t="shared" ref="AD18:AD19" si="42">+Z18</f>
-        <v>280.39999999999998</v>
+        <v>359.4</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" ref="AE18:AE19" si="43">+AA18</f>
+        <f t="shared" ref="AE18:AE19" si="42">+AA18</f>
         <v>300.10000000000002</v>
       </c>
       <c r="AF18" s="2">
-        <f t="shared" ref="AF18:AF19" si="44">+AB18</f>
+        <f t="shared" ref="AF18:AF19" si="43">+AB18</f>
         <v>310.10000000000002</v>
       </c>
       <c r="AN18" s="2">
@@ -6225,7 +6221,7 @@
         <v>673</v>
       </c>
       <c r="AP18" s="2">
-        <f t="shared" ref="AP18:AP19" si="45">SUM(Q18:T18)</f>
+        <f t="shared" ref="AP18:AP19" si="44">SUM(Q18:T18)</f>
         <v>746.30000000000007</v>
       </c>
       <c r="AQ18" s="2">
@@ -6233,75 +6229,75 @@
         <v>917.80000000000007</v>
       </c>
       <c r="AR18" s="2">
-        <f t="shared" ref="AR18:BC18" si="46">+AR15*0.1</f>
+        <f t="shared" ref="AR18:BC18" si="45">+AR15*0.1</f>
         <v>1102.01</v>
       </c>
       <c r="AS18" s="2">
+        <f t="shared" si="45"/>
+        <v>1171.8900000000001</v>
+      </c>
+      <c r="AT18" s="2">
+        <f t="shared" si="45"/>
+        <v>1223.9928</v>
+      </c>
+      <c r="AU18" s="2">
+        <f t="shared" si="45"/>
+        <v>1306.0471880000005</v>
+      </c>
+      <c r="AV18" s="2">
+        <f t="shared" si="45"/>
+        <v>1358.7037498800003</v>
+      </c>
+      <c r="AW18" s="2">
+        <f t="shared" si="45"/>
+        <v>1396.1910223788002</v>
+      </c>
+      <c r="AX18" s="2">
+        <f t="shared" si="45"/>
+        <v>1396.3678781025883</v>
+      </c>
+      <c r="AY18" s="2">
+        <f t="shared" si="45"/>
+        <v>1466.0165557836142</v>
+      </c>
+      <c r="AZ18" s="2">
+        <f t="shared" si="45"/>
+        <v>1465.8510454464504</v>
+      </c>
+      <c r="BA18" s="2">
+        <f t="shared" si="45"/>
+        <v>1472.7198137290645</v>
+      </c>
+      <c r="BB18" s="2">
+        <f t="shared" si="45"/>
+        <v>1485.4081406293499</v>
+      </c>
+      <c r="BC18" s="2">
+        <f t="shared" si="45"/>
+        <v>1461.7633977486712</v>
+      </c>
+      <c r="BD18" s="2">
+        <f t="shared" ref="BD18:BH18" si="46">+BD15*0.1</f>
+        <v>1462.3861750191902</v>
+      </c>
+      <c r="BE18" s="2">
         <f t="shared" si="46"/>
-        <v>1145.55</v>
-      </c>
-      <c r="AT18" s="2">
+        <v>1476.5738366499127</v>
+      </c>
+      <c r="BF18" s="2">
         <f t="shared" si="46"/>
-        <v>1294.6259</v>
-      </c>
-      <c r="AU18" s="2">
+        <v>1498.7987689452318</v>
+      </c>
+      <c r="BG18" s="2">
         <f t="shared" si="46"/>
-        <v>1432.8660790000001</v>
-      </c>
-      <c r="AV18" s="2">
+        <v>1526.1593495333213</v>
+      </c>
+      <c r="BH18" s="2">
         <f t="shared" si="46"/>
-        <v>1554.81661979</v>
-      </c>
-      <c r="AW18" s="2">
-        <f t="shared" si="46"/>
-        <v>1627.6650059879003</v>
-      </c>
-      <c r="AX18" s="2">
-        <f t="shared" si="46"/>
-        <v>1675.2205420477794</v>
-      </c>
-      <c r="AY18" s="2">
-        <f t="shared" si="46"/>
-        <v>1776.1577862682568</v>
-      </c>
-      <c r="AZ18" s="2">
-        <f t="shared" si="46"/>
-        <v>1796.0022347909396</v>
-      </c>
-      <c r="BA18" s="2">
-        <f t="shared" si="46"/>
-        <v>1820.7540739186491</v>
-      </c>
-      <c r="BB18" s="2">
-        <f t="shared" si="46"/>
-        <v>1849.6743539410299</v>
-      </c>
-      <c r="BC18" s="2">
-        <f t="shared" si="46"/>
-        <v>1840.841915407224</v>
-      </c>
-      <c r="BD18" s="2">
-        <f t="shared" ref="BD18:BH18" si="47">+BD15*0.1</f>
-        <v>1855.3888946513844</v>
-      </c>
-      <c r="BE18" s="2">
-        <f t="shared" si="47"/>
-        <v>1882.8230055594388</v>
-      </c>
-      <c r="BF18" s="2">
-        <f t="shared" si="47"/>
-        <v>1917.7975737745946</v>
-      </c>
-      <c r="BG18" s="2">
-        <f t="shared" si="47"/>
-        <v>1957.562898190117</v>
-      </c>
-      <c r="BH18" s="2">
-        <f t="shared" si="47"/>
-        <v>1031.4519728510509</v>
-      </c>
-    </row>
-    <row r="19" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>882.53223766212477</v>
+      </c>
+    </row>
+    <row r="19" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>58</v>
       </c>
@@ -6387,15 +6383,14 @@
         <v>879</v>
       </c>
       <c r="AD19" s="2">
+        <v>878.1</v>
+      </c>
+      <c r="AE19" s="2">
         <f t="shared" si="42"/>
-        <v>697.2</v>
-      </c>
-      <c r="AE19" s="2">
+        <v>764</v>
+      </c>
+      <c r="AF19" s="2">
         <f t="shared" si="43"/>
-        <v>764</v>
-      </c>
-      <c r="AF19" s="2">
-        <f t="shared" si="44"/>
         <v>899.8</v>
       </c>
       <c r="AN19" s="2">
@@ -6405,7 +6400,7 @@
         <v>1658</v>
       </c>
       <c r="AP19" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2206.5</v>
       </c>
       <c r="AQ19" s="2">
@@ -6413,48 +6408,48 @@
         <v>2796.7</v>
       </c>
     </row>
-    <row r="20" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="12">
-        <f t="shared" ref="C20:D20" si="48">SUM(C18:C19)</f>
+        <f t="shared" ref="C20:D20" si="47">SUM(C18:C19)</f>
         <v>467.80499999999995</v>
       </c>
       <c r="D20" s="12">
+        <f t="shared" si="47"/>
+        <v>591.09100000000001</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" ref="E20:G20" si="48">SUM(E18:E19)</f>
+        <v>486.53499999999997</v>
+      </c>
+      <c r="F20" s="12">
         <f t="shared" si="48"/>
-        <v>591.09100000000001</v>
-      </c>
-      <c r="E20" s="12">
-        <f t="shared" ref="E20:G20" si="49">SUM(E18:E19)</f>
-        <v>486.53499999999997</v>
-      </c>
-      <c r="F20" s="12">
+        <v>535.59300000000007</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="48"/>
+        <v>715.62199999999996</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" ref="H20:I20" si="49">SUM(H18:H19)</f>
+        <v>675.28800000000001</v>
+      </c>
+      <c r="I20" s="12">
         <f t="shared" si="49"/>
-        <v>535.59300000000007</v>
-      </c>
-      <c r="G20" s="12">
-        <f t="shared" si="49"/>
-        <v>715.62199999999996</v>
-      </c>
-      <c r="H20" s="12">
-        <f t="shared" ref="H20:I20" si="50">SUM(H18:H19)</f>
-        <v>675.28800000000001</v>
-      </c>
-      <c r="I20" s="12">
-        <f t="shared" si="50"/>
         <v>630.78600000000006</v>
       </c>
       <c r="J20" s="12">
-        <f t="shared" ref="J20" si="51">SUM(J18:J19)</f>
+        <f t="shared" ref="J20" si="50">SUM(J18:J19)</f>
         <v>612.70000000000005</v>
       </c>
       <c r="K20" s="12">
-        <f t="shared" ref="K20:L20" si="52">SUM(K18:K19)</f>
+        <f t="shared" ref="K20:L20" si="51">SUM(K18:K19)</f>
         <v>678.048</v>
       </c>
       <c r="L20" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>539</v>
       </c>
       <c r="M20" s="12">
@@ -6462,11 +6457,11 @@
         <v>531</v>
       </c>
       <c r="N20" s="12">
-        <f t="shared" ref="N20:Q20" si="53">SUM(N18:N19)</f>
+        <f t="shared" ref="N20:Q20" si="52">SUM(N18:N19)</f>
         <v>643.29999999999995</v>
       </c>
       <c r="O20" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>691.93999999999994</v>
       </c>
       <c r="P20" s="12">
@@ -6474,7 +6469,7 @@
         <v>703</v>
       </c>
       <c r="Q20" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>687</v>
       </c>
       <c r="R20" s="12">
@@ -6486,185 +6481,185 @@
         <v>728.9</v>
       </c>
       <c r="T20" s="12">
-        <f t="shared" ref="T20:U20" si="54">SUM(T18:T19)</f>
+        <f t="shared" ref="T20:U20" si="53">SUM(T18:T19)</f>
         <v>848.80000000000007</v>
       </c>
       <c r="U20" s="12">
+        <f t="shared" si="53"/>
+        <v>860.4</v>
+      </c>
+      <c r="V20" s="12">
+        <f t="shared" ref="V20:Y20" si="54">SUM(V18:V19)</f>
+        <v>928</v>
+      </c>
+      <c r="W20" s="12">
         <f t="shared" si="54"/>
-        <v>860.4</v>
-      </c>
-      <c r="V20" s="12">
-        <f t="shared" ref="V20:Y20" si="55">SUM(V18:V19)</f>
-        <v>928</v>
-      </c>
-      <c r="W20" s="12">
+        <v>941.7</v>
+      </c>
+      <c r="X20" s="12">
+        <f t="shared" si="54"/>
+        <v>984.4</v>
+      </c>
+      <c r="Y20" s="12">
+        <f t="shared" si="54"/>
+        <v>941.7</v>
+      </c>
+      <c r="Z20" s="12">
+        <f t="shared" ref="Z20:AB20" si="55">SUM(Z18:Z19)</f>
+        <v>977.6</v>
+      </c>
+      <c r="AA20" s="12">
         <f t="shared" si="55"/>
-        <v>941.7</v>
-      </c>
-      <c r="X20" s="12">
+        <v>1064.0999999999999</v>
+      </c>
+      <c r="AB20" s="12">
         <f t="shared" si="55"/>
-        <v>984.4</v>
-      </c>
-      <c r="Y20" s="12">
-        <f t="shared" si="55"/>
-        <v>941.7</v>
-      </c>
-      <c r="Z20" s="12">
-        <f t="shared" ref="Z20:AB20" si="56">SUM(Z18:Z19)</f>
-        <v>977.6</v>
-      </c>
-      <c r="AA20" s="12">
+        <v>1209.9000000000001</v>
+      </c>
+      <c r="AC20" s="12">
+        <f t="shared" ref="AC20:AF20" si="56">SUM(AC18:AC19)</f>
+        <v>1212</v>
+      </c>
+      <c r="AD20" s="12">
+        <f t="shared" si="56"/>
+        <v>1237.5</v>
+      </c>
+      <c r="AE20" s="12">
         <f t="shared" si="56"/>
         <v>1064.0999999999999</v>
       </c>
-      <c r="AB20" s="12">
+      <c r="AF20" s="12">
         <f t="shared" si="56"/>
         <v>1209.9000000000001</v>
       </c>
-      <c r="AC20" s="12">
-        <f t="shared" ref="AC20:AF20" si="57">SUM(AC18:AC19)</f>
-        <v>1212</v>
-      </c>
-      <c r="AD20" s="12">
-        <f t="shared" si="57"/>
-        <v>977.6</v>
-      </c>
-      <c r="AE20" s="12">
-        <f t="shared" si="57"/>
-        <v>1064.0999999999999</v>
-      </c>
-      <c r="AF20" s="12">
-        <f t="shared" si="57"/>
-        <v>1209.9000000000001</v>
-      </c>
       <c r="AG20" s="12"/>
       <c r="AN20" s="12">
-        <f t="shared" ref="AN20:AP20" si="58">SUM(AN18:AN19)</f>
+        <f t="shared" ref="AN20:AP20" si="57">SUM(AN18:AN19)</f>
         <v>1981</v>
       </c>
       <c r="AO20" s="12">
+        <f t="shared" si="57"/>
+        <v>2331</v>
+      </c>
+      <c r="AP20" s="12">
+        <f t="shared" si="57"/>
+        <v>2952.8</v>
+      </c>
+      <c r="AQ20" s="12">
+        <f t="shared" ref="AQ20:BC20" si="58">SUM(AQ18:AQ19)</f>
+        <v>3714.5</v>
+      </c>
+      <c r="AR20" s="12">
         <f t="shared" si="58"/>
-        <v>2331</v>
-      </c>
-      <c r="AP20" s="12">
+        <v>1102.01</v>
+      </c>
+      <c r="AS20" s="12">
         <f t="shared" si="58"/>
-        <v>2952.8</v>
-      </c>
-      <c r="AQ20" s="12">
-        <f t="shared" ref="AQ20:BC20" si="59">SUM(AQ18:AQ19)</f>
-        <v>3714.5</v>
-      </c>
-      <c r="AR20" s="12">
+        <v>1171.8900000000001</v>
+      </c>
+      <c r="AT20" s="12">
+        <f t="shared" si="58"/>
+        <v>1223.9928</v>
+      </c>
+      <c r="AU20" s="12">
+        <f t="shared" si="58"/>
+        <v>1306.0471880000005</v>
+      </c>
+      <c r="AV20" s="12">
+        <f t="shared" si="58"/>
+        <v>1358.7037498800003</v>
+      </c>
+      <c r="AW20" s="12">
+        <f t="shared" si="58"/>
+        <v>1396.1910223788002</v>
+      </c>
+      <c r="AX20" s="12">
+        <f t="shared" si="58"/>
+        <v>1396.3678781025883</v>
+      </c>
+      <c r="AY20" s="12">
+        <f t="shared" si="58"/>
+        <v>1466.0165557836142</v>
+      </c>
+      <c r="AZ20" s="12">
+        <f t="shared" si="58"/>
+        <v>1465.8510454464504</v>
+      </c>
+      <c r="BA20" s="12">
+        <f t="shared" si="58"/>
+        <v>1472.7198137290645</v>
+      </c>
+      <c r="BB20" s="12">
+        <f t="shared" si="58"/>
+        <v>1485.4081406293499</v>
+      </c>
+      <c r="BC20" s="12">
+        <f t="shared" si="58"/>
+        <v>1461.7633977486712</v>
+      </c>
+      <c r="BD20" s="12">
+        <f t="shared" ref="BD20:BH20" si="59">SUM(BD18:BD19)</f>
+        <v>1462.3861750191902</v>
+      </c>
+      <c r="BE20" s="12">
         <f t="shared" si="59"/>
-        <v>1102.01</v>
-      </c>
-      <c r="AS20" s="12">
+        <v>1476.5738366499127</v>
+      </c>
+      <c r="BF20" s="12">
         <f t="shared" si="59"/>
-        <v>1145.55</v>
-      </c>
-      <c r="AT20" s="12">
+        <v>1498.7987689452318</v>
+      </c>
+      <c r="BG20" s="12">
         <f t="shared" si="59"/>
-        <v>1294.6259</v>
-      </c>
-      <c r="AU20" s="12">
+        <v>1526.1593495333213</v>
+      </c>
+      <c r="BH20" s="12">
         <f t="shared" si="59"/>
-        <v>1432.8660790000001</v>
-      </c>
-      <c r="AV20" s="12">
-        <f t="shared" si="59"/>
-        <v>1554.81661979</v>
-      </c>
-      <c r="AW20" s="12">
-        <f t="shared" si="59"/>
-        <v>1627.6650059879003</v>
-      </c>
-      <c r="AX20" s="12">
-        <f t="shared" si="59"/>
-        <v>1675.2205420477794</v>
-      </c>
-      <c r="AY20" s="12">
-        <f t="shared" si="59"/>
-        <v>1776.1577862682568</v>
-      </c>
-      <c r="AZ20" s="12">
-        <f t="shared" si="59"/>
-        <v>1796.0022347909396</v>
-      </c>
-      <c r="BA20" s="12">
-        <f t="shared" si="59"/>
-        <v>1820.7540739186491</v>
-      </c>
-      <c r="BB20" s="12">
-        <f t="shared" si="59"/>
-        <v>1849.6743539410299</v>
-      </c>
-      <c r="BC20" s="12">
-        <f t="shared" si="59"/>
-        <v>1840.841915407224</v>
-      </c>
-      <c r="BD20" s="12">
-        <f t="shared" ref="BD20:BH20" si="60">SUM(BD18:BD19)</f>
-        <v>1855.3888946513844</v>
-      </c>
-      <c r="BE20" s="12">
-        <f t="shared" si="60"/>
-        <v>1882.8230055594388</v>
-      </c>
-      <c r="BF20" s="12">
-        <f t="shared" si="60"/>
-        <v>1917.7975737745946</v>
-      </c>
-      <c r="BG20" s="12">
-        <f t="shared" si="60"/>
-        <v>1957.562898190117</v>
-      </c>
-      <c r="BH20" s="12">
-        <f t="shared" si="60"/>
-        <v>1031.4519728510509</v>
-      </c>
-    </row>
-    <row r="21" spans="2:120" x14ac:dyDescent="0.2">
+        <v>882.53223766212477</v>
+      </c>
+    </row>
+    <row r="21" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="12">
-        <f t="shared" ref="C21:D21" si="61">C17-C20</f>
+        <f t="shared" ref="C21:D21" si="60">C17-C20</f>
         <v>203.94000000000005</v>
       </c>
       <c r="D21" s="12">
+        <f t="shared" si="60"/>
+        <v>156.553</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" ref="E21:G21" si="61">E17-E20</f>
+        <v>276.55500000000006</v>
+      </c>
+      <c r="F21" s="12">
         <f t="shared" si="61"/>
-        <v>156.553</v>
-      </c>
-      <c r="E21" s="12">
-        <f t="shared" ref="E21:G21" si="62">E17-E20</f>
-        <v>276.55500000000006</v>
-      </c>
-      <c r="F21" s="12">
+        <v>269.57999999999993</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="61"/>
+        <v>102.46400000000006</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" ref="H21:I21" si="62">H17-H20</f>
+        <v>396.70000000000005</v>
+      </c>
+      <c r="I21" s="12">
         <f t="shared" si="62"/>
-        <v>269.57999999999993</v>
-      </c>
-      <c r="G21" s="12">
-        <f t="shared" si="62"/>
-        <v>102.46400000000006</v>
-      </c>
-      <c r="H21" s="12">
-        <f t="shared" ref="H21:I21" si="63">H17-H20</f>
-        <v>396.70000000000005</v>
-      </c>
-      <c r="I21" s="12">
-        <f t="shared" si="63"/>
         <v>721.71699999999987</v>
       </c>
       <c r="J21" s="12">
-        <f t="shared" ref="J21" si="64">J17-J20</f>
+        <f t="shared" ref="J21" si="63">J17-J20</f>
         <v>727.2</v>
       </c>
       <c r="K21" s="12">
-        <f t="shared" ref="K21:L21" si="65">K17-K20</f>
+        <f t="shared" ref="K21:L21" si="64">K17-K20</f>
         <v>673.77</v>
       </c>
       <c r="L21" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>884.90000000000009</v>
       </c>
       <c r="M21" s="12">
@@ -6672,11 +6667,11 @@
         <v>1000</v>
       </c>
       <c r="N21" s="12">
-        <f t="shared" ref="N21:Q21" si="66">N17-N20</f>
+        <f t="shared" ref="N21:Q21" si="65">N17-N20</f>
         <v>922.7</v>
       </c>
       <c r="O21" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>1055.5480000000002</v>
       </c>
       <c r="P21" s="12">
@@ -6684,7 +6679,7 @@
         <v>1121.5999999999999</v>
       </c>
       <c r="Q21" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>1264.7</v>
       </c>
       <c r="R21" s="12">
@@ -6696,19 +6691,19 @@
         <v>1318.3999999999996</v>
       </c>
       <c r="T21" s="12">
-        <f t="shared" ref="T21:U21" si="67">T17-T20</f>
+        <f t="shared" ref="T21:U21" si="66">T17-T20</f>
         <v>1173.2999999999997</v>
       </c>
       <c r="U21" s="12">
+        <f t="shared" si="66"/>
+        <v>1249.3999999999996</v>
+      </c>
+      <c r="V21" s="12">
+        <f t="shared" ref="V21:Y21" si="67">V17-V20</f>
+        <v>1258.4000000000001</v>
+      </c>
+      <c r="W21" s="12">
         <f t="shared" si="67"/>
-        <v>1249.3999999999996</v>
-      </c>
-      <c r="V21" s="12">
-        <f t="shared" ref="V21:Y21" si="68">V17-V20</f>
-        <v>1258.4000000000001</v>
-      </c>
-      <c r="W21" s="12">
-        <f t="shared" si="68"/>
         <v>1224.9000000000003</v>
       </c>
       <c r="X21" s="12">
@@ -6716,124 +6711,124 @@
         <v>1169.1000000000004</v>
       </c>
       <c r="Y21" s="12">
+        <f t="shared" si="67"/>
+        <v>1413.0999999999997</v>
+      </c>
+      <c r="Z21" s="12">
+        <f t="shared" ref="Z21:AB21" si="68">Z17-Z20</f>
+        <v>1303</v>
+      </c>
+      <c r="AA21" s="12">
         <f t="shared" si="68"/>
-        <v>1413.0999999999997</v>
-      </c>
-      <c r="Z21" s="12">
-        <f t="shared" ref="Z21:AB21" si="69">Z17-Z20</f>
-        <v>1303</v>
-      </c>
-      <c r="AA21" s="12">
+        <v>1322.1000000000004</v>
+      </c>
+      <c r="AB21" s="12">
+        <f t="shared" si="68"/>
+        <v>1285.7999999999997</v>
+      </c>
+      <c r="AC21" s="12">
+        <f t="shared" ref="AC21:AF21" si="69">AC17-AC20</f>
+        <v>1202.7999999999997</v>
+      </c>
+      <c r="AD21" s="12">
         <f t="shared" si="69"/>
-        <v>1322.1000000000004</v>
-      </c>
-      <c r="AB21" s="12">
+        <v>1327.2999999999997</v>
+      </c>
+      <c r="AE21" s="12">
         <f t="shared" si="69"/>
-        <v>1285.7999999999997</v>
-      </c>
-      <c r="AC21" s="12">
-        <f t="shared" ref="AC21:AF21" si="70">AC17-AC20</f>
-        <v>1202.7999999999997</v>
-      </c>
-      <c r="AD21" s="12">
-        <f t="shared" si="70"/>
-        <v>1501.9</v>
-      </c>
-      <c r="AE21" s="12">
-        <f t="shared" si="70"/>
-        <v>1450.6350000000002</v>
+        <v>1524.3240000000001</v>
       </c>
       <c r="AF21" s="12">
-        <f t="shared" si="70"/>
-        <v>1352.0759999999996</v>
+        <f t="shared" si="69"/>
+        <v>1425.7649999999994</v>
       </c>
       <c r="AG21" s="12"/>
       <c r="AN21" s="12">
-        <f t="shared" ref="AN21:AP21" si="71">AN17-AN20</f>
+        <f t="shared" ref="AN21:AP21" si="70">AN17-AN20</f>
         <v>-1981</v>
       </c>
       <c r="AO21" s="12">
+        <f t="shared" si="70"/>
+        <v>4338.0879999999997</v>
+      </c>
+      <c r="AP21" s="12">
+        <f t="shared" si="70"/>
+        <v>5003.4999999999991</v>
+      </c>
+      <c r="AQ21" s="12">
+        <f t="shared" ref="AQ21:BC21" si="71">AQ17-AQ20</f>
+        <v>4901.8000000000011</v>
+      </c>
+      <c r="AR21" s="12">
         <f t="shared" si="71"/>
-        <v>4338.0879999999997</v>
-      </c>
-      <c r="AP21" s="12">
+        <v>9146.6829999999991</v>
+      </c>
+      <c r="AS21" s="12">
         <f t="shared" si="71"/>
-        <v>5003.4999999999991</v>
-      </c>
-      <c r="AQ21" s="12">
-        <f t="shared" ref="AQ21:BC21" si="72">AQ17-AQ20</f>
-        <v>4901.8000000000011</v>
-      </c>
-      <c r="AR21" s="12">
+        <v>9726.6870000000017</v>
+      </c>
+      <c r="AT21" s="12">
+        <f t="shared" si="71"/>
+        <v>10159.140240000001</v>
+      </c>
+      <c r="AU21" s="12">
+        <f t="shared" si="71"/>
+        <v>10840.191660400002</v>
+      </c>
+      <c r="AV21" s="12">
+        <f t="shared" si="71"/>
+        <v>11277.241124004002</v>
+      </c>
+      <c r="AW21" s="12">
+        <f t="shared" si="71"/>
+        <v>11588.385485744042</v>
+      </c>
+      <c r="AX21" s="12">
+        <f t="shared" si="71"/>
+        <v>11589.853388251482</v>
+      </c>
+      <c r="AY21" s="12">
+        <f t="shared" si="71"/>
+        <v>12167.937413003998</v>
+      </c>
+      <c r="AZ21" s="12">
+        <f t="shared" si="71"/>
+        <v>12166.563677205537</v>
+      </c>
+      <c r="BA21" s="12">
+        <f t="shared" si="71"/>
+        <v>12518.118416697047</v>
+      </c>
+      <c r="BB21" s="12">
+        <f t="shared" si="71"/>
+        <v>12625.969195349471</v>
+      </c>
+      <c r="BC21" s="12">
+        <f t="shared" si="71"/>
+        <v>12424.988880863702</v>
+      </c>
+      <c r="BD21" s="12">
+        <f t="shared" ref="BD21:BH21" si="72">BD17-BD20</f>
+        <v>12430.282487663117</v>
+      </c>
+      <c r="BE21" s="12">
         <f t="shared" si="72"/>
-        <v>9146.6829999999991</v>
-      </c>
-      <c r="AS21" s="12">
+        <v>12550.877611524254</v>
+      </c>
+      <c r="BF21" s="12">
         <f t="shared" si="72"/>
-        <v>9508.0650000000005</v>
-      </c>
-      <c r="AT21" s="12">
+        <v>12739.78953603447</v>
+      </c>
+      <c r="BG21" s="12">
         <f t="shared" si="72"/>
-        <v>10745.394970000001</v>
-      </c>
-      <c r="AU21" s="12">
+        <v>12972.35447103323</v>
+      </c>
+      <c r="BH21" s="12">
         <f t="shared" si="72"/>
-        <v>11892.7884557</v>
-      </c>
-      <c r="AV21" s="12">
-        <f t="shared" si="72"/>
-        <v>12904.977944257</v>
-      </c>
-      <c r="AW21" s="12">
-        <f t="shared" si="72"/>
-        <v>13509.619549699572</v>
-      </c>
-      <c r="AX21" s="12">
-        <f t="shared" si="72"/>
-        <v>13904.330498996565</v>
-      </c>
-      <c r="AY21" s="12">
-        <f t="shared" si="72"/>
-        <v>14742.109626026529</v>
-      </c>
-      <c r="AZ21" s="12">
-        <f t="shared" si="72"/>
-        <v>14906.818548764797</v>
-      </c>
-      <c r="BA21" s="12">
-        <f t="shared" si="72"/>
-        <v>15476.409628308515</v>
-      </c>
-      <c r="BB21" s="12">
-        <f t="shared" si="72"/>
-        <v>15722.232008498751</v>
-      </c>
-      <c r="BC21" s="12">
-        <f t="shared" si="72"/>
-        <v>15647.156280961402</v>
-      </c>
-      <c r="BD21" s="12">
-        <f t="shared" ref="BD21:BH21" si="73">BD17-BD20</f>
-        <v>15770.805604536767</v>
-      </c>
-      <c r="BE21" s="12">
-        <f t="shared" si="73"/>
-        <v>16003.995547255228</v>
-      </c>
-      <c r="BF21" s="12">
-        <f t="shared" si="73"/>
-        <v>16301.279377084054</v>
-      </c>
-      <c r="BG21" s="12">
-        <f t="shared" si="73"/>
-        <v>16639.284634615993</v>
-      </c>
-      <c r="BH21" s="12">
-        <f t="shared" si="73"/>
-        <v>8561.0513746637207</v>
-      </c>
-    </row>
-    <row r="22" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>7325.0175725956342</v>
+      </c>
+    </row>
+    <row r="22" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>119</v>
       </c>
@@ -6946,19 +6941,18 @@
         <v>117.69999999999999</v>
       </c>
       <c r="AD22" s="2">
-        <f>+AC22</f>
-        <v>117.69999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AE22" s="2">
         <f>+AD22</f>
-        <v>117.69999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AF22" s="2">
         <f>+AE22</f>
-        <v>117.69999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AP22" s="2">
-        <f t="shared" ref="AP22:AP24" si="74">SUM(Q22:T22)</f>
+        <f t="shared" ref="AP22:AP24" si="73">SUM(Q22:T22)</f>
         <v>89.6</v>
       </c>
       <c r="AQ22" s="2">
@@ -6966,108 +6960,108 @@
         <v>548</v>
       </c>
       <c r="AR22" s="2">
-        <f t="shared" ref="AR22:BE22" si="75">+AQ34*$BK$32</f>
-        <v>137.16100000000003</v>
+        <f t="shared" ref="AR22:BE22" si="74">+AQ34*$BK$32</f>
+        <v>411.48300000000006</v>
       </c>
       <c r="AS22" s="2">
-        <f t="shared" si="75"/>
-        <v>211.43175200000002</v>
+        <f t="shared" si="74"/>
+        <v>640.87898399999995</v>
       </c>
       <c r="AT22" s="2">
-        <f t="shared" si="75"/>
-        <v>289.187726016</v>
+        <f t="shared" si="74"/>
+        <v>889.70056761600006</v>
       </c>
       <c r="AU22" s="2">
-        <f t="shared" si="75"/>
-        <v>377.46438758412796</v>
+        <f t="shared" si="74"/>
+        <v>1154.8727469987839</v>
       </c>
       <c r="AV22" s="2">
-        <f t="shared" si="75"/>
-        <v>475.62641033040097</v>
+        <f t="shared" si="74"/>
+        <v>1442.7542927763548</v>
       </c>
       <c r="AW22" s="2">
-        <f t="shared" si="75"/>
-        <v>582.6712451671001</v>
+        <f t="shared" si="74"/>
+        <v>1748.0341827790833</v>
       </c>
       <c r="AX22" s="2">
-        <f t="shared" si="75"/>
-        <v>695.40957152603357</v>
+        <f t="shared" si="74"/>
+        <v>2068.1082548236386</v>
       </c>
       <c r="AY22" s="2">
-        <f t="shared" si="75"/>
-        <v>812.20749209021437</v>
+        <f t="shared" si="74"/>
+        <v>2395.8993342574413</v>
       </c>
       <c r="AZ22" s="2">
-        <f t="shared" si="75"/>
-        <v>936.64202903514831</v>
+        <f t="shared" si="74"/>
+        <v>2745.4314161917164</v>
       </c>
       <c r="BA22" s="2">
-        <f t="shared" si="75"/>
-        <v>1063.3897136575479</v>
+        <f t="shared" si="74"/>
+        <v>3103.3192984332504</v>
       </c>
       <c r="BB22" s="2">
-        <f t="shared" si="75"/>
-        <v>1195.7081083932765</v>
+        <f t="shared" si="74"/>
+        <v>3478.2338035963776</v>
       </c>
       <c r="BC22" s="2">
-        <f t="shared" si="75"/>
-        <v>1331.0516293284124</v>
+        <f t="shared" si="74"/>
+        <v>3864.7346755710782</v>
       </c>
       <c r="BD22" s="2">
-        <f t="shared" si="75"/>
-        <v>1466.877292610731</v>
+        <f t="shared" si="74"/>
+        <v>4255.6880409255127</v>
       </c>
       <c r="BE22" s="2">
-        <f t="shared" si="75"/>
-        <v>1604.778755787911</v>
+        <f t="shared" si="74"/>
+        <v>4656.1513336116395</v>
       </c>
       <c r="BF22" s="2">
-        <f t="shared" ref="BF22:BH22" si="76">+BE34*$BK$32</f>
-        <v>1745.6489502122563</v>
+        <f t="shared" ref="BF22:BH22" si="75">+BE34*$BK$32</f>
+        <v>5069.1200282949012</v>
       </c>
       <c r="BG22" s="2">
         <f>+BF34*$BK$32</f>
-        <v>1890.0243768306266</v>
+        <v>5496.5338578388055</v>
       </c>
       <c r="BH22" s="2">
-        <f t="shared" si="76"/>
-        <v>2038.2588489221998</v>
-      </c>
-    </row>
-    <row r="23" spans="2:120" x14ac:dyDescent="0.2">
+        <f t="shared" si="75"/>
+        <v>5939.787177731735</v>
+      </c>
+    </row>
+    <row r="23" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C23" s="12">
-        <f t="shared" ref="C23:D23" si="77">+C21+C22</f>
+        <f t="shared" ref="C23:D23" si="76">+C21+C22</f>
         <v>195.79700000000005</v>
       </c>
       <c r="D23" s="12">
+        <f t="shared" si="76"/>
+        <v>151.78</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" ref="E23:F23" si="77">+E21+E22</f>
+        <v>277.30200000000008</v>
+      </c>
+      <c r="F23" s="12">
         <f t="shared" si="77"/>
-        <v>151.78</v>
-      </c>
-      <c r="E23" s="12">
-        <f t="shared" ref="E23:F23" si="78">+E21+E22</f>
-        <v>277.30200000000008</v>
-      </c>
-      <c r="F23" s="12">
+        <v>272.8189999999999</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" ref="G23:J23" si="78">+G21+G22</f>
+        <v>105.54400000000005</v>
+      </c>
+      <c r="H23" s="12">
         <f t="shared" si="78"/>
-        <v>272.8189999999999</v>
-      </c>
-      <c r="G23" s="12">
-        <f t="shared" ref="G23:J23" si="79">+G21+G22</f>
-        <v>105.54400000000005</v>
-      </c>
-      <c r="H23" s="12">
-        <f t="shared" si="79"/>
         <v>394.81000000000006</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>720.15699999999993</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>717.572</v>
       </c>
       <c r="K23" s="12">
@@ -7083,80 +7077,80 @@
         <v>985.8</v>
       </c>
       <c r="N23" s="12">
-        <f t="shared" ref="N23:Q23" si="80">+N21+N22</f>
+        <f t="shared" ref="N23:Q23" si="79">+N21+N22</f>
         <v>908.30000000000007</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>1041.4090000000003</v>
       </c>
       <c r="P23" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>1107.6999999999998</v>
       </c>
       <c r="Q23" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>1251.4000000000001</v>
       </c>
       <c r="R23" s="12">
-        <f t="shared" ref="R23" si="81">+R21+R22</f>
+        <f t="shared" ref="R23" si="80">+R21+R22</f>
         <v>1243.3000000000002</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" ref="S23" si="82">+S21+S22</f>
+        <f t="shared" ref="S23" si="81">+S21+S22</f>
         <v>1350.6999999999996</v>
       </c>
       <c r="T23" s="12">
-        <f t="shared" ref="T23:AF23" si="83">+T21+T22</f>
+        <f t="shared" ref="T23:AF23" si="82">+T21+T22</f>
         <v>1247.6999999999998</v>
       </c>
       <c r="U23" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1355.4999999999995</v>
       </c>
       <c r="V23" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1393.9</v>
       </c>
       <c r="W23" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1372.2000000000003</v>
       </c>
       <c r="X23" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1328.2000000000003</v>
       </c>
       <c r="Y23" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1579.6999999999996</v>
       </c>
       <c r="Z23" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1439.2</v>
       </c>
       <c r="AA23" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1440.7000000000003</v>
       </c>
       <c r="AB23" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1403.4999999999998</v>
       </c>
       <c r="AC23" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1320.4999999999998</v>
       </c>
       <c r="AD23" s="12">
-        <f t="shared" si="83"/>
-        <v>1619.6000000000001</v>
+        <f t="shared" si="82"/>
+        <v>1335.0999999999997</v>
       </c>
       <c r="AE23" s="12">
-        <f t="shared" si="83"/>
-        <v>1568.3350000000003</v>
+        <f t="shared" si="82"/>
+        <v>1532.124</v>
       </c>
       <c r="AF23" s="12">
-        <f t="shared" si="83"/>
-        <v>1469.7759999999996</v>
+        <f t="shared" si="82"/>
+        <v>1433.5649999999994</v>
       </c>
       <c r="AG23" s="12"/>
       <c r="AP23" s="2">
@@ -7164,79 +7158,79 @@
         <v>5093.0999999999995</v>
       </c>
       <c r="AQ23" s="2">
-        <f t="shared" ref="AQ23:BC23" si="84">+AQ21+AQ22</f>
+        <f t="shared" ref="AQ23:BC23" si="83">+AQ21+AQ22</f>
         <v>5449.8000000000011</v>
       </c>
       <c r="AR23" s="2">
+        <f t="shared" si="83"/>
+        <v>9558.1659999999993</v>
+      </c>
+      <c r="AS23" s="2">
+        <f t="shared" si="83"/>
+        <v>10367.565984000001</v>
+      </c>
+      <c r="AT23" s="2">
+        <f t="shared" si="83"/>
+        <v>11048.840807616001</v>
+      </c>
+      <c r="AU23" s="2">
+        <f t="shared" si="83"/>
+        <v>11995.064407398786</v>
+      </c>
+      <c r="AV23" s="2">
+        <f t="shared" si="83"/>
+        <v>12719.995416780357</v>
+      </c>
+      <c r="AW23" s="2">
+        <f t="shared" si="83"/>
+        <v>13336.419668523125</v>
+      </c>
+      <c r="AX23" s="2">
+        <f t="shared" si="83"/>
+        <v>13657.961643075121</v>
+      </c>
+      <c r="AY23" s="2">
+        <f t="shared" si="83"/>
+        <v>14563.836747261439</v>
+      </c>
+      <c r="AZ23" s="2">
+        <f t="shared" si="83"/>
+        <v>14911.995093397254</v>
+      </c>
+      <c r="BA23" s="2">
+        <f t="shared" si="83"/>
+        <v>15621.437715130298</v>
+      </c>
+      <c r="BB23" s="2">
+        <f t="shared" si="83"/>
+        <v>16104.20299894585</v>
+      </c>
+      <c r="BC23" s="2">
+        <f t="shared" si="83"/>
+        <v>16289.723556434781</v>
+      </c>
+      <c r="BD23" s="2">
+        <f t="shared" ref="BD23:BH23" si="84">+BD21+BD22</f>
+        <v>16685.97052858863</v>
+      </c>
+      <c r="BE23" s="2">
         <f t="shared" si="84"/>
-        <v>9283.8439999999991</v>
-      </c>
-      <c r="AS23" s="2">
+        <v>17207.028945135895</v>
+      </c>
+      <c r="BF23" s="2">
         <f t="shared" si="84"/>
-        <v>9719.4967520000009</v>
-      </c>
-      <c r="AT23" s="2">
+        <v>17808.909564329369</v>
+      </c>
+      <c r="BG23" s="2">
         <f t="shared" si="84"/>
-        <v>11034.582696016001</v>
-      </c>
-      <c r="AU23" s="2">
+        <v>18468.888328872035</v>
+      </c>
+      <c r="BH23" s="2">
         <f t="shared" si="84"/>
-        <v>12270.252843284128</v>
-      </c>
-      <c r="AV23" s="2">
-        <f t="shared" si="84"/>
-        <v>13380.6043545874</v>
-      </c>
-      <c r="AW23" s="2">
-        <f t="shared" si="84"/>
-        <v>14092.290794866673</v>
-      </c>
-      <c r="AX23" s="2">
-        <f t="shared" si="84"/>
-        <v>14599.740070522599</v>
-      </c>
-      <c r="AY23" s="2">
-        <f t="shared" si="84"/>
-        <v>15554.317118116744</v>
-      </c>
-      <c r="AZ23" s="2">
-        <f t="shared" si="84"/>
-        <v>15843.460577799946</v>
-      </c>
-      <c r="BA23" s="2">
-        <f t="shared" si="84"/>
-        <v>16539.799341966063</v>
-      </c>
-      <c r="BB23" s="2">
-        <f t="shared" si="84"/>
-        <v>16917.940116892027</v>
-      </c>
-      <c r="BC23" s="2">
-        <f t="shared" si="84"/>
-        <v>16978.207910289813</v>
-      </c>
-      <c r="BD23" s="2">
-        <f t="shared" ref="BD23:BH23" si="85">+BD21+BD22</f>
-        <v>17237.682897147497</v>
-      </c>
-      <c r="BE23" s="2">
-        <f t="shared" si="85"/>
-        <v>17608.774303043137</v>
-      </c>
-      <c r="BF23" s="2">
-        <f t="shared" si="85"/>
-        <v>18046.928327296311</v>
-      </c>
-      <c r="BG23" s="2">
-        <f t="shared" si="85"/>
-        <v>18529.309011446621</v>
-      </c>
-      <c r="BH23" s="2">
-        <f t="shared" si="85"/>
-        <v>10599.310223585921</v>
-      </c>
-    </row>
-    <row r="24" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>13264.80475032737</v>
+      </c>
+    </row>
+    <row r="24" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>121</v>
       </c>
@@ -7323,19 +7317,18 @@
         <v>132.04999999999998</v>
       </c>
       <c r="AD24" s="2">
-        <f>+AD23*0.1</f>
-        <v>161.96000000000004</v>
+        <v>282.2</v>
       </c>
       <c r="AE24" s="2">
         <f>+AE23*0.1</f>
-        <v>156.83350000000004</v>
+        <v>153.2124</v>
       </c>
       <c r="AF24" s="2">
         <f>+AF23*0.1</f>
-        <v>146.97759999999997</v>
+        <v>143.35649999999995</v>
       </c>
       <c r="AP24" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1011.4</v>
       </c>
       <c r="AQ24" s="2">
@@ -7343,108 +7336,108 @@
         <v>919.39999999999986</v>
       </c>
       <c r="AR24" s="2">
-        <f t="shared" ref="AR24:BC24" si="86">+AR23*0.2</f>
-        <v>1856.7687999999998</v>
+        <f t="shared" ref="AR24:BC24" si="85">+AR23*0.2</f>
+        <v>1911.6332</v>
       </c>
       <c r="AS24" s="2">
+        <f t="shared" si="85"/>
+        <v>2073.5131968000001</v>
+      </c>
+      <c r="AT24" s="2">
+        <f t="shared" si="85"/>
+        <v>2209.7681615232004</v>
+      </c>
+      <c r="AU24" s="2">
+        <f t="shared" si="85"/>
+        <v>2399.0128814797572</v>
+      </c>
+      <c r="AV24" s="2">
+        <f t="shared" si="85"/>
+        <v>2543.9990833560714</v>
+      </c>
+      <c r="AW24" s="2">
+        <f t="shared" si="85"/>
+        <v>2667.2839337046253</v>
+      </c>
+      <c r="AX24" s="2">
+        <f t="shared" si="85"/>
+        <v>2731.5923286150246</v>
+      </c>
+      <c r="AY24" s="2">
+        <f t="shared" si="85"/>
+        <v>2912.7673494522878</v>
+      </c>
+      <c r="AZ24" s="2">
+        <f t="shared" si="85"/>
+        <v>2982.3990186794508</v>
+      </c>
+      <c r="BA24" s="2">
+        <f t="shared" si="85"/>
+        <v>3124.2875430260597</v>
+      </c>
+      <c r="BB24" s="2">
+        <f t="shared" si="85"/>
+        <v>3220.84059978917</v>
+      </c>
+      <c r="BC24" s="2">
+        <f t="shared" si="85"/>
+        <v>3257.9447112869566</v>
+      </c>
+      <c r="BD24" s="2">
+        <f t="shared" ref="BD24:BH24" si="86">+BD23*0.2</f>
+        <v>3337.1941057177264</v>
+      </c>
+      <c r="BE24" s="2">
         <f t="shared" si="86"/>
-        <v>1943.8993504000002</v>
-      </c>
-      <c r="AT24" s="2">
-        <f t="shared" si="86"/>
-        <v>2206.9165392032005</v>
-      </c>
-      <c r="AU24" s="2">
-        <f t="shared" si="86"/>
-        <v>2454.0505686568258</v>
-      </c>
-      <c r="AV24" s="2">
-        <f t="shared" si="86"/>
-        <v>2676.1208709174803</v>
-      </c>
-      <c r="AW24" s="2">
-        <f t="shared" si="86"/>
-        <v>2818.4581589733348</v>
-      </c>
-      <c r="AX24" s="2">
-        <f t="shared" si="86"/>
-        <v>2919.9480141045201</v>
-      </c>
-      <c r="AY24" s="2">
-        <f t="shared" si="86"/>
-        <v>3110.8634236233488</v>
-      </c>
-      <c r="AZ24" s="2">
-        <f t="shared" si="86"/>
-        <v>3168.6921155599894</v>
-      </c>
-      <c r="BA24" s="2">
-        <f t="shared" si="86"/>
-        <v>3307.9598683932127</v>
-      </c>
-      <c r="BB24" s="2">
-        <f t="shared" si="86"/>
-        <v>3383.5880233784055</v>
-      </c>
-      <c r="BC24" s="2">
-        <f t="shared" si="86"/>
-        <v>3395.6415820579628</v>
-      </c>
-      <c r="BD24" s="2">
-        <f t="shared" ref="BD24:BH24" si="87">+BD23*0.2</f>
-        <v>3447.5365794294994</v>
-      </c>
-      <c r="BE24" s="2">
-        <f t="shared" si="87"/>
-        <v>3521.7548606086275</v>
+        <v>3441.4057890271793</v>
       </c>
       <c r="BF24" s="2">
         <f>+BF23*0.2</f>
-        <v>3609.3856654592623</v>
+        <v>3561.7819128658739</v>
       </c>
       <c r="BG24" s="2">
         <f>+BG23*0.2</f>
-        <v>3705.8618022893243</v>
+        <v>3693.7776657744071</v>
       </c>
       <c r="BH24" s="2">
-        <f t="shared" si="87"/>
-        <v>2119.8620447171843</v>
-      </c>
-    </row>
-    <row r="25" spans="2:120" x14ac:dyDescent="0.2">
+        <f t="shared" si="86"/>
+        <v>2652.9609500654742</v>
+      </c>
+    </row>
+    <row r="25" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C25" s="12">
-        <f t="shared" ref="C25:D25" si="88">+C23-C24</f>
+        <f t="shared" ref="C25:D25" si="87">+C23-C24</f>
         <v>187.74200000000005</v>
       </c>
       <c r="D25" s="12">
+        <f t="shared" si="87"/>
+        <v>151.78</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" ref="E25:F25" si="88">+E23-E24</f>
+        <v>225.76800000000009</v>
+      </c>
+      <c r="F25" s="12">
         <f t="shared" si="88"/>
-        <v>151.78</v>
-      </c>
-      <c r="E25" s="12">
-        <f t="shared" ref="E25:F25" si="89">+E23-E24</f>
-        <v>225.76800000000009</v>
-      </c>
-      <c r="F25" s="12">
+        <v>213.10799999999989</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" ref="G25:J25" si="89">+G23-G24</f>
+        <v>92.396000000000058</v>
+      </c>
+      <c r="H25" s="12">
         <f t="shared" si="89"/>
-        <v>213.10799999999989</v>
-      </c>
-      <c r="G25" s="12">
-        <f t="shared" ref="G25:J25" si="90">+G23-G24</f>
-        <v>92.396000000000058</v>
-      </c>
-      <c r="H25" s="12">
-        <f t="shared" si="90"/>
         <v>301.09400000000005</v>
       </c>
       <c r="I25" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>665.37599999999998</v>
       </c>
       <c r="J25" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>730.072</v>
       </c>
       <c r="K25" s="12">
@@ -7460,80 +7453,80 @@
         <v>779.8</v>
       </c>
       <c r="N25" s="12">
-        <f t="shared" ref="N25:Y25" si="91">+N23-N24</f>
+        <f t="shared" ref="N25:Y25" si="90">+N23-N24</f>
         <v>897.40000000000009</v>
       </c>
       <c r="O25" s="12">
+        <f t="shared" si="90"/>
+        <v>810.59600000000034</v>
+      </c>
+      <c r="P25" s="12">
+        <f t="shared" si="90"/>
+        <v>868.69999999999982</v>
+      </c>
+      <c r="Q25" s="12">
+        <f t="shared" si="90"/>
+        <v>1002.4000000000001</v>
+      </c>
+      <c r="R25" s="12">
+        <f t="shared" si="90"/>
+        <v>984.70000000000016</v>
+      </c>
+      <c r="S25" s="12">
+        <f t="shared" si="90"/>
+        <v>1104.7999999999995</v>
+      </c>
+      <c r="T25" s="12">
+        <f t="shared" si="90"/>
+        <v>989.79999999999984</v>
+      </c>
+      <c r="U25" s="12">
+        <f t="shared" si="90"/>
+        <v>1141.0999999999995</v>
+      </c>
+      <c r="V25" s="12">
+        <f t="shared" si="90"/>
+        <v>1124.5</v>
+      </c>
+      <c r="W25" s="12">
+        <f t="shared" si="90"/>
+        <v>1115.4000000000003</v>
+      </c>
+      <c r="X25" s="12">
+        <f t="shared" si="90"/>
+        <v>1149.4000000000003</v>
+      </c>
+      <c r="Y25" s="12">
+        <f t="shared" si="90"/>
+        <v>1318.5999999999995</v>
+      </c>
+      <c r="Z25" s="12">
+        <f t="shared" ref="Z25:AF25" si="91">+Z23-Z24</f>
+        <v>1138.5999999999999</v>
+      </c>
+      <c r="AA25" s="12">
         <f t="shared" si="91"/>
-        <v>810.59600000000034</v>
-      </c>
-      <c r="P25" s="12">
+        <v>1158.0000000000002</v>
+      </c>
+      <c r="AB25" s="12">
         <f t="shared" si="91"/>
-        <v>868.69999999999982</v>
-      </c>
-      <c r="Q25" s="12">
+        <v>1123.7999999999997</v>
+      </c>
+      <c r="AC25" s="12">
         <f t="shared" si="91"/>
-        <v>1002.4000000000001</v>
-      </c>
-      <c r="R25" s="12">
+        <v>1188.4499999999998</v>
+      </c>
+      <c r="AD25" s="12">
         <f t="shared" si="91"/>
-        <v>984.70000000000016</v>
-      </c>
-      <c r="S25" s="12">
+        <v>1052.8999999999996</v>
+      </c>
+      <c r="AE25" s="12">
         <f t="shared" si="91"/>
-        <v>1104.7999999999995</v>
-      </c>
-      <c r="T25" s="12">
+        <v>1378.9115999999999</v>
+      </c>
+      <c r="AF25" s="12">
         <f t="shared" si="91"/>
-        <v>989.79999999999984</v>
-      </c>
-      <c r="U25" s="12">
-        <f t="shared" si="91"/>
-        <v>1141.0999999999995</v>
-      </c>
-      <c r="V25" s="12">
-        <f t="shared" si="91"/>
-        <v>1124.5</v>
-      </c>
-      <c r="W25" s="12">
-        <f t="shared" si="91"/>
-        <v>1115.4000000000003</v>
-      </c>
-      <c r="X25" s="12">
-        <f t="shared" si="91"/>
-        <v>1149.4000000000003</v>
-      </c>
-      <c r="Y25" s="12">
-        <f t="shared" si="91"/>
-        <v>1318.5999999999995</v>
-      </c>
-      <c r="Z25" s="12">
-        <f t="shared" ref="Z25:AF25" si="92">+Z23-Z24</f>
-        <v>1138.5999999999999</v>
-      </c>
-      <c r="AA25" s="12">
-        <f t="shared" si="92"/>
-        <v>1158.0000000000002</v>
-      </c>
-      <c r="AB25" s="12">
-        <f t="shared" si="92"/>
-        <v>1123.7999999999997</v>
-      </c>
-      <c r="AC25" s="12">
-        <f t="shared" si="92"/>
-        <v>1188.4499999999998</v>
-      </c>
-      <c r="AD25" s="12">
-        <f t="shared" si="92"/>
-        <v>1457.64</v>
-      </c>
-      <c r="AE25" s="12">
-        <f t="shared" si="92"/>
-        <v>1411.5015000000003</v>
-      </c>
-      <c r="AF25" s="12">
-        <f t="shared" si="92"/>
-        <v>1322.7983999999997</v>
+        <v>1290.2084999999995</v>
       </c>
       <c r="AG25" s="12"/>
       <c r="AP25" s="2">
@@ -7541,376 +7534,376 @@
         <v>4081.6999999999994</v>
       </c>
       <c r="AQ25" s="2">
-        <f t="shared" ref="AQ25:AW25" si="93">+AQ23-AQ24</f>
+        <f t="shared" ref="AQ25:AW25" si="92">+AQ23-AQ24</f>
         <v>4530.4000000000015</v>
       </c>
       <c r="AR25" s="2">
+        <f t="shared" si="92"/>
+        <v>7646.532799999999</v>
+      </c>
+      <c r="AS25" s="2">
+        <f t="shared" si="92"/>
+        <v>8294.0527872000002</v>
+      </c>
+      <c r="AT25" s="2">
+        <f t="shared" si="92"/>
+        <v>8839.0726460928017</v>
+      </c>
+      <c r="AU25" s="2">
+        <f t="shared" si="92"/>
+        <v>9596.0515259190288</v>
+      </c>
+      <c r="AV25" s="2">
+        <f t="shared" si="92"/>
+        <v>10175.996333424286</v>
+      </c>
+      <c r="AW25" s="2">
+        <f t="shared" si="92"/>
+        <v>10669.135734818501</v>
+      </c>
+      <c r="AX25" s="2">
+        <f t="shared" ref="AX25:BC25" si="93">+AX23-AX24</f>
+        <v>10926.369314460097</v>
+      </c>
+      <c r="AY25" s="2">
         <f t="shared" si="93"/>
-        <v>7427.0751999999993</v>
-      </c>
-      <c r="AS25" s="2">
+        <v>11651.069397809151</v>
+      </c>
+      <c r="AZ25" s="2">
         <f t="shared" si="93"/>
-        <v>7775.5974016000009</v>
-      </c>
-      <c r="AT25" s="2">
+        <v>11929.596074717803</v>
+      </c>
+      <c r="BA25" s="2">
         <f t="shared" si="93"/>
-        <v>8827.6661568128002</v>
-      </c>
-      <c r="AU25" s="2">
+        <v>12497.150172104239</v>
+      </c>
+      <c r="BB25" s="2">
         <f t="shared" si="93"/>
-        <v>9816.2022746273033</v>
-      </c>
-      <c r="AV25" s="2">
+        <v>12883.36239915668</v>
+      </c>
+      <c r="BC25" s="2">
         <f t="shared" si="93"/>
-        <v>10704.483483669919</v>
-      </c>
-      <c r="AW25" s="2">
-        <f t="shared" si="93"/>
-        <v>11273.832635893337</v>
-      </c>
-      <c r="AX25" s="2">
-        <f t="shared" ref="AX25:BC25" si="94">+AX23-AX24</f>
-        <v>11679.792056418079</v>
-      </c>
-      <c r="AY25" s="2">
+        <v>13031.778845147825</v>
+      </c>
+      <c r="BD25" s="2">
+        <f t="shared" ref="BD25:BH25" si="94">+BD23-BD24</f>
+        <v>13348.776422870904</v>
+      </c>
+      <c r="BE25" s="2">
         <f t="shared" si="94"/>
-        <v>12443.453694493395</v>
-      </c>
-      <c r="AZ25" s="2">
+        <v>13765.623156108715</v>
+      </c>
+      <c r="BF25" s="2">
         <f t="shared" si="94"/>
-        <v>12674.768462239957</v>
-      </c>
-      <c r="BA25" s="2">
+        <v>14247.127651463496</v>
+      </c>
+      <c r="BG25" s="2">
         <f t="shared" si="94"/>
-        <v>13231.839473572851</v>
-      </c>
-      <c r="BB25" s="2">
+        <v>14775.110663097628</v>
+      </c>
+      <c r="BH25" s="2">
         <f t="shared" si="94"/>
-        <v>13534.352093513622</v>
-      </c>
-      <c r="BC25" s="2">
-        <f t="shared" si="94"/>
-        <v>13582.566328231851</v>
-      </c>
-      <c r="BD25" s="2">
-        <f t="shared" ref="BD25:BH25" si="95">+BD23-BD24</f>
-        <v>13790.146317717998</v>
-      </c>
-      <c r="BE25" s="2">
+        <v>10611.843800261897</v>
+      </c>
+      <c r="BI25" s="2">
+        <f t="shared" ref="BI25:CN25" si="95">+BH25*(1+$BK$30)</f>
+        <v>10081.251610248801</v>
+      </c>
+      <c r="BJ25" s="2">
         <f t="shared" si="95"/>
-        <v>14087.01944243451</v>
-      </c>
-      <c r="BF25" s="2">
+        <v>9577.1890297363607</v>
+      </c>
+      <c r="BK25" s="2">
         <f t="shared" si="95"/>
-        <v>14437.542661837049</v>
-      </c>
-      <c r="BG25" s="2">
+        <v>9098.3295782495425</v>
+      </c>
+      <c r="BL25" s="2">
         <f t="shared" si="95"/>
-        <v>14823.447209157297</v>
-      </c>
-      <c r="BH25" s="2">
+        <v>8643.4130993370654</v>
+      </c>
+      <c r="BM25" s="2">
         <f t="shared" si="95"/>
-        <v>8479.4481788687372</v>
-      </c>
-      <c r="BI25" s="2">
-        <f t="shared" ref="BI25:CN25" si="96">+BH25*(1+$BK$30)</f>
-        <v>8055.4757699252996</v>
-      </c>
-      <c r="BJ25" s="2">
+        <v>8211.2424443702112</v>
+      </c>
+      <c r="BN25" s="2">
+        <f t="shared" si="95"/>
+        <v>7800.6803221517002</v>
+      </c>
+      <c r="BO25" s="2">
+        <f t="shared" si="95"/>
+        <v>7410.6463060441147</v>
+      </c>
+      <c r="BP25" s="2">
+        <f t="shared" si="95"/>
+        <v>7040.1139907419083</v>
+      </c>
+      <c r="BQ25" s="2">
+        <f t="shared" si="95"/>
+        <v>6688.1082912048123</v>
+      </c>
+      <c r="BR25" s="2">
+        <f t="shared" si="95"/>
+        <v>6353.702876644571</v>
+      </c>
+      <c r="BS25" s="2">
+        <f t="shared" si="95"/>
+        <v>6036.0177328123418</v>
+      </c>
+      <c r="BT25" s="2">
+        <f t="shared" si="95"/>
+        <v>5734.2168461717247</v>
+      </c>
+      <c r="BU25" s="2">
+        <f t="shared" si="95"/>
+        <v>5447.5060038631382</v>
+      </c>
+      <c r="BV25" s="2">
+        <f t="shared" si="95"/>
+        <v>5175.1307036699809</v>
+      </c>
+      <c r="BW25" s="2">
+        <f t="shared" si="95"/>
+        <v>4916.3741684864817</v>
+      </c>
+      <c r="BX25" s="2">
+        <f t="shared" si="95"/>
+        <v>4670.5554600621572</v>
+      </c>
+      <c r="BY25" s="2">
+        <f t="shared" si="95"/>
+        <v>4437.0276870590487</v>
+      </c>
+      <c r="BZ25" s="2">
+        <f t="shared" si="95"/>
+        <v>4215.1763027060961</v>
+      </c>
+      <c r="CA25" s="2">
+        <f t="shared" si="95"/>
+        <v>4004.4174875707909</v>
+      </c>
+      <c r="CB25" s="2">
+        <f t="shared" si="95"/>
+        <v>3804.1966131922513</v>
+      </c>
+      <c r="CC25" s="2">
+        <f t="shared" si="95"/>
+        <v>3613.9867825326387</v>
+      </c>
+      <c r="CD25" s="2">
+        <f t="shared" si="95"/>
+        <v>3433.2874434060068</v>
+      </c>
+      <c r="CE25" s="2">
+        <f t="shared" si="95"/>
+        <v>3261.6230712357064</v>
+      </c>
+      <c r="CF25" s="2">
+        <f t="shared" si="95"/>
+        <v>3098.541917673921</v>
+      </c>
+      <c r="CG25" s="2">
+        <f t="shared" si="95"/>
+        <v>2943.6148217902251</v>
+      </c>
+      <c r="CH25" s="2">
+        <f t="shared" si="95"/>
+        <v>2796.4340807007138</v>
+      </c>
+      <c r="CI25" s="2">
+        <f t="shared" si="95"/>
+        <v>2656.6123766656779</v>
+      </c>
+      <c r="CJ25" s="2">
+        <f t="shared" si="95"/>
+        <v>2523.7817578323939</v>
+      </c>
+      <c r="CK25" s="2">
+        <f t="shared" si="95"/>
+        <v>2397.5926699407742</v>
+      </c>
+      <c r="CL25" s="2">
+        <f t="shared" si="95"/>
+        <v>2277.7130364437353</v>
+      </c>
+      <c r="CM25" s="2">
+        <f t="shared" si="95"/>
+        <v>2163.8273846215484</v>
+      </c>
+      <c r="CN25" s="2">
+        <f t="shared" si="95"/>
+        <v>2055.6360153904707</v>
+      </c>
+      <c r="CO25" s="2">
+        <f t="shared" ref="CO25:DP25" si="96">+CN25*(1+$BK$30)</f>
+        <v>1952.854214620947</v>
+      </c>
+      <c r="CP25" s="2">
         <f t="shared" si="96"/>
-        <v>7652.7019814290343</v>
-      </c>
-      <c r="BK25" s="2">
+        <v>1855.2115038898996</v>
+      </c>
+      <c r="CQ25" s="2">
         <f t="shared" si="96"/>
-        <v>7270.0668823575825</v>
-      </c>
-      <c r="BL25" s="2">
+        <v>1762.4509286954046</v>
+      </c>
+      <c r="CR25" s="2">
         <f t="shared" si="96"/>
-        <v>6906.5635382397031</v>
-      </c>
-      <c r="BM25" s="2">
+        <v>1674.3283822606343</v>
+      </c>
+      <c r="CS25" s="2">
         <f t="shared" si="96"/>
-        <v>6561.2353613277173</v>
-      </c>
-      <c r="BN25" s="2">
+        <v>1590.6119631476024</v>
+      </c>
+      <c r="CT25" s="2">
         <f t="shared" si="96"/>
-        <v>6233.173593261331</v>
-      </c>
-      <c r="BO25" s="2">
+        <v>1511.0813649902223</v>
+      </c>
+      <c r="CU25" s="2">
         <f t="shared" si="96"/>
-        <v>5921.5149135982638</v>
-      </c>
-      <c r="BP25" s="2">
+        <v>1435.5272967407111</v>
+      </c>
+      <c r="CV25" s="2">
         <f t="shared" si="96"/>
-        <v>5625.43916791835</v>
-      </c>
-      <c r="BQ25" s="2">
+        <v>1363.7509319036756</v>
+      </c>
+      <c r="CW25" s="2">
         <f t="shared" si="96"/>
-        <v>5344.1672095224321</v>
-      </c>
-      <c r="BR25" s="2">
+        <v>1295.5633853084917</v>
+      </c>
+      <c r="CX25" s="2">
         <f t="shared" si="96"/>
-        <v>5076.9588490463102</v>
-      </c>
-      <c r="BS25" s="2">
+        <v>1230.7852160430671</v>
+      </c>
+      <c r="CY25" s="2">
         <f t="shared" si="96"/>
-        <v>4823.1109065939945</v>
-      </c>
-      <c r="BT25" s="2">
+        <v>1169.2459552409136</v>
+      </c>
+      <c r="CZ25" s="2">
         <f t="shared" si="96"/>
-        <v>4581.9553612642949</v>
-      </c>
-      <c r="BU25" s="2">
+        <v>1110.783657478868</v>
+      </c>
+      <c r="DA25" s="2">
         <f t="shared" si="96"/>
-        <v>4352.8575932010799</v>
-      </c>
-      <c r="BV25" s="2">
+        <v>1055.2444746049246</v>
+      </c>
+      <c r="DB25" s="2">
         <f t="shared" si="96"/>
-        <v>4135.214713541026</v>
-      </c>
-      <c r="BW25" s="2">
+        <v>1002.4822508746782</v>
+      </c>
+      <c r="DC25" s="2">
         <f t="shared" si="96"/>
-        <v>3928.4539778639746</v>
-      </c>
-      <c r="BX25" s="2">
+        <v>952.35813833094426</v>
+      </c>
+      <c r="DD25" s="2">
         <f t="shared" si="96"/>
-        <v>3732.0312789707759</v>
-      </c>
-      <c r="BY25" s="2">
+        <v>904.74023141439704</v>
+      </c>
+      <c r="DE25" s="2">
         <f t="shared" si="96"/>
-        <v>3545.4297150222369</v>
-      </c>
-      <c r="BZ25" s="2">
+        <v>859.50321984367713</v>
+      </c>
+      <c r="DF25" s="2">
         <f t="shared" si="96"/>
-        <v>3368.158229271125</v>
-      </c>
-      <c r="CA25" s="2">
+        <v>816.52805885149326</v>
+      </c>
+      <c r="DG25" s="2">
         <f t="shared" si="96"/>
-        <v>3199.7503178075685</v>
-      </c>
-      <c r="CB25" s="2">
+        <v>775.70165590891861</v>
+      </c>
+      <c r="DH25" s="2">
         <f t="shared" si="96"/>
-        <v>3039.7628019171898</v>
-      </c>
-      <c r="CC25" s="2">
+        <v>736.91657311347262</v>
+      </c>
+      <c r="DI25" s="2">
         <f t="shared" si="96"/>
-        <v>2887.77466182133</v>
-      </c>
-      <c r="CD25" s="2">
+        <v>700.07074445779892</v>
+      </c>
+      <c r="DJ25" s="2">
         <f t="shared" si="96"/>
-        <v>2743.3859287302635</v>
-      </c>
-      <c r="CE25" s="2">
+        <v>665.06720723490889</v>
+      </c>
+      <c r="DK25" s="2">
         <f t="shared" si="96"/>
-        <v>2606.2166322937501</v>
-      </c>
-      <c r="CF25" s="2">
+        <v>631.81384687316347</v>
+      </c>
+      <c r="DL25" s="2">
         <f t="shared" si="96"/>
-        <v>2475.9058006790624</v>
-      </c>
-      <c r="CG25" s="2">
+        <v>600.22315452950522</v>
+      </c>
+      <c r="DM25" s="2">
         <f t="shared" si="96"/>
-        <v>2352.1105106451091</v>
-      </c>
-      <c r="CH25" s="2">
+        <v>570.21199680302993</v>
+      </c>
+      <c r="DN25" s="2">
         <f t="shared" si="96"/>
-        <v>2234.5049851128538</v>
-      </c>
-      <c r="CI25" s="2">
+        <v>541.70139696287845</v>
+      </c>
+      <c r="DO25" s="2">
         <f t="shared" si="96"/>
-        <v>2122.7797358572111</v>
-      </c>
-      <c r="CJ25" s="2">
+        <v>514.61632711473453</v>
+      </c>
+      <c r="DP25" s="2">
         <f t="shared" si="96"/>
-        <v>2016.6407490643505</v>
-      </c>
-      <c r="CK25" s="2">
-        <f t="shared" si="96"/>
-        <v>1915.8087116111328</v>
-      </c>
-      <c r="CL25" s="2">
-        <f t="shared" si="96"/>
-        <v>1820.0182760305761</v>
-      </c>
-      <c r="CM25" s="2">
-        <f t="shared" si="96"/>
-        <v>1729.0173622290472</v>
-      </c>
-      <c r="CN25" s="2">
-        <f t="shared" si="96"/>
-        <v>1642.5664941175949</v>
-      </c>
-      <c r="CO25" s="2">
-        <f t="shared" ref="CO25:DP25" si="97">+CN25*(1+$BK$30)</f>
-        <v>1560.4381694117151</v>
-      </c>
-      <c r="CP25" s="2">
-        <f t="shared" si="97"/>
-        <v>1482.4162609411292</v>
-      </c>
-      <c r="CQ25" s="2">
-        <f t="shared" si="97"/>
-        <v>1408.2954478940726</v>
-      </c>
-      <c r="CR25" s="2">
-        <f t="shared" si="97"/>
-        <v>1337.8806754993689</v>
-      </c>
-      <c r="CS25" s="2">
-        <f t="shared" si="97"/>
-        <v>1270.9866417244004</v>
-      </c>
-      <c r="CT25" s="2">
-        <f t="shared" si="97"/>
-        <v>1207.4373096381803</v>
-      </c>
-      <c r="CU25" s="2">
-        <f t="shared" si="97"/>
-        <v>1147.0654441562713</v>
-      </c>
-      <c r="CV25" s="2">
-        <f t="shared" si="97"/>
-        <v>1089.7121719484576</v>
-      </c>
-      <c r="CW25" s="2">
-        <f t="shared" si="97"/>
-        <v>1035.2265633510347</v>
-      </c>
-      <c r="CX25" s="2">
-        <f t="shared" si="97"/>
-        <v>983.46523518348283</v>
-      </c>
-      <c r="CY25" s="2">
-        <f t="shared" si="97"/>
-        <v>934.29197342430859</v>
-      </c>
-      <c r="CZ25" s="2">
-        <f t="shared" si="97"/>
-        <v>887.57737475309307</v>
-      </c>
-      <c r="DA25" s="2">
-        <f t="shared" si="97"/>
-        <v>843.1985060154384</v>
-      </c>
-      <c r="DB25" s="2">
-        <f t="shared" si="97"/>
-        <v>801.03858071466641</v>
-      </c>
-      <c r="DC25" s="2">
-        <f t="shared" si="97"/>
-        <v>760.98665167893307</v>
-      </c>
-      <c r="DD25" s="2">
-        <f t="shared" si="97"/>
-        <v>722.93731909498638</v>
-      </c>
-      <c r="DE25" s="2">
-        <f t="shared" si="97"/>
-        <v>686.79045314023699</v>
-      </c>
-      <c r="DF25" s="2">
-        <f t="shared" si="97"/>
-        <v>652.45093048322508</v>
-      </c>
-      <c r="DG25" s="2">
-        <f t="shared" si="97"/>
-        <v>619.82838395906379</v>
-      </c>
-      <c r="DH25" s="2">
-        <f t="shared" si="97"/>
-        <v>588.83696476111061</v>
-      </c>
-      <c r="DI25" s="2">
-        <f t="shared" si="97"/>
-        <v>559.39511652305509</v>
-      </c>
-      <c r="DJ25" s="2">
-        <f t="shared" si="97"/>
-        <v>531.42536069690232</v>
-      </c>
-      <c r="DK25" s="2">
-        <f t="shared" si="97"/>
-        <v>504.85409266205716</v>
-      </c>
-      <c r="DL25" s="2">
-        <f t="shared" si="97"/>
-        <v>479.61138802895425</v>
-      </c>
-      <c r="DM25" s="2">
-        <f t="shared" si="97"/>
-        <v>455.63081862750653</v>
-      </c>
-      <c r="DN25" s="2">
-        <f t="shared" si="97"/>
-        <v>432.8492776961312</v>
-      </c>
-      <c r="DO25" s="2">
-        <f t="shared" si="97"/>
-        <v>411.20681381132459</v>
-      </c>
-      <c r="DP25" s="2">
-        <f t="shared" si="97"/>
-        <v>390.64647312075834</v>
-      </c>
-    </row>
-    <row r="26" spans="2:120" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>488.88551075899778</v>
+      </c>
+    </row>
+    <row r="26" spans="2:120" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C26" s="21">
-        <f t="shared" ref="C26:D26" si="98">+C25/C27</f>
+        <f t="shared" ref="C26:D26" si="97">+C25/C27</f>
         <v>0.72267387254222692</v>
       </c>
       <c r="D26" s="21">
+        <f t="shared" si="97"/>
+        <v>0.58419164626730091</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" ref="E26:G26" si="98">+E25/E27</f>
+        <v>0.86775439607956217</v>
+      </c>
+      <c r="F26" s="21">
         <f t="shared" si="98"/>
-        <v>0.58419164626730091</v>
-      </c>
-      <c r="E26" s="21">
-        <f t="shared" ref="E26:G26" si="99">+E25/E27</f>
-        <v>0.86775439607956217</v>
-      </c>
-      <c r="F26" s="21">
+        <v>0.82020768064290128</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" si="98"/>
+        <v>0.35472390612462734</v>
+      </c>
+      <c r="H26" s="21">
+        <f t="shared" ref="H26:I26" si="99">+H25/H27</f>
+        <v>1.1487402139576055</v>
+      </c>
+      <c r="I26" s="21">
         <f t="shared" si="99"/>
-        <v>0.82020768064290128</v>
-      </c>
-      <c r="G26" s="21">
-        <f t="shared" si="99"/>
-        <v>0.35472390612462734</v>
-      </c>
-      <c r="H26" s="21">
-        <f t="shared" ref="H26:I26" si="100">+H25/H27</f>
-        <v>1.1487402139576055</v>
-      </c>
-      <c r="I26" s="21">
+        <v>2.5250023717814924</v>
+      </c>
+      <c r="J26" s="21">
+        <f t="shared" ref="J26:K26" si="100">+J25/J27</f>
+        <v>2.771692046028329</v>
+      </c>
+      <c r="K26" s="21">
         <f t="shared" si="100"/>
-        <v>2.5250023717814924</v>
-      </c>
-      <c r="J26" s="21">
-        <f t="shared" ref="J26:K26" si="101">+J25/J27</f>
-        <v>2.771692046028329</v>
-      </c>
-      <c r="K26" s="21">
+        <v>2.2136444018645935</v>
+      </c>
+      <c r="L26" s="21">
+        <f t="shared" ref="L26:P26" si="101">+L25/L27</f>
+        <v>2.5575826681870013</v>
+      </c>
+      <c r="M26" s="21">
         <f t="shared" si="101"/>
-        <v>2.2136444018645935</v>
-      </c>
-      <c r="L26" s="21">
-        <f t="shared" ref="L26:P26" si="102">+L25/L27</f>
-        <v>2.5575826681870013</v>
-      </c>
-      <c r="M26" s="21">
-        <f t="shared" si="102"/>
         <v>2.9774723176785032</v>
       </c>
       <c r="N26" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>3.438314176245211</v>
       </c>
       <c r="O26" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>3.1211942689261374</v>
       </c>
       <c r="P26" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>3.3801556420233454</v>
       </c>
       <c r="Q26" s="21">
@@ -7918,64 +7911,64 @@
         <v>3.8867778208607993</v>
       </c>
       <c r="R26" s="21">
-        <f t="shared" ref="R26:Y26" si="103">+R25/R27</f>
+        <f t="shared" ref="R26:Y26" si="102">+R25/R27</f>
         <v>3.8063393892539628</v>
       </c>
       <c r="S26" s="21">
+        <f t="shared" si="102"/>
+        <v>4.2574181117533696</v>
+      </c>
+      <c r="T26" s="21">
+        <f t="shared" si="102"/>
+        <v>3.8025355359200916</v>
+      </c>
+      <c r="U26" s="21">
+        <f t="shared" si="102"/>
+        <v>4.3837879369957715</v>
+      </c>
+      <c r="V26" s="21">
+        <f t="shared" si="102"/>
+        <v>4.3183563748079878</v>
+      </c>
+      <c r="W26" s="21">
+        <f t="shared" si="102"/>
+        <v>4.280122793553339</v>
+      </c>
+      <c r="X26" s="21">
+        <f t="shared" si="102"/>
+        <v>4.4055193560751258</v>
+      </c>
+      <c r="Y26" s="21">
+        <f t="shared" si="102"/>
+        <v>5.0501723477594762</v>
+      </c>
+      <c r="Z26" s="21">
+        <f t="shared" ref="Z26:AF26" si="103">+Z25/Z27</f>
+        <v>4.411468423091824</v>
+      </c>
+      <c r="AA26" s="21">
         <f t="shared" si="103"/>
-        <v>4.2574181117533696</v>
-      </c>
-      <c r="T26" s="21">
+        <v>4.4367816091954033</v>
+      </c>
+      <c r="AB26" s="21">
         <f t="shared" si="103"/>
-        <v>3.8025355359200916</v>
-      </c>
-      <c r="U26" s="21">
+        <v>4.3140115163147783</v>
+      </c>
+      <c r="AC26" s="21">
         <f t="shared" si="103"/>
-        <v>4.3837879369957715</v>
-      </c>
-      <c r="V26" s="21">
+        <v>4.5797687861271665</v>
+      </c>
+      <c r="AD26" s="21">
         <f t="shared" si="103"/>
-        <v>4.3183563748079878</v>
-      </c>
-      <c r="W26" s="21">
+        <v>4.0668211664735407</v>
+      </c>
+      <c r="AE26" s="21">
         <f t="shared" si="103"/>
-        <v>4.280122793553339</v>
-      </c>
-      <c r="X26" s="21">
+        <v>5.3260393974507529</v>
+      </c>
+      <c r="AF26" s="21">
         <f t="shared" si="103"/>
-        <v>4.4055193560751258</v>
-      </c>
-      <c r="Y26" s="21">
-        <f t="shared" si="103"/>
-        <v>5.0501723477594762</v>
-      </c>
-      <c r="Z26" s="21">
-        <f t="shared" ref="Z26:AF26" si="104">+Z25/Z27</f>
-        <v>4.411468423091824</v>
-      </c>
-      <c r="AA26" s="21">
-        <f t="shared" si="104"/>
-        <v>4.4367816091954033</v>
-      </c>
-      <c r="AB26" s="21">
-        <f t="shared" si="104"/>
-        <v>4.3140115163147783</v>
-      </c>
-      <c r="AC26" s="21">
-        <f t="shared" si="104"/>
-        <v>4.5797687861271665</v>
-      </c>
-      <c r="AD26" s="21">
-        <f t="shared" si="104"/>
-        <v>5.617109826589596</v>
-      </c>
-      <c r="AE26" s="21">
-        <f t="shared" si="104"/>
-        <v>5.439312138728325</v>
-      </c>
-      <c r="AF26" s="21">
-        <f t="shared" si="104"/>
-        <v>5.0974890173410392</v>
+        <v>4.9834241019698711</v>
       </c>
       <c r="AG26" s="21"/>
       <c r="AP26" s="1">
@@ -7983,79 +7976,79 @@
         <v>15.753377074488615</v>
       </c>
       <c r="AQ26" s="1">
-        <f t="shared" ref="AQ26:BC26" si="105">+AQ25/AQ27</f>
+        <f t="shared" ref="AQ26:BC26" si="104">+AQ25/AQ27</f>
         <v>17.38783342928421</v>
       </c>
       <c r="AR26" s="1">
+        <f t="shared" si="104"/>
+        <v>29.347659950105541</v>
+      </c>
+      <c r="AS26" s="1">
+        <f t="shared" si="104"/>
+        <v>31.832864276338515</v>
+      </c>
+      <c r="AT26" s="1">
+        <f t="shared" si="104"/>
+        <v>33.924669530196894</v>
+      </c>
+      <c r="AU26" s="1">
+        <f t="shared" si="104"/>
+        <v>36.829980909303508</v>
+      </c>
+      <c r="AV26" s="1">
+        <f t="shared" si="104"/>
+        <v>39.055829335729364</v>
+      </c>
+      <c r="AW26" s="1">
+        <f t="shared" si="104"/>
+        <v>40.948515581725196</v>
+      </c>
+      <c r="AX26" s="1">
+        <f t="shared" si="104"/>
+        <v>41.935787044559952</v>
+      </c>
+      <c r="AY26" s="1">
+        <f t="shared" si="104"/>
+        <v>44.71721127541413</v>
+      </c>
+      <c r="AZ26" s="1">
+        <f t="shared" si="104"/>
+        <v>45.786206389245066</v>
+      </c>
+      <c r="BA26" s="1">
+        <f t="shared" si="104"/>
+        <v>47.964498837475489</v>
+      </c>
+      <c r="BB26" s="1">
+        <f t="shared" si="104"/>
+        <v>49.446794853796504</v>
+      </c>
+      <c r="BC26" s="1">
+        <f t="shared" si="104"/>
+        <v>50.016422357120796</v>
+      </c>
+      <c r="BD26" s="1">
+        <f t="shared" ref="BD26:BH26" si="105">+BD25/BD27</f>
+        <v>51.233070131916726</v>
+      </c>
+      <c r="BE26" s="1">
         <f t="shared" si="105"/>
-        <v>28.505374016503545</v>
-      </c>
-      <c r="AS26" s="1">
+        <v>52.832942452921571</v>
+      </c>
+      <c r="BF26" s="1">
         <f t="shared" si="105"/>
-        <v>29.843014398771832</v>
-      </c>
-      <c r="AT26" s="1">
+        <v>54.680973523175957</v>
+      </c>
+      <c r="BG26" s="1">
         <f t="shared" si="105"/>
-        <v>33.880891025955862</v>
-      </c>
-      <c r="AU26" s="1">
+        <v>56.707390762224634</v>
+      </c>
+      <c r="BH26" s="1">
         <f t="shared" si="105"/>
-        <v>37.674927171856851</v>
-      </c>
-      <c r="AV26" s="1">
-        <f t="shared" si="105"/>
-        <v>41.084181476376585</v>
-      </c>
-      <c r="AW26" s="1">
-        <f t="shared" si="105"/>
-        <v>43.269363407765638</v>
-      </c>
-      <c r="AX26" s="1">
-        <f t="shared" si="105"/>
-        <v>44.827449842326146</v>
-      </c>
-      <c r="AY26" s="1">
-        <f t="shared" si="105"/>
-        <v>47.758409880995565</v>
-      </c>
-      <c r="AZ26" s="1">
-        <f t="shared" si="105"/>
-        <v>48.646204038533703</v>
-      </c>
-      <c r="BA26" s="1">
-        <f t="shared" si="105"/>
-        <v>50.784262036357127</v>
-      </c>
-      <c r="BB26" s="1">
-        <f t="shared" si="105"/>
-        <v>51.945316037281216</v>
-      </c>
-      <c r="BC26" s="1">
-        <f t="shared" si="105"/>
-        <v>52.130363954065821</v>
-      </c>
-      <c r="BD26" s="1">
-        <f t="shared" ref="BD26:BH26" si="106">+BD25/BD27</f>
-        <v>52.927063203676823</v>
-      </c>
-      <c r="BE26" s="1">
-        <f t="shared" si="106"/>
-        <v>54.066472624964533</v>
-      </c>
-      <c r="BF26" s="1">
-        <f t="shared" si="106"/>
-        <v>55.411792983446745</v>
-      </c>
-      <c r="BG26" s="1">
-        <f t="shared" si="106"/>
-        <v>56.89290811420954</v>
-      </c>
-      <c r="BH26" s="1">
-        <f t="shared" si="106"/>
-        <v>32.544418264704419</v>
-      </c>
-    </row>
-    <row r="27" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>40.728627135912092</v>
+      </c>
+    </row>
+    <row r="27" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
@@ -8141,16 +8134,15 @@
         <v>259.5</v>
       </c>
       <c r="AD27" s="2">
-        <f>+AC27</f>
-        <v>259.5</v>
+        <v>258.89999999999998</v>
       </c>
       <c r="AE27" s="2">
         <f>+AD27</f>
-        <v>259.5</v>
+        <v>258.89999999999998</v>
       </c>
       <c r="AF27" s="2">
         <f>+AE27</f>
-        <v>259.5</v>
+        <v>258.89999999999998</v>
       </c>
       <c r="AP27" s="2">
         <f>AVERAGE(Q27:T27)</f>
@@ -8161,75 +8153,75 @@
         <v>260.55</v>
       </c>
       <c r="AR27" s="2">
-        <f t="shared" ref="AR27:BC27" si="107">+AQ27</f>
+        <f t="shared" ref="AR27:BC27" si="106">+AQ27</f>
         <v>260.55</v>
       </c>
       <c r="AS27" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>260.55</v>
       </c>
       <c r="AT27" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>260.55</v>
       </c>
       <c r="AU27" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>260.55</v>
       </c>
       <c r="AV27" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>260.55</v>
       </c>
       <c r="AW27" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>260.55</v>
       </c>
       <c r="AX27" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>260.55</v>
       </c>
       <c r="AY27" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>260.55</v>
       </c>
       <c r="AZ27" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>260.55</v>
       </c>
       <c r="BA27" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>260.55</v>
       </c>
       <c r="BB27" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>260.55</v>
       </c>
       <c r="BC27" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>260.55</v>
       </c>
       <c r="BD27" s="2">
-        <f t="shared" ref="BD27" si="108">+BC27</f>
+        <f t="shared" ref="BD27" si="107">+BC27</f>
         <v>260.55</v>
       </c>
       <c r="BE27" s="2">
-        <f t="shared" ref="BE27" si="109">+BD27</f>
+        <f t="shared" ref="BE27" si="108">+BD27</f>
         <v>260.55</v>
       </c>
       <c r="BF27" s="2">
-        <f t="shared" ref="BF27" si="110">+BE27</f>
+        <f t="shared" ref="BF27" si="109">+BE27</f>
         <v>260.55</v>
       </c>
       <c r="BG27" s="2">
-        <f t="shared" ref="BG27" si="111">+BF27</f>
+        <f t="shared" ref="BG27" si="110">+BF27</f>
         <v>260.55</v>
       </c>
       <c r="BH27" s="2">
-        <f t="shared" ref="BH27" si="112">+BG27</f>
+        <f t="shared" ref="BH27" si="111">+BG27</f>
         <v>260.55</v>
       </c>
     </row>
-    <row r="29" spans="2:120" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:120" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>294</v>
       </c>
@@ -8238,83 +8230,83 @@
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="25">
-        <f t="shared" ref="G29:P29" si="113">+G15/C15-1</f>
+        <f t="shared" ref="G29:P29" si="112">+G15/C15-1</f>
         <v>0.21328224776500648</v>
       </c>
       <c r="H29" s="25">
+        <f t="shared" si="112"/>
+        <v>0.44493886310784858</v>
+      </c>
+      <c r="I29" s="25">
+        <f t="shared" si="112"/>
+        <v>0.76535979547461963</v>
+      </c>
+      <c r="J29" s="25">
+        <f t="shared" si="112"/>
+        <v>0.62012853473169161</v>
+      </c>
+      <c r="K29" s="25">
+        <f t="shared" si="112"/>
+        <v>0.61894736842105269</v>
+      </c>
+      <c r="L29" s="25">
+        <f t="shared" si="112"/>
+        <v>0.29435163086714389</v>
+      </c>
+      <c r="M29" s="25">
+        <f t="shared" si="112"/>
+        <v>0.13749174917491747</v>
+      </c>
+      <c r="N29" s="25">
+        <f t="shared" si="112"/>
+        <v>0.176856468118604</v>
+      </c>
+      <c r="O29" s="25">
+        <f t="shared" si="112"/>
+        <v>0.28998699609882972</v>
+      </c>
+      <c r="P29" s="25">
+        <f t="shared" si="112"/>
+        <v>0.27350952673632456</v>
+      </c>
+      <c r="Q29" s="25">
+        <f t="shared" ref="Q29:T29" si="113">+Q15/M15-1</f>
+        <v>0.21714153078396103</v>
+      </c>
+      <c r="R29" s="25">
         <f t="shared" si="113"/>
-        <v>0.44493886310784858</v>
-      </c>
-      <c r="I29" s="25">
+        <v>0.2246376811594204</v>
+      </c>
+      <c r="S29" s="25">
         <f t="shared" si="113"/>
-        <v>0.76535979547461963</v>
-      </c>
-      <c r="J29" s="25">
+        <v>0.17656249999999996</v>
+      </c>
+      <c r="T29" s="25">
         <f t="shared" si="113"/>
-        <v>0.62012853473169161</v>
-      </c>
-      <c r="K29" s="25">
-        <f t="shared" si="113"/>
-        <v>0.61894736842105269</v>
-      </c>
-      <c r="L29" s="25">
-        <f t="shared" si="113"/>
-        <v>0.29435163086714389</v>
-      </c>
-      <c r="M29" s="25">
-        <f t="shared" si="113"/>
-        <v>0.13749174917491747</v>
-      </c>
-      <c r="N29" s="25">
-        <f t="shared" si="113"/>
-        <v>0.176856468118604</v>
-      </c>
-      <c r="O29" s="25">
-        <f t="shared" si="113"/>
-        <v>0.28998699609882972</v>
-      </c>
-      <c r="P29" s="25">
-        <f t="shared" si="113"/>
-        <v>0.27350952673632456</v>
-      </c>
-      <c r="Q29" s="25">
-        <f t="shared" ref="Q29:T29" si="114">+Q15/M15-1</f>
-        <v>0.21714153078396103</v>
-      </c>
-      <c r="R29" s="25">
-        <f t="shared" si="114"/>
-        <v>0.2246376811594204</v>
-      </c>
-      <c r="S29" s="25">
-        <f t="shared" si="114"/>
-        <v>0.17656249999999996</v>
-      </c>
-      <c r="T29" s="25">
-        <f t="shared" si="114"/>
         <v>0.1114864864864864</v>
       </c>
       <c r="U29" s="25">
-        <f t="shared" ref="U29" si="115">+U15/Q15-1</f>
+        <f t="shared" ref="U29" si="114">+U15/Q15-1</f>
         <v>0.13220500595947549</v>
       </c>
       <c r="V29" s="25">
-        <f t="shared" ref="V29" si="116">+V15/R15-1</f>
+        <f t="shared" ref="V29" si="115">+V15/R15-1</f>
         <v>0.13482020937642258</v>
       </c>
       <c r="W29" s="25">
-        <f t="shared" ref="W29" si="117">+W15/S15-1</f>
+        <f t="shared" ref="W29" si="116">+W15/S15-1</f>
         <v>6.3959216895857818E-2</v>
       </c>
       <c r="X29" s="25">
-        <f t="shared" ref="X29:Y29" si="118">+X15/T15-1</f>
+        <f t="shared" ref="X29:Y29" si="117">+X15/T15-1</f>
         <v>9.3226226660877209E-2</v>
       </c>
       <c r="Y29" s="25">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>0.13297961933636526</v>
       </c>
       <c r="Z29" s="25">
-        <f t="shared" ref="Z29" si="119">+Z15/V15-1</f>
+        <f t="shared" ref="Z29" si="118">+Z15/V15-1</f>
         <v>6.1126263436547257E-2</v>
       </c>
       <c r="AA29" s="25">
@@ -8322,7 +8314,7 @@
         <v>0.11608149460460604</v>
       </c>
       <c r="AB29" s="25">
-        <f t="shared" ref="AB29" si="120">+AB15/X15-1</f>
+        <f t="shared" ref="AB29" si="119">+AB15/X15-1</f>
         <v>0.15661119275529245</v>
       </c>
       <c r="AC29" s="25">
@@ -8330,16 +8322,16 @@
         <v>2.9584479298297772E-2</v>
       </c>
       <c r="AD29" s="25">
-        <f t="shared" ref="AD29" si="121">+AD15/Z15-1</f>
-        <v>7.7260356818869003E-2</v>
+        <f t="shared" ref="AD29" si="120">+AD15/Z15-1</f>
+        <v>0.12061536135470208</v>
       </c>
       <c r="AE29" s="25">
-        <f t="shared" ref="AE29" si="122">+AE15/AA15-1</f>
-        <v>4.2786536310833734E-2</v>
+        <f t="shared" ref="AE29" si="121">+AE15/AA15-1</f>
+        <v>7.3343194198924877E-2</v>
       </c>
       <c r="AF29" s="25">
-        <f t="shared" ref="AF29" si="123">+AF15/AB15-1</f>
-        <v>1.1263736263736224E-2</v>
+        <f t="shared" ref="AF29" si="122">+AF15/AB15-1</f>
+        <v>4.0350274725274637E-2</v>
       </c>
       <c r="AG29" s="25"/>
       <c r="AP29" s="30">
@@ -8356,135 +8348,135 @@
       </c>
       <c r="AS29" s="30">
         <f>+AS15/AR15-1</f>
-        <v>3.9509623324652354E-2</v>
+        <v>6.3411402800337857E-2</v>
       </c>
       <c r="AT29" s="30">
-        <f t="shared" ref="AT29:BH29" si="124">+AT15/AS15-1</f>
-        <v>0.1301347824189254</v>
+        <f t="shared" ref="AT29:BH29" si="123">+AT15/AS15-1</f>
+        <v>4.4460486905767427E-2</v>
       </c>
       <c r="AU29" s="30">
-        <f t="shared" si="124"/>
-        <v>0.10678001961802241</v>
+        <f t="shared" si="123"/>
+        <v>6.7038293035710961E-2</v>
       </c>
       <c r="AV29" s="30">
-        <f t="shared" si="124"/>
-        <v>8.5109517614590624E-2</v>
+        <f t="shared" si="123"/>
+        <v>4.0317503351953832E-2</v>
       </c>
       <c r="AW29" s="30">
-        <f t="shared" si="124"/>
-        <v>4.6853362171893398E-2</v>
+        <f t="shared" si="123"/>
+        <v>2.7590468122363543E-2</v>
       </c>
       <c r="AX29" s="30">
-        <f t="shared" si="124"/>
-        <v>2.9217029232016634E-2</v>
+        <f t="shared" si="123"/>
+        <v>1.2667014824874201E-4</v>
       </c>
       <c r="AY29" s="30">
-        <f t="shared" si="124"/>
-        <v>6.0253107986063981E-2</v>
+        <f t="shared" si="123"/>
+        <v>4.987845880246522E-2</v>
       </c>
       <c r="AZ29" s="30">
-        <f t="shared" si="124"/>
-        <v>1.1172683348350754E-2</v>
+        <f t="shared" si="123"/>
+        <v>-1.1289800003344563E-4</v>
       </c>
       <c r="BA29" s="30">
-        <f t="shared" si="124"/>
-        <v>1.3781630472520456E-2</v>
+        <f t="shared" si="123"/>
+        <v>4.6858569320202825E-3</v>
       </c>
       <c r="BB29" s="30">
-        <f t="shared" si="124"/>
-        <v>1.5883682720609471E-2</v>
+        <f t="shared" si="123"/>
+        <v>8.6155742470506169E-3</v>
       </c>
       <c r="BC29" s="30">
-        <f t="shared" si="124"/>
-        <v>-4.7751316414086364E-3</v>
+        <f t="shared" si="123"/>
+        <v>-1.5918010837520202E-2</v>
       </c>
       <c r="BD29" s="30">
-        <f t="shared" si="124"/>
-        <v>7.9023511592206663E-3</v>
+        <f t="shared" si="123"/>
+        <v>4.2604519409805697E-4</v>
       </c>
       <c r="BE29" s="30">
-        <f t="shared" si="124"/>
-        <v>1.4786178243892723E-2</v>
+        <f t="shared" si="123"/>
+        <v>9.7017202932296875E-3</v>
       </c>
       <c r="BF29" s="30">
-        <f t="shared" si="124"/>
-        <v>1.8575600633668587E-2</v>
+        <f t="shared" si="123"/>
+        <v>1.5051690436113763E-2</v>
       </c>
       <c r="BG29" s="30">
-        <f t="shared" si="124"/>
-        <v>2.0734891397978128E-2</v>
+        <f t="shared" si="123"/>
+        <v>1.825500604550423E-2</v>
       </c>
       <c r="BH29" s="30">
-        <f t="shared" si="124"/>
-        <v>-0.47309382814483802</v>
-      </c>
-    </row>
-    <row r="30" spans="2:120" x14ac:dyDescent="0.2">
+        <f t="shared" si="123"/>
+        <v>-0.42172995373517774</v>
+      </c>
+    </row>
+    <row r="30" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C30" s="19">
-        <f t="shared" ref="C30" si="125">C17/C15</f>
+        <f t="shared" ref="C30" si="124">C17/C15</f>
         <v>0.85791187739463604</v>
       </c>
       <c r="D30" s="19">
-        <f t="shared" ref="D30:H30" si="126">D17/D15</f>
+        <f t="shared" ref="D30:H30" si="125">D17/D15</f>
         <v>0.8594271053058109</v>
       </c>
       <c r="E30" s="19">
+        <f t="shared" si="125"/>
+        <v>0.88919366754371454</v>
+      </c>
+      <c r="F30" s="19">
+        <f t="shared" si="125"/>
+        <v>0.8557358650587249</v>
+      </c>
+      <c r="G30" s="19">
+        <f t="shared" si="125"/>
+        <v>0.86114315789473683</v>
+      </c>
+      <c r="H30" s="19">
+        <f t="shared" si="125"/>
+        <v>0.8528146380270486</v>
+      </c>
+      <c r="I30" s="19">
+        <f t="shared" ref="I30:J30" si="126">I17/I15</f>
+        <v>0.8927412541254125</v>
+      </c>
+      <c r="J30" s="19">
         <f t="shared" si="126"/>
-        <v>0.88919366754371454</v>
-      </c>
-      <c r="F30" s="19">
-        <f t="shared" si="126"/>
-        <v>0.8557358650587249</v>
-      </c>
-      <c r="G30" s="19">
-        <f t="shared" si="126"/>
-        <v>0.86114315789473683</v>
-      </c>
-      <c r="H30" s="19">
-        <f t="shared" si="126"/>
-        <v>0.8528146380270486</v>
-      </c>
-      <c r="I30" s="19">
-        <f t="shared" ref="I30:J30" si="127">I17/I15</f>
-        <v>0.8927412541254125</v>
-      </c>
-      <c r="J30" s="19">
+        <v>0.87896877459984257</v>
+      </c>
+      <c r="K30" s="19">
+        <f t="shared" ref="K30:L30" si="127">K17/K15</f>
+        <v>0.87894538361508456</v>
+      </c>
+      <c r="L30" s="19">
         <f t="shared" si="127"/>
-        <v>0.87896877459984257</v>
-      </c>
-      <c r="K30" s="19">
-        <f t="shared" ref="K30:L30" si="128">K17/K15</f>
-        <v>0.87894538361508456</v>
-      </c>
-      <c r="L30" s="19">
+        <v>0.87516902274124164</v>
+      </c>
+      <c r="M30" s="19">
+        <f t="shared" ref="M30:P30" si="128">M17/M15</f>
+        <v>0.888411768119306</v>
+      </c>
+      <c r="N30" s="19">
         <f t="shared" si="128"/>
-        <v>0.87516902274124164</v>
-      </c>
-      <c r="M30" s="19">
-        <f t="shared" ref="M30:P30" si="129">M17/M15</f>
-        <v>0.888411768119306</v>
-      </c>
-      <c r="N30" s="19">
+        <v>0.87290969899665549</v>
+      </c>
+      <c r="O30" s="19">
+        <f t="shared" si="128"/>
+        <v>0.88079032258064516</v>
+      </c>
+      <c r="P30" s="19">
+        <f t="shared" si="128"/>
+        <v>0.88059845559845551</v>
+      </c>
+      <c r="Q30" s="19">
+        <f t="shared" ref="Q30:R30" si="129">Q17/Q15</f>
+        <v>0.93048867699642435</v>
+      </c>
+      <c r="R30" s="19">
         <f t="shared" si="129"/>
-        <v>0.87290969899665549</v>
-      </c>
-      <c r="O30" s="19">
-        <f t="shared" si="129"/>
-        <v>0.88079032258064516</v>
-      </c>
-      <c r="P30" s="19">
-        <f t="shared" si="129"/>
-        <v>0.88059845559845551</v>
-      </c>
-      <c r="Q30" s="19">
-        <f t="shared" ref="Q30:R30" si="130">Q17/Q15</f>
-        <v>0.93048867699642435</v>
-      </c>
-      <c r="R30" s="19">
-        <f t="shared" si="130"/>
         <v>0.88083750568957675</v>
       </c>
       <c r="S30" s="19">
@@ -8496,134 +8488,134 @@
         <v>0.87802865827181931</v>
       </c>
       <c r="U30" s="19">
-        <f t="shared" ref="U30:X30" si="131">U17/U15</f>
+        <f t="shared" ref="U30:X30" si="130">U17/U15</f>
         <v>0.88841165571837633</v>
       </c>
       <c r="V30" s="19">
+        <f t="shared" si="130"/>
+        <v>0.87694529119204234</v>
+      </c>
+      <c r="W30" s="19">
+        <f t="shared" si="130"/>
+        <v>0.87236269930745691</v>
+      </c>
+      <c r="X30" s="19">
+        <f t="shared" si="130"/>
+        <v>0.85534416332366847</v>
+      </c>
+      <c r="Y30" s="19">
+        <f t="shared" ref="Y30:AF30" si="131">Y17/Y15</f>
+        <v>0.87519512376421604</v>
+      </c>
+      <c r="Z30" s="19">
         <f t="shared" si="131"/>
-        <v>0.87694529119204234</v>
-      </c>
-      <c r="W30" s="19">
+        <v>0.86203507710916238</v>
+      </c>
+      <c r="AA30" s="19">
         <f t="shared" si="131"/>
-        <v>0.87236269930745691</v>
-      </c>
-      <c r="X30" s="19">
+        <v>0.86085356614596498</v>
+      </c>
+      <c r="AB30" s="19">
         <f t="shared" si="131"/>
-        <v>0.85534416332366847</v>
-      </c>
-      <c r="Y30" s="19">
-        <f t="shared" ref="Y30:AF30" si="132">Y17/Y15</f>
-        <v>0.87519512376421604</v>
-      </c>
-      <c r="Z30" s="19">
-        <f t="shared" si="132"/>
-        <v>0.86203507710916238</v>
-      </c>
-      <c r="AA30" s="19">
-        <f t="shared" si="132"/>
-        <v>0.86085356614596498</v>
-      </c>
-      <c r="AB30" s="19">
-        <f t="shared" si="132"/>
         <v>0.85703983516483506</v>
       </c>
       <c r="AC30" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>0.87170601400620895</v>
       </c>
       <c r="AD30" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
+        <v>0.86511282760481667</v>
+      </c>
+      <c r="AE30" s="19">
+        <f t="shared" si="131"/>
         <v>0.87</v>
       </c>
-      <c r="AE30" s="19">
-        <f t="shared" si="132"/>
-        <v>0.87</v>
-      </c>
       <c r="AF30" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>0.87</v>
       </c>
       <c r="AG30" s="19"/>
       <c r="AO30" s="19">
-        <f t="shared" ref="AO30:AP30" si="133">AO17/AO15</f>
+        <f t="shared" ref="AO30:AP30" si="132">AO17/AO15</f>
         <v>0.88060528435424446</v>
       </c>
       <c r="AP30" s="19">
+        <f t="shared" si="132"/>
+        <v>0.89078349268904367</v>
+      </c>
+      <c r="AQ30" s="19">
+        <f t="shared" ref="AQ30:BC30" si="133">AQ17/AQ15</f>
+        <v>0.87304064118022551</v>
+      </c>
+      <c r="AR30" s="19">
         <f t="shared" si="133"/>
-        <v>0.89078349268904367</v>
-      </c>
-      <c r="AQ30" s="19">
-        <f t="shared" ref="AQ30:BC30" si="134">AQ17/AQ15</f>
-        <v>0.87304064118022551</v>
-      </c>
-      <c r="AR30" s="19">
+        <v>0.93</v>
+      </c>
+      <c r="AS30" s="19">
+        <f t="shared" si="133"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AT30" s="19">
+        <f t="shared" si="133"/>
+        <v>0.93</v>
+      </c>
+      <c r="AU30" s="19">
+        <f t="shared" si="133"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AV30" s="19">
+        <f t="shared" si="133"/>
+        <v>0.93</v>
+      </c>
+      <c r="AW30" s="19">
+        <f t="shared" si="133"/>
+        <v>0.93</v>
+      </c>
+      <c r="AX30" s="19">
+        <f t="shared" si="133"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AY30" s="19">
+        <f t="shared" si="133"/>
+        <v>0.93</v>
+      </c>
+      <c r="AZ30" s="19">
+        <f t="shared" si="133"/>
+        <v>0.93</v>
+      </c>
+      <c r="BA30" s="19">
+        <f t="shared" si="133"/>
+        <v>0.95</v>
+      </c>
+      <c r="BB30" s="19">
+        <f t="shared" si="133"/>
+        <v>0.95</v>
+      </c>
+      <c r="BC30" s="19">
+        <f t="shared" si="133"/>
+        <v>0.95</v>
+      </c>
+      <c r="BD30" s="19">
+        <f t="shared" ref="BD30:BH30" si="134">BD17/BD15</f>
+        <v>0.95</v>
+      </c>
+      <c r="BE30" s="19">
         <f t="shared" si="134"/>
-        <v>0.93</v>
-      </c>
-      <c r="AS30" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="BF30" s="19">
+        <f t="shared" si="134"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="BG30" s="19">
+        <f t="shared" si="134"/>
+        <v>0.95</v>
+      </c>
+      <c r="BH30" s="19">
         <f t="shared" si="134"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AT30" s="19">
-        <f t="shared" si="134"/>
-        <v>0.93</v>
-      </c>
-      <c r="AU30" s="19">
-        <f t="shared" si="134"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="AV30" s="19">
-        <f t="shared" si="134"/>
-        <v>0.93</v>
-      </c>
-      <c r="AW30" s="19">
-        <f t="shared" si="134"/>
-        <v>0.93</v>
-      </c>
-      <c r="AX30" s="19">
-        <f t="shared" si="134"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="AY30" s="19">
-        <f t="shared" si="134"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="AZ30" s="19">
-        <f t="shared" si="134"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="BA30" s="19">
-        <f t="shared" si="134"/>
-        <v>0.95</v>
-      </c>
-      <c r="BB30" s="19">
-        <f t="shared" si="134"/>
-        <v>0.95</v>
-      </c>
-      <c r="BC30" s="19">
-        <f t="shared" si="134"/>
-        <v>0.95</v>
-      </c>
-      <c r="BD30" s="19">
-        <f t="shared" ref="BD30:BH30" si="135">BD17/BD15</f>
-        <v>0.95000000000000007</v>
-      </c>
-      <c r="BE30" s="19">
-        <f t="shared" si="135"/>
-        <v>0.95</v>
-      </c>
-      <c r="BF30" s="19">
-        <f t="shared" si="135"/>
-        <v>0.95</v>
-      </c>
-      <c r="BG30" s="19">
-        <f t="shared" si="135"/>
-        <v>0.95</v>
-      </c>
-      <c r="BH30" s="19">
-        <f t="shared" si="135"/>
-        <v>0.92999999999999994</v>
-      </c>
       <c r="BJ30" t="s">
         <v>288</v>
       </c>
@@ -8631,76 +8623,76 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="31" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>284</v>
       </c>
       <c r="C31" s="19">
-        <f t="shared" ref="C31" si="136">+C18/C15</f>
+        <f t="shared" ref="C31" si="135">+C18/C15</f>
         <v>0.17534482758620687</v>
       </c>
       <c r="D31" s="19">
-        <f t="shared" ref="D31:H31" si="137">+D18/D15</f>
+        <f t="shared" ref="D31:H31" si="136">+D18/D15</f>
         <v>0.17611701131006641</v>
       </c>
       <c r="E31" s="19">
+        <f t="shared" si="136"/>
+        <v>0.1713447730201752</v>
+      </c>
+      <c r="F31" s="19">
+        <f t="shared" si="136"/>
+        <v>0.16632993698673523</v>
+      </c>
+      <c r="G31" s="19">
+        <f t="shared" si="136"/>
+        <v>0.16807789473684212</v>
+      </c>
+      <c r="H31" s="19">
+        <f t="shared" si="136"/>
+        <v>0.15535163086714399</v>
+      </c>
+      <c r="I31" s="19">
+        <f t="shared" ref="I31:J31" si="137">+I18/I15</f>
+        <v>0.12030231023102311</v>
+      </c>
+      <c r="J31" s="19">
         <f t="shared" si="137"/>
-        <v>0.1713447730201752</v>
-      </c>
-      <c r="F31" s="19">
-        <f t="shared" si="137"/>
-        <v>0.16632993698673523</v>
-      </c>
-      <c r="G31" s="19">
-        <f t="shared" si="137"/>
-        <v>0.16807789473684212</v>
-      </c>
-      <c r="H31" s="19">
-        <f t="shared" si="137"/>
-        <v>0.15535163086714399</v>
-      </c>
-      <c r="I31" s="19">
-        <f t="shared" ref="I31:J31" si="138">+I18/I15</f>
-        <v>0.12030231023102311</v>
-      </c>
-      <c r="J31" s="19">
+        <v>0.12581999475203359</v>
+      </c>
+      <c r="K31" s="19">
+        <f t="shared" ref="K31:S31" si="138">+K18/K15</f>
+        <v>0.11999414824447334</v>
+      </c>
+      <c r="L31" s="19">
         <f t="shared" si="138"/>
-        <v>0.12581999475203359</v>
-      </c>
-      <c r="K31" s="19">
-        <f t="shared" ref="K31:S31" si="139">+K18/K15</f>
-        <v>0.11999414824447334</v>
-      </c>
-      <c r="L31" s="19">
-        <f t="shared" si="139"/>
         <v>0.107559926244622</v>
       </c>
       <c r="M31" s="19">
-        <f t="shared" si="139"/>
+        <f t="shared" si="138"/>
         <v>8.7622584576103987E-2</v>
       </c>
       <c r="N31" s="19">
-        <f t="shared" si="139"/>
+        <f t="shared" si="138"/>
         <v>0.1084726867335563</v>
       </c>
       <c r="O31" s="19">
-        <f t="shared" si="139"/>
+        <f t="shared" si="138"/>
         <v>9.9893649193548387E-2</v>
       </c>
       <c r="P31" s="19">
-        <f t="shared" si="139"/>
+        <f t="shared" si="138"/>
         <v>0.10135135135135136</v>
       </c>
       <c r="Q31" s="19">
-        <f t="shared" si="139"/>
+        <f t="shared" si="138"/>
         <v>7.9618593563766382E-2</v>
       </c>
       <c r="R31" s="19">
-        <f t="shared" si="139"/>
+        <f t="shared" si="138"/>
         <v>7.8880291306326816E-2</v>
       </c>
       <c r="S31" s="19">
-        <f t="shared" si="139"/>
+        <f t="shared" si="138"/>
         <v>7.7282268774364921E-2</v>
       </c>
       <c r="T31" s="19">
@@ -8708,52 +8700,52 @@
         <v>9.7959183673469383E-2</v>
       </c>
       <c r="U31" s="19">
-        <f t="shared" ref="U31:X31" si="140">+U18/U15</f>
+        <f t="shared" ref="U31:X31" si="139">+U18/U15</f>
         <v>8.2912245241704582E-2</v>
       </c>
       <c r="V31" s="19">
+        <f t="shared" si="139"/>
+        <v>8.8079576447938374E-2</v>
+      </c>
+      <c r="W31" s="19">
+        <f t="shared" si="139"/>
+        <v>8.6849734256724098E-2</v>
+      </c>
+      <c r="X31" s="19">
+        <f t="shared" si="139"/>
+        <v>0.11343686698176907</v>
+      </c>
+      <c r="Y31" s="19">
+        <f t="shared" ref="Y31:AB31" si="140">+Y18/Y15</f>
+        <v>0.1010926930796105</v>
+      </c>
+      <c r="Z31" s="19">
         <f t="shared" si="140"/>
-        <v>8.8079576447938374E-2</v>
-      </c>
-      <c r="W31" s="19">
+        <v>0.10598729966737223</v>
+      </c>
+      <c r="AA31" s="19">
         <f t="shared" si="140"/>
-        <v>8.6849734256724098E-2</v>
-      </c>
-      <c r="X31" s="19">
+        <v>0.10826508892817202</v>
+      </c>
+      <c r="AB31" s="19">
         <f t="shared" si="140"/>
-        <v>0.11343686698176907</v>
-      </c>
-      <c r="Y31" s="19">
-        <f t="shared" ref="Y31:AB31" si="141">+Y18/Y15</f>
-        <v>0.1010926930796105</v>
-      </c>
-      <c r="Z31" s="19">
+        <v>0.10649038461538463</v>
+      </c>
+      <c r="AC31" s="19">
+        <f t="shared" ref="AC31:AF31" si="141">+AC18/AC15</f>
+        <v>0.12020792722547109</v>
+      </c>
+      <c r="AD31" s="19">
         <f t="shared" si="141"/>
-        <v>0.10598729966737223</v>
-      </c>
-      <c r="AA31" s="19">
+        <v>0.12122643100482343</v>
+      </c>
+      <c r="AE31" s="19">
         <f t="shared" si="141"/>
-        <v>0.10826508892817202</v>
-      </c>
-      <c r="AB31" s="19">
+        <v>0.10086716859370801</v>
+      </c>
+      <c r="AF31" s="19">
         <f t="shared" si="141"/>
-        <v>0.10649038461538463</v>
-      </c>
-      <c r="AC31" s="19">
-        <f t="shared" ref="AC31:AF31" si="142">+AC18/AC15</f>
-        <v>0.12020792722547109</v>
-      </c>
-      <c r="AD31" s="19">
-        <f t="shared" si="142"/>
-        <v>9.8385964912280688E-2</v>
-      </c>
-      <c r="AE31" s="19">
-        <f t="shared" si="142"/>
-        <v>0.10382286801591421</v>
-      </c>
-      <c r="AF31" s="19">
-        <f t="shared" si="142"/>
-        <v>0.10530426514534096</v>
+        <v>0.10236012543323983</v>
       </c>
       <c r="AG31" s="19"/>
       <c r="AO31" s="19"/>
@@ -8762,77 +8754,77 @@
         <v>8.3555386372287793E-2</v>
       </c>
       <c r="AQ31" s="19">
-        <f t="shared" ref="AQ31:BC31" si="143">+AQ18/AQ15</f>
+        <f t="shared" ref="AQ31:BC31" si="142">+AQ18/AQ15</f>
         <v>9.2995450538538693E-2</v>
       </c>
       <c r="AR31" s="19">
+        <f t="shared" si="142"/>
+        <v>0.1</v>
+      </c>
+      <c r="AS31" s="19">
+        <f t="shared" si="142"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="AT31" s="19">
+        <f t="shared" si="142"/>
+        <v>0.1</v>
+      </c>
+      <c r="AU31" s="19">
+        <f t="shared" si="142"/>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AV31" s="19">
+        <f t="shared" si="142"/>
+        <v>0.1</v>
+      </c>
+      <c r="AW31" s="19">
+        <f t="shared" si="142"/>
+        <v>0.1</v>
+      </c>
+      <c r="AX31" s="19">
+        <f t="shared" si="142"/>
+        <v>0.1</v>
+      </c>
+      <c r="AY31" s="19">
+        <f t="shared" si="142"/>
+        <v>0.1</v>
+      </c>
+      <c r="AZ31" s="19">
+        <f t="shared" si="142"/>
+        <v>0.1</v>
+      </c>
+      <c r="BA31" s="19">
+        <f t="shared" si="142"/>
+        <v>0.1</v>
+      </c>
+      <c r="BB31" s="19">
+        <f t="shared" si="142"/>
+        <v>0.1</v>
+      </c>
+      <c r="BC31" s="19">
+        <f t="shared" si="142"/>
+        <v>0.1</v>
+      </c>
+      <c r="BD31" s="19">
+        <f t="shared" ref="BD31:BH31" si="143">+BD18/BD15</f>
+        <v>0.1</v>
+      </c>
+      <c r="BE31" s="19">
         <f t="shared" si="143"/>
         <v>0.1</v>
       </c>
-      <c r="AS31" s="19">
-        <f t="shared" si="143"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="AT31" s="19">
+      <c r="BF31" s="19">
         <f t="shared" si="143"/>
         <v>0.1</v>
       </c>
-      <c r="AU31" s="19">
+      <c r="BG31" s="19">
         <f t="shared" si="143"/>
         <v>0.1</v>
       </c>
-      <c r="AV31" s="19">
+      <c r="BH31" s="19">
         <f t="shared" si="143"/>
         <v>0.1</v>
       </c>
-      <c r="AW31" s="19">
-        <f t="shared" si="143"/>
-        <v>0.1</v>
-      </c>
-      <c r="AX31" s="19">
-        <f t="shared" si="143"/>
-        <v>0.1</v>
-      </c>
-      <c r="AY31" s="19">
-        <f t="shared" si="143"/>
-        <v>0.1</v>
-      </c>
-      <c r="AZ31" s="19">
-        <f t="shared" si="143"/>
-        <v>0.1</v>
-      </c>
-      <c r="BA31" s="19">
-        <f t="shared" si="143"/>
-        <v>0.1</v>
-      </c>
-      <c r="BB31" s="19">
-        <f t="shared" si="143"/>
-        <v>0.1</v>
-      </c>
-      <c r="BC31" s="19">
-        <f t="shared" si="143"/>
-        <v>0.1</v>
-      </c>
-      <c r="BD31" s="19">
-        <f t="shared" ref="BD31:BH31" si="144">+BD18/BD15</f>
-        <v>0.1</v>
-      </c>
-      <c r="BE31" s="19">
-        <f t="shared" si="144"/>
-        <v>0.1</v>
-      </c>
-      <c r="BF31" s="19">
-        <f t="shared" si="144"/>
-        <v>0.1</v>
-      </c>
-      <c r="BG31" s="19">
-        <f t="shared" si="144"/>
-        <v>0.1</v>
-      </c>
-      <c r="BH31" s="19">
-        <f t="shared" si="144"/>
-        <v>0.1</v>
-      </c>
       <c r="BJ31" t="s">
         <v>286</v>
       </c>
@@ -8840,48 +8832,48 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="32" spans="2:120" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C32" s="19">
-        <f t="shared" ref="C32" si="145">C24/C23</f>
+        <f t="shared" ref="C32" si="144">C24/C23</f>
         <v>4.1139547592659732E-2</v>
       </c>
       <c r="D32" s="19">
-        <f t="shared" ref="D32:H32" si="146">D24/D23</f>
+        <f t="shared" ref="D32:H32" si="145">D24/D23</f>
         <v>0</v>
       </c>
       <c r="E32" s="19">
+        <f t="shared" si="145"/>
+        <v>0.18584070796460173</v>
+      </c>
+      <c r="F32" s="19">
+        <f t="shared" si="145"/>
+        <v>0.21886672115945011</v>
+      </c>
+      <c r="G32" s="19">
+        <f t="shared" si="145"/>
+        <v>0.1245736375350564</v>
+      </c>
+      <c r="H32" s="19">
+        <f t="shared" si="145"/>
+        <v>0.23736987411666366</v>
+      </c>
+      <c r="I32" s="19">
+        <f t="shared" ref="I32:J32" si="146">I24/I23</f>
+        <v>7.6068135142753596E-2</v>
+      </c>
+      <c r="J32" s="19">
         <f t="shared" si="146"/>
-        <v>0.18584070796460173</v>
-      </c>
-      <c r="F32" s="19">
-        <f t="shared" si="146"/>
-        <v>0.21886672115945011</v>
-      </c>
-      <c r="G32" s="19">
-        <f t="shared" si="146"/>
-        <v>0.1245736375350564</v>
-      </c>
-      <c r="H32" s="19">
-        <f t="shared" si="146"/>
-        <v>0.23736987411666366</v>
-      </c>
-      <c r="I32" s="19">
-        <f t="shared" ref="I32:J32" si="147">I24/I23</f>
-        <v>7.6068135142753596E-2</v>
-      </c>
-      <c r="J32" s="19">
+        <v>-1.7419854732347417E-2</v>
+      </c>
+      <c r="K32" s="19">
+        <f t="shared" ref="K32:L32" si="147">K24/K23</f>
+        <v>0.1183036858950188</v>
+      </c>
+      <c r="L32" s="19">
         <f t="shared" si="147"/>
-        <v>-1.7419854732347417E-2</v>
-      </c>
-      <c r="K32" s="19">
-        <f t="shared" ref="K32:L32" si="148">K24/K23</f>
-        <v>0.1183036858950188</v>
-      </c>
-      <c r="L32" s="19">
-        <f t="shared" si="148"/>
         <v>0.22735101619014811</v>
       </c>
       <c r="M32" s="19">
@@ -8889,79 +8881,79 @@
         <v>0.20896733617366606</v>
       </c>
       <c r="N32" s="19">
-        <f t="shared" ref="N32:T32" si="149">N24/N23</f>
+        <f t="shared" ref="N32:T32" si="148">N24/N23</f>
         <v>1.2000440383133325E-2</v>
       </c>
       <c r="O32" s="19">
+        <f t="shared" si="148"/>
+        <v>0.22163530370872531</v>
+      </c>
+      <c r="P32" s="19">
+        <f t="shared" si="148"/>
+        <v>0.21576239053895463</v>
+      </c>
+      <c r="Q32" s="19">
+        <f t="shared" si="148"/>
+        <v>0.19897714559693142</v>
+      </c>
+      <c r="R32" s="19">
+        <f t="shared" si="148"/>
+        <v>0.20799485240891175</v>
+      </c>
+      <c r="S32" s="19">
+        <f t="shared" si="148"/>
+        <v>0.18205374990745546</v>
+      </c>
+      <c r="T32" s="19">
+        <f t="shared" si="148"/>
+        <v>0.20670032860463253</v>
+      </c>
+      <c r="U32" s="19">
+        <f t="shared" ref="U32:X32" si="149">U24/U23</f>
+        <v>0.15817041682036154</v>
+      </c>
+      <c r="V32" s="19">
         <f t="shared" si="149"/>
-        <v>0.22163530370872531</v>
-      </c>
-      <c r="P32" s="19">
+        <v>0.1932706793887653</v>
+      </c>
+      <c r="W32" s="19">
         <f t="shared" si="149"/>
-        <v>0.21576239053895463</v>
-      </c>
-      <c r="Q32" s="19">
+        <v>0.18714473108876253</v>
+      </c>
+      <c r="X32" s="19">
         <f t="shared" si="149"/>
-        <v>0.19897714559693142</v>
-      </c>
-      <c r="R32" s="19">
-        <f t="shared" si="149"/>
-        <v>0.20799485240891175</v>
-      </c>
-      <c r="S32" s="19">
-        <f t="shared" si="149"/>
-        <v>0.18205374990745546</v>
-      </c>
-      <c r="T32" s="19">
-        <f t="shared" si="149"/>
-        <v>0.20670032860463253</v>
-      </c>
-      <c r="U32" s="19">
-        <f t="shared" ref="U32:X32" si="150">U24/U23</f>
-        <v>0.15817041682036154</v>
-      </c>
-      <c r="V32" s="19">
+        <v>0.13461828037946091</v>
+      </c>
+      <c r="Y32" s="19">
+        <f t="shared" ref="Y32:AB32" si="150">Y24/Y23</f>
+        <v>0.16528454769893022</v>
+      </c>
+      <c r="Z32" s="19">
         <f t="shared" si="150"/>
-        <v>0.1932706793887653</v>
-      </c>
-      <c r="W32" s="19">
+        <v>0.20886603668704837</v>
+      </c>
+      <c r="AA32" s="19">
         <f t="shared" si="150"/>
-        <v>0.18714473108876253</v>
-      </c>
-      <c r="X32" s="19">
+        <v>0.19622405774970497</v>
+      </c>
+      <c r="AB32" s="19">
         <f t="shared" si="150"/>
-        <v>0.13461828037946091</v>
-      </c>
-      <c r="Y32" s="19">
-        <f t="shared" ref="Y32:AB32" si="151">Y24/Y23</f>
-        <v>0.16528454769893022</v>
-      </c>
-      <c r="Z32" s="19">
+        <v>0.19928749554684719</v>
+      </c>
+      <c r="AC32" s="19">
+        <f t="shared" ref="AC32:AF32" si="151">AC24/AC23</f>
+        <v>0.1</v>
+      </c>
+      <c r="AD32" s="19">
         <f t="shared" si="151"/>
-        <v>0.20886603668704837</v>
-      </c>
-      <c r="AA32" s="19">
+        <v>0.21136993483634189</v>
+      </c>
+      <c r="AE32" s="19">
         <f t="shared" si="151"/>
-        <v>0.19622405774970497</v>
-      </c>
-      <c r="AB32" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AF32" s="19">
         <f t="shared" si="151"/>
-        <v>0.19928749554684719</v>
-      </c>
-      <c r="AC32" s="19">
-        <f t="shared" ref="AC32:AF32" si="152">AC24/AC23</f>
-        <v>0.1</v>
-      </c>
-      <c r="AD32" s="19">
-        <f t="shared" si="152"/>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="AE32" s="19">
-        <f t="shared" si="152"/>
-        <v>0.1</v>
-      </c>
-      <c r="AF32" s="19">
-        <f t="shared" si="152"/>
         <v>0.1</v>
       </c>
       <c r="AG32" s="19"/>
@@ -8970,94 +8962,94 @@
         <v>0.19858239579038309</v>
       </c>
       <c r="AQ32" s="23">
-        <f t="shared" ref="AQ32:BC32" si="153">+AQ24/AQ23</f>
+        <f t="shared" ref="AQ32:BC32" si="152">+AQ24/AQ23</f>
         <v>0.16870343865829932</v>
       </c>
       <c r="AR32" s="23">
+        <f t="shared" si="152"/>
+        <v>0.2</v>
+      </c>
+      <c r="AS32" s="23">
+        <f t="shared" si="152"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AT32" s="23">
+        <f t="shared" si="152"/>
+        <v>0.2</v>
+      </c>
+      <c r="AU32" s="23">
+        <f t="shared" si="152"/>
+        <v>0.2</v>
+      </c>
+      <c r="AV32" s="23">
+        <f t="shared" si="152"/>
+        <v>0.2</v>
+      </c>
+      <c r="AW32" s="23">
+        <f t="shared" si="152"/>
+        <v>0.2</v>
+      </c>
+      <c r="AX32" s="23">
+        <f t="shared" si="152"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AY32" s="23">
+        <f t="shared" si="152"/>
+        <v>0.2</v>
+      </c>
+      <c r="AZ32" s="23">
+        <f t="shared" si="152"/>
+        <v>0.2</v>
+      </c>
+      <c r="BA32" s="23">
+        <f t="shared" si="152"/>
+        <v>0.2</v>
+      </c>
+      <c r="BB32" s="23">
+        <f t="shared" si="152"/>
+        <v>0.2</v>
+      </c>
+      <c r="BC32" s="23">
+        <f t="shared" si="152"/>
+        <v>0.2</v>
+      </c>
+      <c r="BD32" s="23">
+        <f t="shared" ref="BD32:BH32" si="153">+BD24/BD23</f>
+        <v>0.2</v>
+      </c>
+      <c r="BE32" s="23">
         <f t="shared" si="153"/>
         <v>0.2</v>
       </c>
-      <c r="AS32" s="23">
+      <c r="BF32" s="23">
         <f t="shared" si="153"/>
         <v>0.2</v>
       </c>
-      <c r="AT32" s="23">
+      <c r="BG32" s="23">
         <f t="shared" si="153"/>
         <v>0.2</v>
       </c>
-      <c r="AU32" s="23">
+      <c r="BH32" s="23">
         <f t="shared" si="153"/>
         <v>0.2</v>
       </c>
-      <c r="AV32" s="23">
-        <f t="shared" si="153"/>
-        <v>0.2</v>
-      </c>
-      <c r="AW32" s="23">
-        <f t="shared" si="153"/>
-        <v>0.2</v>
-      </c>
-      <c r="AX32" s="23">
-        <f t="shared" si="153"/>
-        <v>0.2</v>
-      </c>
-      <c r="AY32" s="23">
-        <f t="shared" si="153"/>
-        <v>0.2</v>
-      </c>
-      <c r="AZ32" s="23">
-        <f t="shared" si="153"/>
-        <v>0.2</v>
-      </c>
-      <c r="BA32" s="23">
-        <f t="shared" si="153"/>
-        <v>0.2</v>
-      </c>
-      <c r="BB32" s="23">
-        <f t="shared" si="153"/>
-        <v>0.2</v>
-      </c>
-      <c r="BC32" s="23">
-        <f t="shared" si="153"/>
-        <v>0.2</v>
-      </c>
-      <c r="BD32" s="23">
-        <f t="shared" ref="BD32:BH32" si="154">+BD24/BD23</f>
-        <v>0.2</v>
-      </c>
-      <c r="BE32" s="23">
-        <f t="shared" si="154"/>
-        <v>0.2</v>
-      </c>
-      <c r="BF32" s="23">
-        <f t="shared" si="154"/>
-        <v>0.2</v>
-      </c>
-      <c r="BG32" s="23">
-        <f t="shared" si="154"/>
-        <v>0.2</v>
-      </c>
-      <c r="BH32" s="23">
-        <f t="shared" si="154"/>
-        <v>0.2</v>
-      </c>
       <c r="BJ32" t="s">
         <v>285</v>
       </c>
       <c r="BK32" s="23">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="33" spans="2:63" x14ac:dyDescent="0.2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="33" spans="2:63" x14ac:dyDescent="0.25">
       <c r="BJ33" t="s">
         <v>287</v>
       </c>
       <c r="BK33" s="2">
         <f>NPV(BK31,AS25:CP25)+Main!M5-Main!M6</f>
-        <v>156200.68354999492</v>
-      </c>
-    </row>
-    <row r="34" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>160470.11149521108</v>
+      </c>
+    </row>
+    <row r="34" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
@@ -9148,82 +9140,82 @@
         <v>13716.100000000002</v>
       </c>
       <c r="AR34" s="2">
-        <f t="shared" ref="AR34:BC34" si="155">+AQ34+AR25</f>
-        <v>21143.175200000001</v>
+        <f t="shared" ref="AR34:BC34" si="154">+AQ34+AR25</f>
+        <v>21362.632799999999</v>
       </c>
       <c r="AS34" s="2">
-        <f t="shared" si="155"/>
-        <v>28918.772601600002</v>
+        <f t="shared" si="154"/>
+        <v>29656.685587200001</v>
       </c>
       <c r="AT34" s="2">
-        <f t="shared" si="155"/>
-        <v>37746.438758412798</v>
+        <f t="shared" si="154"/>
+        <v>38495.7582332928</v>
       </c>
       <c r="AU34" s="2">
-        <f t="shared" si="155"/>
-        <v>47562.641033040098</v>
+        <f t="shared" si="154"/>
+        <v>48091.809759211828</v>
       </c>
       <c r="AV34" s="2">
-        <f t="shared" si="155"/>
-        <v>58267.124516710013</v>
+        <f t="shared" si="154"/>
+        <v>58267.806092636114</v>
       </c>
       <c r="AW34" s="2">
-        <f t="shared" si="155"/>
-        <v>69540.957152603354</v>
+        <f t="shared" si="154"/>
+        <v>68936.941827454619</v>
       </c>
       <c r="AX34" s="2">
-        <f t="shared" si="155"/>
-        <v>81220.749209021436</v>
+        <f t="shared" si="154"/>
+        <v>79863.311141914717</v>
       </c>
       <c r="AY34" s="2">
-        <f t="shared" si="155"/>
-        <v>93664.20290351483</v>
+        <f t="shared" si="154"/>
+        <v>91514.380539723876</v>
       </c>
       <c r="AZ34" s="2">
-        <f t="shared" si="155"/>
-        <v>106338.97136575478</v>
+        <f t="shared" si="154"/>
+        <v>103443.97661444168</v>
       </c>
       <c r="BA34" s="2">
-        <f t="shared" si="155"/>
-        <v>119570.81083932763</v>
+        <f t="shared" si="154"/>
+        <v>115941.12678654592</v>
       </c>
       <c r="BB34" s="2">
-        <f t="shared" si="155"/>
-        <v>133105.16293284125</v>
+        <f t="shared" si="154"/>
+        <v>128824.48918570261</v>
       </c>
       <c r="BC34" s="2">
-        <f t="shared" si="155"/>
-        <v>146687.72926107311</v>
+        <f t="shared" si="154"/>
+        <v>141856.26803085042</v>
       </c>
       <c r="BD34" s="2">
-        <f t="shared" ref="BD34" si="156">+BC34+BD25</f>
-        <v>160477.87557879111</v>
+        <f t="shared" ref="BD34" si="155">+BC34+BD25</f>
+        <v>155205.04445372132</v>
       </c>
       <c r="BE34" s="2">
-        <f t="shared" ref="BE34" si="157">+BD34+BE25</f>
-        <v>174564.89502122562</v>
+        <f t="shared" ref="BE34" si="156">+BD34+BE25</f>
+        <v>168970.66760983004</v>
       </c>
       <c r="BF34" s="2">
-        <f t="shared" ref="BF34" si="158">+BE34+BF25</f>
-        <v>189002.43768306266</v>
+        <f t="shared" ref="BF34" si="157">+BE34+BF25</f>
+        <v>183217.79526129353</v>
       </c>
       <c r="BG34" s="2">
-        <f t="shared" ref="BG34" si="159">+BF34+BG25</f>
-        <v>203825.88489221997</v>
+        <f t="shared" ref="BG34" si="158">+BF34+BG25</f>
+        <v>197992.90592439118</v>
       </c>
       <c r="BH34" s="2">
-        <f t="shared" ref="BH34" si="160">+BG34+BH25</f>
-        <v>212305.33307108871</v>
+        <f t="shared" ref="BH34" si="159">+BG34+BH25</f>
+        <v>208604.74972465308</v>
       </c>
       <c r="BJ34" s="2" t="s">
         <v>289</v>
       </c>
       <c r="BK34" s="1">
         <f>BK33/Main!M3</f>
-        <v>608.26477647512127</v>
-      </c>
-    </row>
-    <row r="35" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>624.89045682268738</v>
+      </c>
+    </row>
+    <row r="35" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>254</v>
       </c>
@@ -9280,7 +9272,7 @@
         <v>1805.1</v>
       </c>
     </row>
-    <row r="36" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>255</v>
       </c>
@@ -9337,7 +9329,7 @@
         <v>1359.7</v>
       </c>
     </row>
-    <row r="37" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>256</v>
       </c>
@@ -9394,7 +9386,7 @@
         <v>642.79999999999995</v>
       </c>
     </row>
-    <row r="38" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>257</v>
       </c>
@@ -9451,7 +9443,7 @@
         <v>1295.9000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>258</v>
       </c>
@@ -9521,7 +9513,7 @@
         <v>1529.2</v>
       </c>
     </row>
-    <row r="40" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>121</v>
       </c>
@@ -9578,7 +9570,7 @@
         <v>2544.3000000000002</v>
       </c>
     </row>
-    <row r="41" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>259</v>
       </c>
@@ -9635,7 +9627,7 @@
         <v>1338.5</v>
       </c>
     </row>
-    <row r="42" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>260</v>
       </c>
@@ -9692,7 +9684,7 @@
         <v>1007.3</v>
       </c>
     </row>
-    <row r="43" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>253</v>
       </c>
@@ -9707,71 +9699,71 @@
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="12">
-        <f t="shared" ref="M43:R43" si="161">SUM(M34:M42)</f>
+        <f t="shared" ref="M43:R43" si="160">SUM(M34:M42)</f>
         <v>12115.058999999997</v>
       </c>
       <c r="N43" s="12">
+        <f t="shared" si="160"/>
+        <v>12221.686</v>
+      </c>
+      <c r="O43" s="12">
+        <f t="shared" si="160"/>
+        <v>12618.744999999999</v>
+      </c>
+      <c r="P43" s="12">
+        <f t="shared" si="160"/>
+        <v>13432.499999999998</v>
+      </c>
+      <c r="Q43" s="12">
+        <f t="shared" si="160"/>
+        <v>14256.1</v>
+      </c>
+      <c r="R43" s="12">
+        <f t="shared" si="160"/>
+        <v>15582.2</v>
+      </c>
+      <c r="S43" s="12">
+        <f t="shared" ref="S43:AC43" si="161">SUM(S34:S42)</f>
+        <v>16706.400000000005</v>
+      </c>
+      <c r="T43" s="12">
         <f t="shared" si="161"/>
-        <v>12221.686</v>
-      </c>
-      <c r="O43" s="12">
+        <v>18150.900000000001</v>
+      </c>
+      <c r="U43" s="12">
         <f t="shared" si="161"/>
-        <v>12618.744999999999</v>
-      </c>
-      <c r="P43" s="12">
+        <v>18974.2</v>
+      </c>
+      <c r="V43" s="12">
         <f t="shared" si="161"/>
-        <v>13432.499999999998</v>
-      </c>
-      <c r="Q43" s="12">
+        <v>20349.2</v>
+      </c>
+      <c r="W43" s="12">
         <f t="shared" si="161"/>
-        <v>14256.1</v>
-      </c>
-      <c r="R43" s="12">
+        <v>21726.2</v>
+      </c>
+      <c r="X43" s="12">
         <f t="shared" si="161"/>
-        <v>15582.2</v>
-      </c>
-      <c r="S43" s="12">
-        <f t="shared" ref="S43:AC43" si="162">SUM(S34:S42)</f>
-        <v>16706.400000000005</v>
-      </c>
-      <c r="T43" s="12">
-        <f t="shared" si="162"/>
-        <v>18150.900000000001</v>
-      </c>
-      <c r="U43" s="12">
-        <f t="shared" si="162"/>
-        <v>18974.2</v>
-      </c>
-      <c r="V43" s="12">
-        <f t="shared" si="162"/>
-        <v>20349.2</v>
-      </c>
-      <c r="W43" s="12">
-        <f t="shared" si="162"/>
-        <v>21726.2</v>
-      </c>
-      <c r="X43" s="12">
-        <f t="shared" si="162"/>
         <v>22730.199999999997</v>
       </c>
       <c r="Y43" s="12">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>23917.4</v>
       </c>
       <c r="Z43" s="12">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>15691.3</v>
       </c>
       <c r="AA43" s="12">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>16849.3</v>
       </c>
       <c r="AB43" s="12">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>17973.099999999999</v>
       </c>
       <c r="AC43" s="12">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>22880.5</v>
       </c>
       <c r="AD43" s="12"/>
@@ -9779,7 +9771,7 @@
       <c r="AF43" s="12"/>
       <c r="AG43" s="12"/>
     </row>
-    <row r="45" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>261</v>
       </c>
@@ -9836,7 +9828,7 @@
         <v>3396.8</v>
       </c>
     </row>
-    <row r="46" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>262</v>
       </c>
@@ -9893,7 +9885,7 @@
         <v>386.4</v>
       </c>
     </row>
-    <row r="47" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>263</v>
       </c>
@@ -9950,7 +9942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>259</v>
       </c>
@@ -10021,7 +10013,7 @@
         <v>1649.1000000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>264</v>
       </c>
@@ -10078,7 +10070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>265</v>
       </c>
@@ -10135,7 +10127,7 @@
         <v>951.9</v>
       </c>
     </row>
-    <row r="51" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>267</v>
       </c>
@@ -10192,7 +10184,7 @@
         <v>16496.3</v>
       </c>
     </row>
-    <row r="52" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>266</v>
       </c>
@@ -10207,51 +10199,51 @@
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="12">
-        <f t="shared" ref="M52:R52" si="163">SUM(M45:M51)</f>
+        <f t="shared" ref="M52:R52" si="162">SUM(M45:M51)</f>
         <v>12115.059000000001</v>
       </c>
       <c r="N52" s="12">
+        <f t="shared" si="162"/>
+        <v>12221.686000000002</v>
+      </c>
+      <c r="O52" s="12">
+        <f t="shared" si="162"/>
+        <v>12618.745000000001</v>
+      </c>
+      <c r="P52" s="12">
+        <f t="shared" si="162"/>
+        <v>13432.5</v>
+      </c>
+      <c r="Q52" s="12">
+        <f t="shared" si="162"/>
+        <v>14256.1</v>
+      </c>
+      <c r="R52" s="12">
+        <f t="shared" si="162"/>
+        <v>15582.2</v>
+      </c>
+      <c r="S52" s="12">
+        <f t="shared" ref="S52:X52" si="163">SUM(S45:S51)</f>
+        <v>16706.400000000001</v>
+      </c>
+      <c r="T52" s="12">
         <f t="shared" si="163"/>
-        <v>12221.686000000002</v>
-      </c>
-      <c r="O52" s="12">
+        <v>18150.900000000001</v>
+      </c>
+      <c r="U52" s="12">
         <f t="shared" si="163"/>
-        <v>12618.745000000001</v>
-      </c>
-      <c r="P52" s="12">
+        <v>18974.199999999997</v>
+      </c>
+      <c r="V52" s="12">
         <f t="shared" si="163"/>
-        <v>13432.5</v>
-      </c>
-      <c r="Q52" s="12">
+        <v>20349.2</v>
+      </c>
+      <c r="W52" s="12">
         <f t="shared" si="163"/>
-        <v>14256.1</v>
-      </c>
-      <c r="R52" s="12">
+        <v>21726.2</v>
+      </c>
+      <c r="X52" s="12">
         <f t="shared" si="163"/>
-        <v>15582.2</v>
-      </c>
-      <c r="S52" s="12">
-        <f t="shared" ref="S52:X52" si="164">SUM(S45:S51)</f>
-        <v>16706.400000000001</v>
-      </c>
-      <c r="T52" s="12">
-        <f t="shared" si="164"/>
-        <v>18150.900000000001</v>
-      </c>
-      <c r="U52" s="12">
-        <f t="shared" si="164"/>
-        <v>18974.199999999997</v>
-      </c>
-      <c r="V52" s="12">
-        <f t="shared" si="164"/>
-        <v>20349.2</v>
-      </c>
-      <c r="W52" s="12">
-        <f t="shared" si="164"/>
-        <v>21726.2</v>
-      </c>
-      <c r="X52" s="12">
-        <f t="shared" si="164"/>
         <v>22730.2</v>
       </c>
       <c r="Y52" s="12">
@@ -10259,19 +10251,19 @@
         <v>23917.399999999998</v>
       </c>
       <c r="Z52" s="12">
-        <f t="shared" ref="Z52:AC52" si="165">SUM(Z45:Z51)</f>
+        <f t="shared" ref="Z52:AC52" si="164">SUM(Z45:Z51)</f>
         <v>0</v>
       </c>
       <c r="AA52" s="12">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="AB52" s="12">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="AC52" s="12">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>22880.5</v>
       </c>
       <c r="AD52" s="12"/>
@@ -10279,7 +10271,7 @@
       <c r="AF52" s="12"/>
       <c r="AG52" s="12"/>
     </row>
-    <row r="54" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>268</v>
       </c>
@@ -10294,75 +10286,75 @@
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="12">
-        <f t="shared" ref="M54:P54" si="166">+M25</f>
+        <f t="shared" ref="M54:P54" si="165">+M25</f>
         <v>779.8</v>
       </c>
       <c r="N54" s="12">
+        <f t="shared" si="165"/>
+        <v>897.40000000000009</v>
+      </c>
+      <c r="O54" s="12">
+        <f t="shared" si="165"/>
+        <v>810.59600000000034</v>
+      </c>
+      <c r="P54" s="12">
+        <f t="shared" si="165"/>
+        <v>868.69999999999982</v>
+      </c>
+      <c r="Q54" s="12">
+        <f t="shared" ref="Q54:AC54" si="166">+Q25</f>
+        <v>1002.4000000000001</v>
+      </c>
+      <c r="R54" s="12">
         <f t="shared" si="166"/>
-        <v>897.40000000000009</v>
-      </c>
-      <c r="O54" s="12">
+        <v>984.70000000000016</v>
+      </c>
+      <c r="S54" s="12">
         <f t="shared" si="166"/>
-        <v>810.59600000000034</v>
-      </c>
-      <c r="P54" s="12">
+        <v>1104.7999999999995</v>
+      </c>
+      <c r="T54" s="12">
         <f t="shared" si="166"/>
-        <v>868.69999999999982</v>
-      </c>
-      <c r="Q54" s="12">
-        <f t="shared" ref="Q54:AC54" si="167">+Q25</f>
-        <v>1002.4000000000001</v>
-      </c>
-      <c r="R54" s="12">
-        <f t="shared" si="167"/>
-        <v>984.70000000000016</v>
-      </c>
-      <c r="S54" s="12">
-        <f t="shared" si="167"/>
-        <v>1104.7999999999995</v>
-      </c>
-      <c r="T54" s="12">
-        <f t="shared" si="167"/>
         <v>989.79999999999984</v>
       </c>
       <c r="U54" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>1141.0999999999995</v>
       </c>
       <c r="V54" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>1124.5</v>
       </c>
       <c r="W54" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>1115.4000000000003</v>
       </c>
       <c r="X54" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>1149.4000000000003</v>
       </c>
       <c r="Y54" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>1318.5999999999995</v>
       </c>
       <c r="Z54" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>1138.5999999999999</v>
       </c>
       <c r="AA54" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>1158.0000000000002</v>
       </c>
       <c r="AB54" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>1123.7999999999997</v>
       </c>
       <c r="AC54" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>1188.4499999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>269</v>
       </c>
@@ -10428,7 +10420,7 @@
         <v>646.29999999999995</v>
       </c>
     </row>
-    <row r="56" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>270</v>
       </c>
@@ -10494,7 +10486,7 @@
         <v>166.1</v>
       </c>
     </row>
-    <row r="57" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>271</v>
       </c>
@@ -10560,7 +10552,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="58" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -10584,7 +10576,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>264</v>
       </c>
@@ -10650,7 +10642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>121</v>
       </c>
@@ -10716,7 +10708,7 @@
         <v>-191.6</v>
       </c>
     </row>
-    <row r="61" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>272</v>
       </c>
@@ -10782,7 +10774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>273</v>
       </c>
@@ -10848,7 +10840,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="63" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>274</v>
       </c>
@@ -10919,7 +10911,7 @@
         <v>-268.5</v>
       </c>
     </row>
-    <row r="64" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>278</v>
       </c>
@@ -10934,55 +10926,55 @@
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
       <c r="M64" s="12">
-        <f t="shared" ref="M64:Y64" si="168">SUM(M55:M63)</f>
+        <f t="shared" ref="M64:Y64" si="167">SUM(M55:M63)</f>
         <v>921.05499999999995</v>
       </c>
       <c r="N64" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>-199.76700000000002</v>
       </c>
       <c r="O64" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>927.21900000000028</v>
       </c>
       <c r="P64" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>994.99299999999994</v>
       </c>
       <c r="Q64" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>956.20000000000016</v>
       </c>
       <c r="R64" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>1139.7999999999997</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>955.49999999999989</v>
       </c>
       <c r="T64" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>1078.3999999999996</v>
       </c>
       <c r="U64" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>899.9</v>
       </c>
       <c r="V64" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>1134.4000000000001</v>
       </c>
       <c r="W64" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>1268.4000000000003</v>
       </c>
       <c r="X64" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>234.59999999999968</v>
       </c>
       <c r="Y64" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>1306.6000000000001</v>
       </c>
       <c r="AC64" s="2">
@@ -10990,7 +10982,7 @@
         <v>818.90000000000009</v>
       </c>
     </row>
-    <row r="66" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>275</v>
       </c>
@@ -11056,7 +11048,7 @@
         <v>-40.700000000000003</v>
       </c>
     </row>
-    <row r="67" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>347</v>
       </c>
@@ -11113,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>276</v>
       </c>
@@ -11184,7 +11176,7 @@
         <v>-15.100000000000136</v>
       </c>
     </row>
-    <row r="69" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>277</v>
       </c>
@@ -11199,27 +11191,27 @@
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
       <c r="M69" s="12">
-        <f t="shared" ref="M69:R69" si="169">M66+M68</f>
+        <f t="shared" ref="M69:R69" si="168">M66+M68</f>
         <v>-74.308999999999997</v>
       </c>
       <c r="N69" s="12">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>-79.64100000000002</v>
       </c>
       <c r="O69" s="12">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>-52.952000000000012</v>
       </c>
       <c r="P69" s="12">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>-133.99800000000002</v>
       </c>
       <c r="Q69" s="12">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>-51.000000000000007</v>
       </c>
       <c r="R69" s="12">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>-61.499999999999993</v>
       </c>
       <c r="S69" s="12">
@@ -11255,7 +11247,7 @@
         <v>-55.800000000000139</v>
       </c>
     </row>
-    <row r="71" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>282</v>
       </c>
@@ -11321,7 +11313,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="72" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>283</v>
       </c>
@@ -11387,7 +11379,7 @@
         <v>-270.5</v>
       </c>
     </row>
-    <row r="73" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>342</v>
       </c>
@@ -11450,7 +11442,7 @@
         <v>-426.1</v>
       </c>
     </row>
-    <row r="74" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>259</v>
       </c>
@@ -11518,7 +11510,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="75" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>260</v>
       </c>
@@ -11584,7 +11576,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="76" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>281</v>
       </c>
@@ -11599,63 +11591,63 @@
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
       <c r="M76" s="12">
-        <f t="shared" ref="M76:P76" si="170">SUM(M71:M75)</f>
+        <f t="shared" ref="M76:P76" si="169">SUM(M71:M75)</f>
         <v>-518.654</v>
       </c>
       <c r="N76" s="12">
+        <f t="shared" si="169"/>
+        <v>33.550000000000004</v>
+      </c>
+      <c r="O76" s="12">
+        <f t="shared" si="169"/>
+        <v>-656.66099999999994</v>
+      </c>
+      <c r="P76" s="12">
+        <f t="shared" si="169"/>
+        <v>-336.23500000000018</v>
+      </c>
+      <c r="Q76" s="12">
+        <f t="shared" ref="Q76:Y76" si="170">SUM(Q71:Q75)</f>
+        <v>-95.4</v>
+      </c>
+      <c r="R76" s="12">
         <f t="shared" si="170"/>
-        <v>33.550000000000004</v>
-      </c>
-      <c r="O76" s="12">
+        <v>47.699999999999982</v>
+      </c>
+      <c r="S76" s="12">
         <f t="shared" si="170"/>
-        <v>-656.66099999999994</v>
-      </c>
-      <c r="P76" s="12">
+        <v>-60.199999999999996</v>
+      </c>
+      <c r="T76" s="12">
         <f t="shared" si="170"/>
-        <v>-336.23500000000018</v>
-      </c>
-      <c r="Q76" s="12">
-        <f t="shared" ref="Q76:Y76" si="171">SUM(Q71:Q75)</f>
-        <v>-95.4</v>
-      </c>
-      <c r="R76" s="12">
-        <f t="shared" si="171"/>
-        <v>47.699999999999982</v>
-      </c>
-      <c r="S76" s="12">
-        <f t="shared" si="171"/>
-        <v>-60.199999999999996</v>
-      </c>
-      <c r="T76" s="12">
-        <f t="shared" si="171"/>
         <v>40.200000000000024</v>
       </c>
       <c r="U76" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>-294.70000000000005</v>
       </c>
       <c r="V76" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>17.300000000000018</v>
       </c>
       <c r="W76" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>-165.00000000000006</v>
       </c>
       <c r="X76" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>-119.80000000000005</v>
       </c>
       <c r="Y76" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>-357.5</v>
       </c>
       <c r="AC76" s="2">
-        <f t="shared" ref="AC76" si="172">SUM(AC71:AC75)</f>
+        <f t="shared" ref="AC76" si="171">SUM(AC71:AC75)</f>
         <v>-680.40000000000009</v>
       </c>
     </row>
-    <row r="77" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>280</v>
       </c>
@@ -11721,7 +11713,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="78" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>279</v>
       </c>
@@ -11736,19 +11728,19 @@
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
       <c r="M78" s="12">
-        <f t="shared" ref="M78:P78" si="173">+M76+M77+M69+M64</f>
+        <f t="shared" ref="M78:P78" si="172">+M76+M77+M69+M64</f>
         <v>324.06200000000001</v>
       </c>
       <c r="N78" s="12">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>-241.83900000000006</v>
       </c>
       <c r="O78" s="12">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>209.14500000000032</v>
       </c>
       <c r="P78" s="12">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>519.83199999999977</v>
       </c>
       <c r="Q78" s="12">
@@ -11792,7 +11784,7 @@
         <v>113.19999999999982</v>
       </c>
     </row>
-    <row r="79" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
@@ -11813,7 +11805,7 @@
       <c r="T79" s="12"/>
       <c r="U79" s="12"/>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>343</v>
       </c>
@@ -11843,18 +11835,18 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -11865,7 +11857,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -11873,7 +11865,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -11881,7 +11873,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -11889,12 +11881,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>118</v>
       </c>
@@ -11902,7 +11894,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>191</v>
       </c>
@@ -11910,7 +11902,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>181</v>
       </c>
@@ -11918,7 +11910,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>183</v>
       </c>
@@ -11926,7 +11918,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>188</v>
       </c>
@@ -11934,7 +11926,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>190</v>
       </c>
@@ -11942,17 +11934,17 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C14" s="18" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>186</v>
       </c>
@@ -11972,18 +11964,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -11991,7 +11983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -11999,7 +11991,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>118</v>
       </c>
@@ -12021,18 +12013,18 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -12043,7 +12035,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -12051,7 +12043,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -12059,12 +12051,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -12072,7 +12064,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -12095,17 +12087,17 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -12113,12 +12105,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -12126,7 +12118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>90</v>
       </c>
@@ -12134,7 +12126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -12157,18 +12149,18 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -12176,7 +12168,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -12184,7 +12176,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -12192,7 +12184,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -12200,7 +12192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -12208,7 +12200,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>131</v>
       </c>
@@ -12216,7 +12208,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>118</v>
       </c>
@@ -12224,12 +12216,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>349</v>
       </c>
@@ -12237,17 +12229,17 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="C12" s="18" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>148</v>
       </c>
@@ -12255,57 +12247,57 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C21" s="18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C24" s="18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C26" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C28" s="18" t="s">
         <v>154</v>
       </c>
@@ -12325,18 +12317,18 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -12344,7 +12336,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -12352,7 +12344,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -12360,7 +12352,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -12368,7 +12360,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>131</v>
       </c>
@@ -12376,47 +12368,47 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C8" s="18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>330</v>
       </c>
@@ -12435,18 +12427,18 @@
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -12454,7 +12446,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -12462,7 +12454,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -12470,32 +12462,32 @@
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="18" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="18" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>391</v>
       </c>

--- a/VRTX.xlsx
+++ b/VRTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5B8BD8-EB60-4AA8-8694-F7E89134A1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9B7D9A-E9FB-4944-B830-ADFB13126A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50750" yWindow="1660" windowWidth="25050" windowHeight="15270" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
+    <workbookView xWindow="42170" yWindow="2090" windowWidth="31080" windowHeight="16810" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={316D5915-EBB2-4710-A5B4-E7BA638A6A3F}</author>
+    <author>tc={B1FDD252-23E6-4597-81CB-94BE01382710}</author>
     <author>tc={40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}</author>
     <author>tc={1C045D63-D9FC-44DC-A757-A0BD3F5361CF}</author>
     <author>tc={A817ED1C-3C73-4078-9612-0D873ED4026B}</author>
@@ -66,7 +67,15 @@
     Available in early March</t>
       </text>
     </comment>
-    <comment ref="AP15" authorId="1" shapeId="0" xr:uid="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
+    <comment ref="AE7" authorId="1" shapeId="0" xr:uid="{B1FDD252-23E6-4597-81CB-94BE01382710}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    39 transfusions to date, 10 in Q3</t>
+      </text>
+    </comment>
+    <comment ref="AT15" authorId="2" shapeId="0" xr:uid="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -76,7 +85,7 @@
 Q322: increases full year product guidance to 8.8-8.9B</t>
       </text>
     </comment>
-    <comment ref="AR15" authorId="2" shapeId="0" xr:uid="{1C045D63-D9FC-44DC-A757-A0BD3F5361CF}">
+    <comment ref="AV15" authorId="3" shapeId="0" xr:uid="{1C045D63-D9FC-44DC-A757-A0BD3F5361CF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -85,12 +94,13 @@
 Q423: Product 10.55-10.75</t>
       </text>
     </comment>
-    <comment ref="AS15" authorId="3" shapeId="0" xr:uid="{A817ED1C-3C73-4078-9612-0D873ED4026B}">
+    <comment ref="AW15" authorId="4" shapeId="0" xr:uid="{A817ED1C-3C73-4078-9612-0D873ED4026B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Q125: raised to 11.85-12.0B
+    Q325: raised to 11.9-12.0B
+Q125: raised to 11.85-12.0B
 Q424: 11.75-12.0B</t>
       </text>
     </comment>
@@ -99,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="411">
   <si>
     <t>Price</t>
   </si>
@@ -224,15 +234,9 @@
     <t>APOL1 FSGS</t>
   </si>
   <si>
-    <t>II/III</t>
-  </si>
-  <si>
     <t>SCD/TDT</t>
   </si>
   <si>
-    <t>III</t>
-  </si>
-  <si>
     <t>MRNA</t>
   </si>
   <si>
@@ -524,9 +528,6 @@
     <t>beta-thalassemia, sickle cell disease</t>
   </si>
   <si>
-    <t>myeloablative conditioning followed by autologous SCT</t>
-  </si>
-  <si>
     <t xml:space="preserve">    2/44 had -75% and -98% reductions in transfusion volume</t>
   </si>
   <si>
@@ -1193,9 +1194,6 @@
     <t>vanzacaftor, deutivacaftor; Alyftrek (deutivacaftor, tezacaftor, vanzacaftor)</t>
   </si>
   <si>
-    <t>IGaN</t>
-  </si>
-  <si>
     <t>APRIL/BRAF</t>
   </si>
   <si>
@@ -1244,9 +1242,6 @@
     <t>CF</t>
   </si>
   <si>
-    <t>PC, YE25 IND</t>
-  </si>
-  <si>
     <t>VX-973</t>
   </si>
   <si>
@@ -1265,21 +1260,9 @@
     <t>IgAN, pMN, LN, AAV</t>
   </si>
   <si>
-    <t>Phase III "RAINER"</t>
-  </si>
-  <si>
-    <t>ALPN</t>
-  </si>
-  <si>
-    <t>Phase II "RUBY-3"</t>
-  </si>
-  <si>
     <t>UPCR -66% at 48 weeks</t>
   </si>
   <si>
-    <t>80mg vs. placebo</t>
-  </si>
-  <si>
     <t>interim analysis 2026</t>
   </si>
   <si>
@@ -1293,6 +1276,72 @@
   </si>
   <si>
     <t>$500/month</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
+  <si>
+    <t>III enrollment complete</t>
+  </si>
+  <si>
+    <t>IGaN, MN</t>
+  </si>
+  <si>
+    <t>myeloablative conditioning followed by autologous SCT of ex-vivo treated cells</t>
+  </si>
+  <si>
+    <t>I/II</t>
+  </si>
+  <si>
+    <t>Phase III DPN</t>
+  </si>
+  <si>
+    <t>two Phase 3 trials, data in 2027</t>
+  </si>
+  <si>
+    <t>Manufacturing issue?</t>
+  </si>
+  <si>
+    <t>II/III 48 week data YE26</t>
+  </si>
+  <si>
+    <t>II single arm study initiated</t>
+  </si>
+  <si>
+    <t>oligo+peptide</t>
+  </si>
+  <si>
+    <t>I/II data in 1H26</t>
+  </si>
+  <si>
+    <t>also reported -64% in IGaN</t>
+  </si>
+  <si>
+    <t>UPCR -82% at 48 weeks for MN</t>
+  </si>
+  <si>
+    <t>Phase III "RAINER" IGaN</t>
+  </si>
+  <si>
+    <t>80mg vs. placebo, enrollment complete</t>
+  </si>
+  <si>
+    <t>11/8/25: RAINER-3 update.</t>
+  </si>
+  <si>
+    <t>Phase II "RUBY-3" n=21 IGaN, n=10 MN</t>
+  </si>
+  <si>
+    <t>Phase II/III "OLYMPUS" MN</t>
   </si>
 </sst>
 </file>
@@ -1531,14 +1580,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>36378</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>61778</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>36378</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>61778</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>140368</xdr:rowOff>
     </xdr:to>
@@ -1555,8 +1604,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17861735" y="0"/>
-          <a:ext cx="0" cy="14182939"/>
+          <a:off x="19438349" y="0"/>
+          <a:ext cx="0" cy="14204711"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1581,13 +1630,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>8666</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>10456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>8666</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>145166</xdr:rowOff>
@@ -2329,17 +2378,21 @@
   <threadedComment ref="AC4" dT="2025-05-09T02:31:46.83" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{316D5915-EBB2-4710-A5B4-E7BA638A6A3F}">
     <text>Available in early March</text>
   </threadedComment>
-  <threadedComment ref="AP15" dT="2022-07-21T11:22:03.36" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
+  <threadedComment ref="AE7" dT="2025-11-10T18:34:21.09" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{B1FDD252-23E6-4597-81CB-94BE01382710}">
+    <text>39 transfusions to date, 10 in Q3</text>
+  </threadedComment>
+  <threadedComment ref="AT15" dT="2022-07-21T11:22:03.36" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
     <text>Q122: reiterates 8.4-8.6B guidance
 Q222: increases to 8.6-8.8B
 Q322: increases full year product guidance to 8.8-8.9B</text>
   </threadedComment>
-  <threadedComment ref="AR15" dT="2024-05-23T16:04:58.44" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{1C045D63-D9FC-44DC-A757-A0BD3F5361CF}">
+  <threadedComment ref="AV15" dT="2024-05-23T16:04:58.44" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{1C045D63-D9FC-44DC-A757-A0BD3F5361CF}">
     <text>Q124: Product 10.55-10.75, reiterated from last quarter
 Q423: Product 10.55-10.75</text>
   </threadedComment>
-  <threadedComment ref="AS15" dT="2025-05-09T00:54:14.43" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{A817ED1C-3C73-4078-9612-0D873ED4026B}">
-    <text>Q125: raised to 11.85-12.0B
+  <threadedComment ref="AW15" dT="2025-05-09T00:54:14.43" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{A817ED1C-3C73-4078-9612-0D873ED4026B}">
+    <text>Q325: raised to 11.9-12.0B
+Q125: raised to 11.85-12.0B
 Q424: 11.75-12.0B</text>
   </threadedComment>
 </ThreadedComments>
@@ -2347,9 +2400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE714A94-C7D9-4203-913D-E82693A2B152}">
-  <dimension ref="B2:N51"/>
+  <dimension ref="B2:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2390,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
@@ -2398,7 +2453,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -2407,7 +2462,7 @@
         <v>43759</v>
       </c>
       <c r="G3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>38</v>
@@ -2416,10 +2471,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>256.79718700000001</v>
+        <v>258</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -2427,7 +2482,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -2436,7 +2491,7 @@
         <v>43446</v>
       </c>
       <c r="G4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>38</v>
@@ -2446,7 +2501,7 @@
       </c>
       <c r="M4" s="2">
         <f>+M3*M2</f>
-        <v>102718.87480000001</v>
+        <v>106554</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -2455,13 +2510,13 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>38</v>
@@ -2470,10 +2525,10 @@
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <v>11358</v>
+        <v>12010</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -2493,7 +2548,7 @@
         <v>40939</v>
       </c>
       <c r="G6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>19</v>
@@ -2505,24 +2560,21 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>37</v>
@@ -2532,16 +2584,16 @@
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>91360.874800000005</v>
+        <v>94544</v>
       </c>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -2553,16 +2605,16 @@
     </row>
     <row r="9" spans="2:14" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="28" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F9" s="26"/>
       <c r="H9" s="8"/>
@@ -2583,362 +2635,373 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>400</v>
       </c>
       <c r="H11" s="8"/>
       <c r="J11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>386</v>
+      <c r="B12" s="16" t="s">
+        <v>381</v>
       </c>
       <c r="C12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D12" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="E12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>393</v>
       </c>
       <c r="H12" s="8"/>
       <c r="J12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
-        <v>384</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
       </c>
       <c r="H13" s="8"/>
       <c r="J13" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>396</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H15" s="8"/>
       <c r="J15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H16" s="8"/>
       <c r="J16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D19" t="s">
-        <v>332</v>
+        <v>329</v>
+      </c>
+      <c r="E19" t="s">
+        <v>402</v>
+      </c>
+      <c r="F19" t="s">
+        <v>403</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D20" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>381</v>
+        <v>102</v>
       </c>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D21" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>401</v>
       </c>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
     </row>
     <row r="26" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E29" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E30" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E31" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E32" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E33" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E34" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E35" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E36" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E37" s="17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E38" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E39" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E40" s="17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E41" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E42" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E43" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E44" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E45" s="17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E46" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E47" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E48" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E49" s="17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E51" s="17" t="s">
-        <v>366</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E54" s="17" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -2953,6 +3016,7 @@
     <hyperlink ref="B24" location="'VX-634'!A1" display="VX-634" xr:uid="{28A7C8E1-14DE-4193-86D6-B95B3E551AF5}"/>
     <hyperlink ref="B8" location="Alyftrek!A1" display="Alyftrek" xr:uid="{ECC6416F-1E64-4473-A6C6-D23E81B80E70}"/>
     <hyperlink ref="B9" location="'VX-548'!A1" display="VX-548" xr:uid="{67203671-9821-4D42-B3BF-32EA7ACD3A76}"/>
+    <hyperlink ref="B12" location="povetacicept!A1" display="ALPN-303" xr:uid="{E8DF8A0B-F5F3-4133-992E-15093D7ABE34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2982,7 +3046,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H2" s="20"/>
       <c r="N2" s="8"/>
@@ -2992,7 +3056,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3005,35 +3069,35 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="C14" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3046,9 +3110,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AB47AF-768E-4B06-9E84-BC4ABCFB8ABD}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3057,220 +3123,230 @@
     <col min="3" max="3" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C10" s="18" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="C10" s="18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="C14" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="C15" s="18"/>
-      <c r="D15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>234</v>
-      </c>
-      <c r="D16" s="22">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" s="22">
-        <v>137.80000000000001</v>
-      </c>
-      <c r="E17" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C13" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="C17" s="18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D18" s="22">
-        <v>86.9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>242</v>
+    <row r="18" spans="3:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="C18" s="18"/>
+      <c r="D18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D19" s="22">
-        <v>112.9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>242</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="22">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="22">
+        <v>86.9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="22">
+        <v>112.9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="22">
+        <v>115.6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="3:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="C26" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="D20" s="22">
-        <v>115.6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="22"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="3:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="C23" s="18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25">
-        <v>72.7</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>236</v>
-      </c>
-      <c r="D26">
-        <v>110.5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>238</v>
-      </c>
-      <c r="D27">
-        <v>95.1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>242</v>
+      <c r="D27" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D28">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D29">
+        <v>110.5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30">
+        <v>95.1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31">
         <v>85.2</v>
       </c>
-      <c r="E28" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="C30" s="18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="C32" s="18" t="s">
-        <v>327</v>
+      <c r="E31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C33" s="18" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C35" s="18" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>339</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C38" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3304,7 +3380,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3317,25 +3393,25 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="18" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3376,7 +3452,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3384,7 +3460,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3392,27 +3468,27 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="18" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3446,7 +3522,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3454,15 +3530,15 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3493,28 +3569,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
       <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3522,13 +3598,13 @@
         <v>11390600</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
         <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -3540,7 +3616,7 @@
         <v>44761</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3548,13 +3624,13 @@
         <v>11370798</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3566,7 +3642,7 @@
         <v>44740</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3574,13 +3650,13 @@
         <v>11369692</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3592,7 +3668,7 @@
         <v>44740</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3600,13 +3676,13 @@
         <v>11358977</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -3618,7 +3694,7 @@
         <v>44726</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3626,13 +3702,13 @@
         <v>11345700</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3644,7 +3720,7 @@
         <v>44712</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3652,13 +3728,13 @@
         <v>11291662</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -3678,13 +3754,13 @@
         <v>11268077</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3696,7 +3772,7 @@
         <v>44628</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3704,13 +3780,13 @@
         <v>11253509</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -3727,13 +3803,13 @@
         <v>11203571</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -3745,7 +3821,7 @@
         <v>44551</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3753,13 +3829,13 @@
         <v>11186566</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -3771,7 +3847,7 @@
         <v>44530</v>
       </c>
       <c r="I12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3779,13 +3855,13 @@
         <v>11179394</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -3797,7 +3873,7 @@
         <v>44523</v>
       </c>
       <c r="I13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3805,13 +3881,13 @@
         <v>11179367</v>
       </c>
       <c r="C14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -3823,7 +3899,7 @@
         <v>44523</v>
       </c>
       <c r="I14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3831,13 +3907,13 @@
         <v>11155533</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3849,7 +3925,7 @@
         <v>44495</v>
       </c>
       <c r="I15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3857,13 +3933,13 @@
         <v>11147770</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -3875,7 +3951,7 @@
         <v>44488</v>
       </c>
       <c r="I16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -3883,13 +3959,13 @@
         <v>11124805</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F17">
         <v>7</v>
@@ -3901,7 +3977,7 @@
         <v>44460</v>
       </c>
       <c r="I17" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -3909,13 +3985,13 @@
         <v>11117900</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3932,13 +4008,13 @@
         <v>11110108</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3955,13 +4031,13 @@
         <v>11110086</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -3978,13 +4054,13 @@
         <v>11084804</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -3996,7 +4072,7 @@
         <v>44418</v>
       </c>
       <c r="I21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -4004,13 +4080,13 @@
         <v>11066417</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -4027,13 +4103,13 @@
         <v>11059826</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -4045,7 +4121,7 @@
         <v>44390</v>
       </c>
       <c r="I23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -4053,13 +4129,13 @@
         <v>11052075</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G24" s="15">
         <v>43679</v>
@@ -4068,7 +4144,7 @@
         <v>44383</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4115,21 +4191,21 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
         <v>97</v>
       </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F3" s="15">
         <v>40686</v>
@@ -4137,13 +4213,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
         <v>109</v>
-      </c>
-      <c r="D4" t="s">
-        <v>111</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -4154,10 +4230,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -4168,7 +4244,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -4181,75 +4257,75 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
         <v>105</v>
       </c>
-      <c r="D9" t="s">
-        <v>107</v>
-      </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
         <v>69</v>
       </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>71</v>
-      </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
         <v>102</v>
-      </c>
-      <c r="D13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4262,13 +4338,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E8267B-C4D8-4F55-9938-4004F5DC3025}">
-  <dimension ref="A1:DP80"/>
+  <dimension ref="A1:DT80"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BB25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BK32" sqref="BK32"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4276,32 +4352,35 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.453125" customWidth="1"/>
     <col min="3" max="21" width="9.1796875" style="3"/>
-    <col min="58" max="58" width="8.7265625" customWidth="1"/>
+    <col min="25" max="28" width="7.6328125" customWidth="1"/>
+    <col min="29" max="32" width="7.7265625" customWidth="1"/>
+    <col min="33" max="36" width="8" customWidth="1"/>
+    <col min="62" max="62" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>25</v>
@@ -4340,209 +4419,221 @@
         <v>35</v>
       </c>
       <c r="U2" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>293</v>
-      </c>
       <c r="Y2" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="AC2" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF2" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="AD2" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="AG2" s="3"/>
-      <c r="AI2">
+      <c r="AG2" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="AK2" s="3"/>
+      <c r="AM2">
         <v>2015</v>
       </c>
-      <c r="AJ2">
-        <f>+AI2+1</f>
+      <c r="AN2">
+        <f>+AM2+1</f>
         <v>2016</v>
       </c>
-      <c r="AK2">
-        <f t="shared" ref="AK2:BC2" si="0">+AJ2+1</f>
+      <c r="AO2">
+        <f t="shared" ref="AO2:BG2" si="0">+AN2+1</f>
         <v>2017</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AM2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AN2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AO2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AP2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AQ2">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AR2">
+      <c r="AV2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AS2">
+      <c r="AW2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AT2">
+      <c r="AX2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AU2">
+      <c r="AY2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AV2">
+      <c r="AZ2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AW2">
+      <c r="BA2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AX2">
+      <c r="BB2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AY2">
+      <c r="BC2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AZ2">
+      <c r="BD2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="BA2">
+      <c r="BE2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="BB2">
+      <c r="BF2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="BC2">
+      <c r="BG2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="BD2">
-        <f t="shared" ref="BD2" si="1">+BC2+1</f>
+      <c r="BH2">
+        <f t="shared" ref="BH2" si="1">+BG2+1</f>
         <v>2036</v>
       </c>
-      <c r="BE2">
-        <f t="shared" ref="BE2" si="2">+BD2+1</f>
+      <c r="BI2">
+        <f t="shared" ref="BI2" si="2">+BH2+1</f>
         <v>2037</v>
       </c>
-      <c r="BF2">
-        <f t="shared" ref="BF2" si="3">+BE2+1</f>
+      <c r="BJ2">
+        <f t="shared" ref="BJ2" si="3">+BI2+1</f>
         <v>2038</v>
       </c>
-      <c r="BG2">
-        <f t="shared" ref="BG2" si="4">+BF2+1</f>
+      <c r="BK2">
+        <f t="shared" ref="BK2" si="4">+BJ2+1</f>
         <v>2039</v>
       </c>
-      <c r="BH2">
-        <f t="shared" ref="BH2" si="5">+BG2+1</f>
+      <c r="BL2">
+        <f t="shared" ref="BL2" si="5">+BK2+1</f>
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT3" s="2">
+        <v>47</v>
+      </c>
+      <c r="AX3" s="2">
         <v>200</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AY3" s="2">
         <v>800</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="AZ3" s="2">
         <v>1200</v>
       </c>
-      <c r="AW3" s="2">
+      <c r="BA3" s="2">
         <v>1400</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="BB3" s="2">
         <v>1600</v>
       </c>
-      <c r="AY3" s="2">
-        <f>+AX3*1.01</f>
+      <c r="BC3" s="2">
+        <f>+BB3*1.01</f>
         <v>1616</v>
       </c>
-      <c r="AZ3" s="2">
-        <f t="shared" ref="AZ3:BC5" si="6">+AY3*1.01</f>
+      <c r="BD3" s="2">
+        <f t="shared" ref="BD3:BG5" si="6">+BC3*1.01</f>
         <v>1632.16</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="BE3" s="2">
         <f t="shared" si="6"/>
         <v>1648.4816000000001</v>
       </c>
-      <c r="BB3" s="2">
+      <c r="BF3" s="2">
         <f t="shared" si="6"/>
         <v>1664.966416</v>
       </c>
-      <c r="BC3" s="2">
+      <c r="BG3" s="2">
         <f t="shared" si="6"/>
         <v>1681.6160801599999</v>
       </c>
-      <c r="BD3" s="2">
-        <f t="shared" ref="BD3:BD5" si="7">+BC3*1.01</f>
+      <c r="BH3" s="2">
+        <f t="shared" ref="BH3:BH5" si="7">+BG3*1.01</f>
         <v>1698.4322409616</v>
       </c>
-      <c r="BE3" s="2">
-        <f t="shared" ref="BE3:BE5" si="8">+BD3*1.01</f>
+      <c r="BI3" s="2">
+        <f t="shared" ref="BI3:BI5" si="8">+BH3*1.01</f>
         <v>1715.4165633712159</v>
       </c>
-      <c r="BF3" s="2">
-        <f t="shared" ref="BF3:BF5" si="9">+BE3*1.01</f>
+      <c r="BJ3" s="2">
+        <f t="shared" ref="BJ3:BJ5" si="9">+BI3*1.01</f>
         <v>1732.5707290049281</v>
       </c>
-      <c r="BG3" s="2">
-        <f t="shared" ref="BG3:BG5" si="10">+BF3*1.01</f>
+      <c r="BK3" s="2">
+        <f t="shared" ref="BK3:BK5" si="10">+BJ3*1.01</f>
         <v>1749.8964362949773</v>
       </c>
-      <c r="BH3" s="2">
-        <f t="shared" ref="BH3" si="11">+BG3*1.01</f>
+      <c r="BL3" s="2">
+        <f t="shared" ref="BL3" si="11">+BK3*1.01</f>
         <v>1767.3954006579272</v>
       </c>
     </row>
-    <row r="4" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -4570,75 +4661,75 @@
         <v>12</v>
       </c>
       <c r="AE4" s="2">
-        <v>25</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AF4" s="2">
         <v>50</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AW4" s="2">
         <f>SUM(AC4:AF4)</f>
-        <v>87</v>
-      </c>
-      <c r="AT4" s="2">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="AX4" s="2">
         <v>200</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AY4" s="2">
         <v>400</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AZ4" s="2">
         <v>600</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="BA4" s="2">
         <v>800</v>
       </c>
-      <c r="AX4" s="2">
-        <f>+AW4*1.01</f>
+      <c r="BB4" s="2">
+        <f>+BA4*1.01</f>
         <v>808</v>
       </c>
-      <c r="AY4" s="2">
-        <f>+AX4*1.01</f>
+      <c r="BC4" s="2">
+        <f>+BB4*1.01</f>
         <v>816.08</v>
       </c>
-      <c r="AZ4" s="2">
-        <f t="shared" ref="AZ4:BB5" si="12">+AY4*1.01</f>
+      <c r="BD4" s="2">
+        <f t="shared" ref="BD4:BF5" si="12">+BC4*1.01</f>
         <v>824.24080000000004</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BE4" s="2">
         <f t="shared" si="12"/>
         <v>832.48320799999999</v>
       </c>
-      <c r="BB4" s="2">
+      <c r="BF4" s="2">
         <f t="shared" si="12"/>
         <v>840.80804007999996</v>
       </c>
-      <c r="BC4" s="2">
+      <c r="BG4" s="2">
         <f t="shared" si="6"/>
         <v>849.21612048079999</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BH4" s="2">
         <f t="shared" si="7"/>
         <v>857.70828168560797</v>
       </c>
-      <c r="BE4" s="2">
+      <c r="BI4" s="2">
         <f t="shared" si="8"/>
         <v>866.28536450246406</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BJ4" s="2">
         <f t="shared" si="9"/>
         <v>874.94821814748866</v>
       </c>
-      <c r="BG4" s="2">
+      <c r="BK4" s="2">
         <f t="shared" si="10"/>
         <v>883.69770032896361</v>
       </c>
-      <c r="BH4" s="2">
-        <f t="shared" ref="BH4" si="13">+BG4*0.1</f>
+      <c r="BL4" s="2">
+        <f t="shared" ref="BL4" si="13">+BK4*0.1</f>
         <v>88.369770032896369</v>
       </c>
     </row>
-    <row r="5" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -4659,64 +4750,64 @@
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
-      <c r="AT5" s="2">
+      <c r="AX5" s="2">
         <v>300</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="AY5" s="2">
         <v>500</v>
       </c>
-      <c r="AV5" s="2">
+      <c r="AZ5" s="2">
         <v>700</v>
       </c>
-      <c r="AW5" s="2">
+      <c r="BA5" s="2">
         <v>900</v>
       </c>
-      <c r="AX5" s="2">
-        <f>+AW5*1.01</f>
+      <c r="BB5" s="2">
+        <f>+BA5*1.01</f>
         <v>909</v>
       </c>
-      <c r="AY5" s="2">
-        <f t="shared" ref="AY5" si="14">+AX5*1.01</f>
+      <c r="BC5" s="2">
+        <f t="shared" ref="BC5" si="14">+BB5*1.01</f>
         <v>918.09</v>
       </c>
-      <c r="AZ5" s="2">
+      <c r="BD5" s="2">
         <f t="shared" si="12"/>
         <v>927.2709000000001</v>
       </c>
-      <c r="BA5" s="2">
+      <c r="BE5" s="2">
         <f t="shared" si="12"/>
         <v>936.54360900000006</v>
       </c>
-      <c r="BB5" s="2">
+      <c r="BF5" s="2">
         <f t="shared" si="12"/>
         <v>945.90904509000006</v>
       </c>
-      <c r="BC5" s="2">
+      <c r="BG5" s="2">
         <f t="shared" si="6"/>
         <v>955.36813554090008</v>
       </c>
-      <c r="BD5" s="2">
+      <c r="BH5" s="2">
         <f t="shared" si="7"/>
         <v>964.92181689630911</v>
       </c>
-      <c r="BE5" s="2">
+      <c r="BI5" s="2">
         <f t="shared" si="8"/>
         <v>974.57103506527221</v>
       </c>
-      <c r="BF5" s="2">
+      <c r="BJ5" s="2">
         <f t="shared" si="9"/>
         <v>984.31674541592497</v>
       </c>
-      <c r="BG5" s="2">
+      <c r="BK5" s="2">
         <f t="shared" si="10"/>
         <v>994.15991287008421</v>
       </c>
-      <c r="BH5" s="2">
-        <f t="shared" ref="BH5" si="15">+BG5*1.01</f>
+      <c r="BL5" s="2">
+        <f t="shared" ref="BL5" si="15">+BK5*1.01</f>
         <v>1004.1015119987851</v>
       </c>
     </row>
-    <row r="6" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
@@ -4740,9 +4831,9 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
     </row>
-    <row r="7" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4770,81 +4861,80 @@
         <v>30.4</v>
       </c>
       <c r="AE7" s="2">
-        <f>+AD7+5</f>
-        <v>35.4</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AF7" s="2">
         <f>+AE7+5</f>
-        <v>40.4</v>
-      </c>
-      <c r="AS7" s="2">
+        <v>21.9</v>
+      </c>
+      <c r="AW7" s="2">
         <f>SUM(AC7:AF7)</f>
-        <v>120.4</v>
-      </c>
-      <c r="AT7" s="2">
-        <f>+AS7*1.01</f>
-        <v>121.60400000000001</v>
-      </c>
-      <c r="AU7" s="2">
-        <f t="shared" ref="AU7:BH7" si="16">+AT7*1.01</f>
-        <v>122.82004000000002</v>
-      </c>
-      <c r="AV7" s="2">
-        <f t="shared" si="16"/>
-        <v>124.04824040000003</v>
-      </c>
-      <c r="AW7" s="2">
-        <f t="shared" si="16"/>
-        <v>125.28872280400003</v>
+        <v>83.399999999999991</v>
       </c>
       <c r="AX7" s="2">
-        <f t="shared" si="16"/>
-        <v>126.54161003204003</v>
+        <f>+AW7*1.01</f>
+        <v>84.233999999999995</v>
       </c>
       <c r="AY7" s="2">
-        <f t="shared" si="16"/>
-        <v>127.80702613236043</v>
+        <f t="shared" ref="AY7:BL7" si="16">+AX7*1.01</f>
+        <v>85.076340000000002</v>
       </c>
       <c r="AZ7" s="2">
         <f t="shared" si="16"/>
-        <v>129.08509639368404</v>
+        <v>85.927103400000007</v>
       </c>
       <c r="BA7" s="2">
         <f t="shared" si="16"/>
-        <v>130.37594735762087</v>
+        <v>86.78637443400001</v>
       </c>
       <c r="BB7" s="2">
         <f t="shared" si="16"/>
-        <v>131.67970683119708</v>
+        <v>87.654238178340009</v>
       </c>
       <c r="BC7" s="2">
         <f t="shared" si="16"/>
-        <v>132.99650389950907</v>
+        <v>88.530780560123404</v>
       </c>
       <c r="BD7" s="2">
         <f t="shared" si="16"/>
-        <v>134.32646893850415</v>
+        <v>89.416088365724633</v>
       </c>
       <c r="BE7" s="2">
         <f t="shared" si="16"/>
-        <v>135.6697336278892</v>
+        <v>90.310249249381883</v>
       </c>
       <c r="BF7" s="2">
         <f t="shared" si="16"/>
-        <v>137.0264309641681</v>
+        <v>91.213351741875698</v>
       </c>
       <c r="BG7" s="2">
         <f t="shared" si="16"/>
-        <v>138.39669527380977</v>
+        <v>92.12548525929445</v>
       </c>
       <c r="BH7" s="2">
         <f t="shared" si="16"/>
-        <v>139.78066222654786</v>
-      </c>
-    </row>
-    <row r="8" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>93.046740111887402</v>
+      </c>
+      <c r="BI7" s="2">
+        <f t="shared" si="16"/>
+        <v>93.977207513006277</v>
+      </c>
+      <c r="BJ7" s="2">
+        <f t="shared" si="16"/>
+        <v>94.916979588136343</v>
+      </c>
+      <c r="BK7" s="2">
+        <f t="shared" si="16"/>
+        <v>95.866149384017703</v>
+      </c>
+      <c r="BL7" s="2">
+        <f t="shared" si="16"/>
+        <v>96.824810877857885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12">
@@ -4878,10 +4968,18 @@
       <c r="AD8" s="2">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE8" s="2">
+        <f>175.8-AE7-AE4</f>
+        <v>139.30000000000001</v>
+      </c>
+      <c r="AF8" s="2">
+        <f>+AE8</f>
+        <v>139.30000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -4909,83 +5007,82 @@
         <v>156.80000000000001</v>
       </c>
       <c r="AE9" s="2">
-        <f>+AD9+200</f>
-        <v>356.8</v>
+        <v>247</v>
       </c>
       <c r="AF9" s="2">
-        <f>+AE9+200</f>
-        <v>556.79999999999995</v>
-      </c>
-      <c r="AR9" s="2">
-        <f t="shared" ref="AR9:AR14" si="17">SUM(Y9:AB9)</f>
+        <f>+AE9+50</f>
+        <v>297</v>
+      </c>
+      <c r="AV9" s="2">
+        <f t="shared" ref="AV9:AV14" si="17">SUM(Y9:AB9)</f>
         <v>0</v>
       </c>
-      <c r="AS9" s="2">
+      <c r="AW9" s="2">
         <f>SUM(AC9:AF9)</f>
-        <v>1124.3</v>
-      </c>
-      <c r="AT9" s="2">
-        <f>+AS9*1.8</f>
-        <v>2023.74</v>
-      </c>
-      <c r="AU9" s="2">
-        <f>+AT9*1.5</f>
-        <v>3035.61</v>
-      </c>
-      <c r="AV9" s="2">
-        <f>+AU9*1.5</f>
-        <v>4553.415</v>
-      </c>
-      <c r="AW9" s="2">
-        <f>+AV9*1.3</f>
-        <v>5919.4395000000004</v>
+        <v>754.7</v>
       </c>
       <c r="AX9" s="2">
-        <f>+AW9*1.3</f>
-        <v>7695.2713500000009</v>
+        <f>+AW9*1.8</f>
+        <v>1358.46</v>
       </c>
       <c r="AY9" s="2">
-        <f>+AX9*1.15</f>
-        <v>8849.5620524999995</v>
+        <f>+AX9*1.5</f>
+        <v>2037.69</v>
       </c>
       <c r="AZ9" s="2">
-        <f>+AY9*1.03</f>
-        <v>9115.0489140749996</v>
+        <f>+AY9*1.5</f>
+        <v>3056.5349999999999</v>
       </c>
       <c r="BA9" s="2">
-        <f t="shared" ref="BA9:BG9" si="18">+AZ9*1.03</f>
-        <v>9388.5003814972497</v>
+        <f>+AZ9*1.3</f>
+        <v>3973.4955</v>
       </c>
       <c r="BB9" s="2">
-        <f t="shared" si="18"/>
-        <v>9670.155392942168</v>
+        <f>+BA9*1.3</f>
+        <v>5165.5441499999997</v>
       </c>
       <c r="BC9" s="2">
-        <f t="shared" si="18"/>
-        <v>9960.2600547304337</v>
+        <f>+BB9*1.15</f>
+        <v>5940.3757724999996</v>
       </c>
       <c r="BD9" s="2">
-        <f t="shared" si="18"/>
-        <v>10259.067856372347</v>
+        <f>+BC9*1.03</f>
+        <v>6118.5870456749999</v>
       </c>
       <c r="BE9" s="2">
-        <f t="shared" si="18"/>
-        <v>10566.839892063517</v>
+        <f t="shared" ref="BE9:BK9" si="18">+BD9*1.03</f>
+        <v>6302.1446570452499</v>
       </c>
       <c r="BF9" s="2">
         <f t="shared" si="18"/>
-        <v>10883.845088825423</v>
+        <v>6491.208996756608</v>
       </c>
       <c r="BG9" s="2">
         <f t="shared" si="18"/>
-        <v>11210.360441490186</v>
+        <v>6685.9452666593061</v>
       </c>
       <c r="BH9" s="2">
-        <f>+BG9*0.5</f>
-        <v>5605.1802207450928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>6886.5236246590857</v>
+      </c>
+      <c r="BI9" s="2">
+        <f t="shared" si="18"/>
+        <v>7093.1193333988585</v>
+      </c>
+      <c r="BJ9" s="2">
+        <f t="shared" si="18"/>
+        <v>7305.9129134008244</v>
+      </c>
+      <c r="BK9" s="2">
+        <f t="shared" si="18"/>
+        <v>7525.090300802849</v>
+      </c>
+      <c r="BL9" s="2">
+        <f>+BK9*0.5</f>
+        <v>3762.5451504014245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -5074,95 +5171,94 @@
         <v>2551.1</v>
       </c>
       <c r="AE10" s="2">
-        <f>+AD10-180</f>
-        <v>2371.1</v>
+        <v>2653.6</v>
       </c>
       <c r="AF10" s="2">
-        <f>+AE10-180</f>
-        <v>2191.1</v>
-      </c>
-      <c r="AO10" s="2">
+        <f>+AB10</f>
+        <v>2720.8</v>
+      </c>
+      <c r="AS10" s="2">
         <f>SUM(M10:P10)</f>
         <v>5698.2</v>
       </c>
-      <c r="AP10" s="2">
-        <f t="shared" ref="AP10:AP12" si="19">SUM(Q10:T10)</f>
+      <c r="AT10" s="2">
+        <f t="shared" ref="AT10:AT12" si="19">SUM(Q10:T10)</f>
         <v>7687.1</v>
       </c>
-      <c r="AQ10" s="2">
+      <c r="AU10" s="2">
         <f>SUM(U10:X10)</f>
         <v>8944.7000000000007</v>
       </c>
-      <c r="AR10" s="2">
+      <c r="AV10" s="2">
         <f t="shared" si="17"/>
         <v>10238.599999999999</v>
       </c>
-      <c r="AS10" s="2">
+      <c r="AW10" s="2">
         <f>SUM(AC10:AF10)</f>
-        <v>9648.8000000000011</v>
-      </c>
-      <c r="AT10" s="2">
-        <f>+AS10-1000</f>
-        <v>8648.8000000000011</v>
-      </c>
-      <c r="AU10" s="2">
-        <f>+AT10-1200</f>
-        <v>7448.8000000000011</v>
-      </c>
-      <c r="AV10" s="2">
-        <f>+AU10-1800</f>
-        <v>5648.8000000000011</v>
-      </c>
-      <c r="AW10" s="2">
-        <f>+AV10-1600</f>
-        <v>4048.8000000000011</v>
+        <v>10461</v>
       </c>
       <c r="AX10" s="2">
-        <f>+AW10-2000</f>
-        <v>2048.8000000000011</v>
+        <f>+AW10-1000</f>
+        <v>9461</v>
       </c>
       <c r="AY10" s="2">
-        <f>+AX10-500</f>
-        <v>1548.8000000000011</v>
+        <f>+AX10-1200</f>
+        <v>8261</v>
       </c>
       <c r="AZ10" s="2">
-        <f>+AY10*0.8</f>
-        <v>1239.0400000000009</v>
+        <f>+AY10-1800</f>
+        <v>6461</v>
       </c>
       <c r="BA10" s="2">
-        <f t="shared" ref="BA10:BH10" si="20">+AZ10*0.8</f>
-        <v>991.23200000000077</v>
+        <f>+AZ10-1600</f>
+        <v>4861</v>
       </c>
       <c r="BB10" s="2">
-        <f t="shared" si="20"/>
-        <v>792.98560000000066</v>
+        <f>+BA10-2000</f>
+        <v>2861</v>
       </c>
       <c r="BC10" s="2">
-        <f t="shared" si="20"/>
-        <v>634.38848000000053</v>
+        <f>+BB10-500</f>
+        <v>2361</v>
       </c>
       <c r="BD10" s="2">
-        <f t="shared" si="20"/>
-        <v>507.51078400000046</v>
+        <f>+BC10*0.8</f>
+        <v>1888.8000000000002</v>
       </c>
       <c r="BE10" s="2">
-        <f t="shared" si="20"/>
-        <v>406.00862720000038</v>
+        <f t="shared" ref="BE10:BL10" si="20">+BD10*0.8</f>
+        <v>1511.0400000000002</v>
       </c>
       <c r="BF10" s="2">
         <f t="shared" si="20"/>
-        <v>324.8069017600003</v>
+        <v>1208.8320000000001</v>
       </c>
       <c r="BG10" s="2">
         <f t="shared" si="20"/>
-        <v>259.84552140800025</v>
+        <v>967.06560000000013</v>
       </c>
       <c r="BH10" s="2">
         <f t="shared" si="20"/>
-        <v>207.87641712640021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>773.6524800000002</v>
+      </c>
+      <c r="BI10" s="2">
+        <f t="shared" si="20"/>
+        <v>618.92198400000018</v>
+      </c>
+      <c r="BJ10" s="2">
+        <f t="shared" si="20"/>
+        <v>495.13758720000016</v>
+      </c>
+      <c r="BK10" s="2">
+        <f t="shared" si="20"/>
+        <v>396.11006976000016</v>
+      </c>
+      <c r="BL10" s="2">
+        <f t="shared" si="20"/>
+        <v>316.88805580800016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
@@ -5221,23 +5317,23 @@
         <v>34</v>
       </c>
       <c r="U11" s="12"/>
-      <c r="AO11" s="2">
-        <f t="shared" ref="AO11:AO16" si="21">SUM(M11:P11)</f>
+      <c r="AS11" s="2">
+        <f t="shared" ref="AS11:AS16" si="21">SUM(M11:P11)</f>
         <v>420.1</v>
       </c>
-      <c r="AP11" s="2">
+      <c r="AT11" s="2">
         <f t="shared" si="19"/>
         <v>180</v>
       </c>
-      <c r="AQ11" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="AR11" s="2">
+      <c r="AU11" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="AV11" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -5296,25 +5392,25 @@
         <v>111</v>
       </c>
       <c r="U12" s="12"/>
-      <c r="AO12" s="2">
+      <c r="AS12" s="2">
         <f t="shared" si="21"/>
         <v>771.7</v>
       </c>
-      <c r="AP12" s="2">
+      <c r="AT12" s="2">
         <f t="shared" si="19"/>
         <v>511.29999999999995</v>
       </c>
-      <c r="AQ12" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="AR12" s="2">
+      <c r="AU12" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="AV12" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -5366,88 +5462,80 @@
         <f>236.1-AD7-AD4</f>
         <v>193.7</v>
       </c>
-      <c r="AE13" s="2">
-        <f>+AA13</f>
-        <v>186.9</v>
-      </c>
-      <c r="AF13" s="2">
-        <f>+AB13</f>
-        <v>191.2</v>
-      </c>
-      <c r="AQ13" s="2">
+      <c r="AU13" s="2">
         <f>SUM(U13:X13)</f>
         <v>924.6</v>
       </c>
-      <c r="AR13" s="2">
+      <c r="AV13" s="2">
         <f t="shared" si="17"/>
         <v>781.5</v>
       </c>
-      <c r="AS13" s="2">
+      <c r="AW13" s="2">
         <f>SUM(AC13:AF13)</f>
-        <v>738.40000000000009</v>
-      </c>
-      <c r="AT13" s="2">
-        <f>+AS13*1.01</f>
-        <v>745.78400000000011</v>
-      </c>
-      <c r="AU13" s="2">
-        <f t="shared" ref="AU13:BB13" si="22">+AT13*1.01</f>
-        <v>753.24184000000014</v>
-      </c>
-      <c r="AV13" s="2">
-        <f t="shared" si="22"/>
-        <v>760.77425840000012</v>
-      </c>
-      <c r="AW13" s="2">
-        <f t="shared" si="22"/>
-        <v>768.38200098400011</v>
+        <v>360.3</v>
       </c>
       <c r="AX13" s="2">
-        <f t="shared" si="22"/>
-        <v>776.06582099384013</v>
+        <f>+AW13*1.01</f>
+        <v>363.90300000000002</v>
       </c>
       <c r="AY13" s="2">
-        <f t="shared" si="22"/>
-        <v>783.82647920377849</v>
+        <f t="shared" ref="AY13:BF13" si="22">+AX13*1.01</f>
+        <v>367.54203000000001</v>
       </c>
       <c r="AZ13" s="2">
         <f t="shared" si="22"/>
-        <v>791.66474399581625</v>
+        <v>371.2174503</v>
       </c>
       <c r="BA13" s="2">
         <f t="shared" si="22"/>
-        <v>799.58139143577444</v>
+        <v>374.92962480300002</v>
       </c>
       <c r="BB13" s="2">
         <f t="shared" si="22"/>
-        <v>807.5772053501322</v>
+        <v>378.67892105103004</v>
       </c>
       <c r="BC13" s="2">
-        <f t="shared" ref="BC13:BH13" si="23">+BB13*0.5</f>
-        <v>403.7886026750661</v>
+        <f t="shared" si="22"/>
+        <v>382.46571026154032</v>
       </c>
       <c r="BD13" s="2">
-        <f t="shared" si="23"/>
-        <v>201.89430133753305</v>
+        <f t="shared" si="22"/>
+        <v>386.29036736415571</v>
       </c>
       <c r="BE13" s="2">
-        <f t="shared" si="23"/>
-        <v>100.94715066876653</v>
+        <f t="shared" si="22"/>
+        <v>390.15327103779725</v>
       </c>
       <c r="BF13" s="2">
-        <f t="shared" si="23"/>
-        <v>50.473575334383263</v>
+        <f t="shared" si="22"/>
+        <v>394.05480374817523</v>
       </c>
       <c r="BG13" s="2">
-        <f t="shared" si="23"/>
-        <v>25.236787667191631</v>
+        <f t="shared" ref="BG13:BL13" si="23">+BF13*0.5</f>
+        <v>197.02740187408762</v>
       </c>
       <c r="BH13" s="2">
         <f t="shared" si="23"/>
-        <v>12.618393833595816</v>
-      </c>
-    </row>
-    <row r="14" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>98.513700937043808</v>
+      </c>
+      <c r="BI13" s="2">
+        <f t="shared" si="23"/>
+        <v>49.256850468521904</v>
+      </c>
+      <c r="BJ13" s="2">
+        <f t="shared" si="23"/>
+        <v>24.628425234260952</v>
+      </c>
+      <c r="BK13" s="2">
+        <f t="shared" si="23"/>
+        <v>12.314212617130476</v>
+      </c>
+      <c r="BL13" s="2">
+        <f t="shared" si="23"/>
+        <v>6.157106308565238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -5506,23 +5594,23 @@
         <v>136</v>
       </c>
       <c r="U14" s="12"/>
-      <c r="AO14" s="2">
+      <c r="AS14" s="2">
         <f t="shared" si="21"/>
         <v>683.3</v>
       </c>
-      <c r="AP14" s="2">
+      <c r="AT14" s="2">
         <f>SUM(Q14:T14)</f>
         <v>553.4</v>
       </c>
-      <c r="AQ14" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="AR14" s="2">
+      <c r="AU14" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="AV14" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:60" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>24</v>
       </c>
@@ -5635,106 +5723,122 @@
         <v>2770.2</v>
       </c>
       <c r="AD15" s="14">
-        <f>SUM(AD3:AD14)</f>
+        <f t="shared" ref="AD15:AJ15" si="28">SUM(AD3:AD14)</f>
         <v>2964.7</v>
       </c>
       <c r="AE15" s="14">
-        <f>SUM(AE3:AE14)</f>
-        <v>2975.2</v>
+        <f t="shared" si="28"/>
+        <v>3076.4</v>
       </c>
       <c r="AF15" s="14">
-        <f>SUM(AF3:AF14)</f>
-        <v>3029.4999999999995</v>
-      </c>
-      <c r="AG15" s="14"/>
-      <c r="AN15" s="13">
-        <f t="shared" ref="AN15" si="28">SUM(AN10:AN14)</f>
+        <f t="shared" si="28"/>
+        <v>3229</v>
+      </c>
+      <c r="AG15" s="14">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AO15" s="13">
-        <f>SUM(AO10:AO14)</f>
+      <c r="AH15" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="14"/>
+      <c r="AR15" s="13">
+        <f t="shared" ref="AR15" si="29">SUM(AR10:AR14)</f>
+        <v>0</v>
+      </c>
+      <c r="AS15" s="13">
+        <f>SUM(AS10:AS14)</f>
         <v>7573.3</v>
       </c>
-      <c r="AP15" s="13">
-        <f>SUM(AP10:AP14)</f>
+      <c r="AT15" s="13">
+        <f>SUM(AT10:AT14)</f>
         <v>8931.7999999999993</v>
       </c>
-      <c r="AQ15" s="13">
-        <f t="shared" ref="AQ15:BC15" si="29">SUM(AQ3:AQ14)</f>
+      <c r="AU15" s="13">
+        <f t="shared" ref="AU15:BG15" si="30">SUM(AU3:AU14)</f>
         <v>9869.3000000000011</v>
       </c>
-      <c r="AR15" s="13">
-        <f t="shared" si="29"/>
+      <c r="AV15" s="13">
+        <f t="shared" si="30"/>
         <v>11020.099999999999</v>
       </c>
-      <c r="AS15" s="13">
-        <f t="shared" si="29"/>
-        <v>11718.900000000001</v>
-      </c>
-      <c r="AT15" s="13">
-        <f t="shared" si="29"/>
-        <v>12239.928</v>
-      </c>
-      <c r="AU15" s="13">
-        <f t="shared" si="29"/>
-        <v>13060.471880000003</v>
-      </c>
-      <c r="AV15" s="13">
-        <f t="shared" si="29"/>
-        <v>13587.037498800002</v>
-      </c>
       <c r="AW15" s="13">
-        <f t="shared" si="29"/>
-        <v>13961.910223788002</v>
+        <f t="shared" si="30"/>
+        <v>11741</v>
       </c>
       <c r="AX15" s="13">
-        <f t="shared" si="29"/>
-        <v>13963.678781025883</v>
+        <f t="shared" si="30"/>
+        <v>11967.597</v>
       </c>
       <c r="AY15" s="13">
-        <f t="shared" si="29"/>
-        <v>14660.165557836141</v>
+        <f t="shared" si="30"/>
+        <v>12451.308370000001</v>
       </c>
       <c r="AZ15" s="13">
-        <f t="shared" si="29"/>
-        <v>14658.510454464502</v>
+        <f t="shared" si="30"/>
+        <v>12474.6795537</v>
       </c>
       <c r="BA15" s="13">
-        <f t="shared" si="29"/>
-        <v>14727.198137290645</v>
+        <f t="shared" si="30"/>
+        <v>12396.211499237001</v>
       </c>
       <c r="BB15" s="13">
-        <f t="shared" si="29"/>
-        <v>14854.081406293497</v>
+        <f t="shared" si="30"/>
+        <v>11809.87730922937</v>
       </c>
       <c r="BC15" s="13">
-        <f t="shared" si="29"/>
-        <v>14617.63397748671</v>
+        <f t="shared" si="30"/>
+        <v>12122.542263321664</v>
       </c>
       <c r="BD15" s="13">
-        <f t="shared" ref="BD15:BH15" si="30">SUM(BD3:BD14)</f>
-        <v>14623.861750191902</v>
+        <f t="shared" si="30"/>
+        <v>11866.76520140488</v>
       </c>
       <c r="BE15" s="13">
         <f t="shared" si="30"/>
-        <v>14765.738366499125</v>
+        <v>11711.156594332431</v>
       </c>
       <c r="BF15" s="13">
         <f t="shared" si="30"/>
-        <v>14987.987689452317</v>
+        <v>11636.992653416659</v>
       </c>
       <c r="BG15" s="13">
         <f t="shared" si="30"/>
-        <v>15261.593495333213</v>
+        <v>11428.364089974388</v>
       </c>
       <c r="BH15" s="13">
-        <f t="shared" si="30"/>
-        <v>8825.3223766212468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="BH15:BL15" si="31">SUM(BH3:BH14)</f>
+        <v>11372.798885251535</v>
+      </c>
+      <c r="BI15" s="13">
+        <f t="shared" si="31"/>
+        <v>11411.548338319339</v>
+      </c>
+      <c r="BJ15" s="13">
+        <f t="shared" si="31"/>
+        <v>11512.431597991565</v>
+      </c>
+      <c r="BK15" s="13">
+        <f t="shared" si="31"/>
+        <v>11657.134782058021</v>
+      </c>
+      <c r="BL15" s="13">
+        <f t="shared" si="31"/>
+        <v>7042.2818060854561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="12">
         <v>111.255</v>
@@ -5821,136 +5925,135 @@
         <v>399.9</v>
       </c>
       <c r="AE16" s="2">
-        <f>+AE15-AE17</f>
-        <v>386.77599999999984</v>
+        <v>407</v>
       </c>
       <c r="AF16" s="2">
         <f>+AF15-AF17</f>
-        <v>393.83500000000004</v>
-      </c>
-      <c r="AO16" s="2">
+        <v>419.77</v>
+      </c>
+      <c r="AS16" s="2">
         <f t="shared" si="21"/>
         <v>904.21199999999999</v>
       </c>
-      <c r="AP16" s="2">
+      <c r="AT16" s="2">
         <f>SUM(Q16:T16)</f>
         <v>975.5</v>
       </c>
-      <c r="AQ16" s="2">
-        <f t="shared" ref="AQ16:AQ19" si="31">SUM(U16:X16)</f>
+      <c r="AU16" s="2">
+        <f t="shared" ref="AU16:AU19" si="32">SUM(U16:X16)</f>
         <v>1253</v>
       </c>
-      <c r="AR16" s="2">
-        <f t="shared" ref="AR16:AZ16" si="32">+AR15*0.07</f>
+      <c r="AV16" s="2">
+        <f t="shared" ref="AV16:BD16" si="33">+AV15*0.07</f>
         <v>771.40699999999993</v>
       </c>
-      <c r="AS16" s="2">
-        <f t="shared" si="32"/>
-        <v>820.32300000000021</v>
-      </c>
-      <c r="AT16" s="2">
-        <f t="shared" si="32"/>
-        <v>856.79496000000006</v>
-      </c>
-      <c r="AU16" s="2">
-        <f t="shared" si="32"/>
-        <v>914.23303160000023</v>
-      </c>
-      <c r="AV16" s="2">
-        <f t="shared" si="32"/>
-        <v>951.0926249160002</v>
-      </c>
       <c r="AW16" s="2">
-        <f t="shared" si="32"/>
-        <v>977.33371566516018</v>
+        <f t="shared" si="33"/>
+        <v>821.87000000000012</v>
       </c>
       <c r="AX16" s="2">
-        <f t="shared" si="32"/>
-        <v>977.45751467181185</v>
+        <f t="shared" si="33"/>
+        <v>837.73179000000005</v>
       </c>
       <c r="AY16" s="2">
-        <f t="shared" si="32"/>
-        <v>1026.21158904853</v>
+        <f t="shared" si="33"/>
+        <v>871.59158590000015</v>
       </c>
       <c r="AZ16" s="2">
-        <f t="shared" si="32"/>
-        <v>1026.0957318125152</v>
+        <f t="shared" si="33"/>
+        <v>873.22756875900006</v>
       </c>
       <c r="BA16" s="2">
-        <f t="shared" ref="BA16:BF16" si="33">+BA15*0.05</f>
-        <v>736.35990686453226</v>
+        <f t="shared" si="33"/>
+        <v>867.73480494659009</v>
       </c>
       <c r="BB16" s="2">
         <f t="shared" si="33"/>
-        <v>742.70407031467494</v>
+        <v>826.69141164605605</v>
       </c>
       <c r="BC16" s="2">
         <f t="shared" si="33"/>
-        <v>730.8816988743356</v>
+        <v>848.57795843251654</v>
       </c>
       <c r="BD16" s="2">
         <f t="shared" si="33"/>
-        <v>731.1930875095951</v>
+        <v>830.67356409834167</v>
       </c>
       <c r="BE16" s="2">
-        <f t="shared" si="33"/>
-        <v>738.28691832495633</v>
+        <f t="shared" ref="BE16:BJ16" si="34">+BE15*0.05</f>
+        <v>585.55782971662154</v>
       </c>
       <c r="BF16" s="2">
-        <f t="shared" si="33"/>
-        <v>749.39938447261591</v>
+        <f t="shared" si="34"/>
+        <v>581.84963267083299</v>
       </c>
       <c r="BG16" s="2">
-        <f>+BG15*0.05</f>
-        <v>763.07967476666067</v>
+        <f t="shared" si="34"/>
+        <v>571.41820449871943</v>
       </c>
       <c r="BH16" s="2">
-        <f t="shared" ref="BH16" si="34">+BH15*0.07</f>
-        <v>617.77256636348739</v>
-      </c>
-    </row>
-    <row r="17" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="34"/>
+        <v>568.63994426257682</v>
+      </c>
+      <c r="BI16" s="2">
+        <f t="shared" si="34"/>
+        <v>570.57741691596698</v>
+      </c>
+      <c r="BJ16" s="2">
+        <f t="shared" si="34"/>
+        <v>575.62157989957825</v>
+      </c>
+      <c r="BK16" s="2">
+        <f>+BK15*0.05</f>
+        <v>582.85673910290109</v>
+      </c>
+      <c r="BL16" s="2">
+        <f t="shared" ref="BL16" si="35">+BL15*0.07</f>
+        <v>492.95972642598196</v>
+      </c>
+    </row>
+    <row r="17" spans="2:124" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="12">
-        <f t="shared" ref="C17:J17" si="35">+C15-C16</f>
+        <f t="shared" ref="C17:J17" si="36">+C15-C16</f>
         <v>671.745</v>
       </c>
       <c r="D17" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>747.64400000000001</v>
       </c>
       <c r="E17" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>763.09</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>805.173</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>818.08600000000001</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1071.9880000000001</v>
       </c>
       <c r="I17" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1352.5029999999999</v>
       </c>
       <c r="J17" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1339.9</v>
       </c>
       <c r="K17" s="12">
-        <f t="shared" ref="K17:L17" si="36">+K15-K16</f>
+        <f t="shared" ref="K17:L17" si="37">+K15-K16</f>
         <v>1351.818</v>
       </c>
       <c r="L17" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1423.9</v>
       </c>
       <c r="M17" s="12">
@@ -5974,7 +6077,7 @@
         <v>1951.7</v>
       </c>
       <c r="R17" s="12">
-        <f t="shared" ref="R17:T17" si="37">+R15-R16</f>
+        <f t="shared" ref="R17:T17" si="38">+R15-R16</f>
         <v>1935.2</v>
       </c>
       <c r="S17" s="12">
@@ -5982,39 +6085,39 @@
         <v>2047.2999999999997</v>
       </c>
       <c r="T17" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>2022.1</v>
       </c>
       <c r="U17" s="12">
-        <f t="shared" ref="U17:AB17" si="38">+U15-U16</f>
+        <f t="shared" ref="U17:AB17" si="39">+U15-U16</f>
         <v>2109.7999999999997</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2186.4</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2166.6000000000004</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2153.5000000000005</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2354.7999999999997</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2280.6</v>
       </c>
       <c r="AA17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2386.2000000000003</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2495.6999999999998</v>
       </c>
       <c r="AC17" s="2">
@@ -6026,101 +6129,101 @@
         <v>2564.7999999999997</v>
       </c>
       <c r="AE17" s="2">
-        <f>+AE15*0.87</f>
-        <v>2588.424</v>
+        <f>+AE15-AE16</f>
+        <v>2669.4</v>
       </c>
       <c r="AF17" s="2">
         <f>+AF15*0.87</f>
-        <v>2635.6649999999995</v>
-      </c>
-      <c r="AN17" s="2">
-        <f t="shared" ref="AN17" si="39">+AN15-AN16</f>
+        <v>2809.23</v>
+      </c>
+      <c r="AR17" s="2">
+        <f t="shared" ref="AR17" si="40">+AR15-AR16</f>
         <v>0</v>
       </c>
-      <c r="AO17" s="2">
-        <f>+AO15-AO16</f>
+      <c r="AS17" s="2">
+        <f>+AS15-AS16</f>
         <v>6669.0879999999997</v>
       </c>
-      <c r="AP17" s="2">
-        <f>+AP15-AP16</f>
+      <c r="AT17" s="2">
+        <f>+AT15-AT16</f>
         <v>7956.2999999999993</v>
       </c>
-      <c r="AQ17" s="2">
-        <f>+AQ15-AQ16</f>
+      <c r="AU17" s="2">
+        <f>+AU15-AU16</f>
         <v>8616.3000000000011</v>
       </c>
-      <c r="AR17" s="2">
-        <f t="shared" ref="AR17:BC17" si="40">+AR15-AR16</f>
+      <c r="AV17" s="2">
+        <f t="shared" ref="AV17:BG17" si="41">+AV15-AV16</f>
         <v>10248.692999999999</v>
       </c>
-      <c r="AS17" s="2">
-        <f t="shared" si="40"/>
-        <v>10898.577000000001</v>
-      </c>
-      <c r="AT17" s="2">
-        <f t="shared" si="40"/>
-        <v>11383.133040000001</v>
-      </c>
-      <c r="AU17" s="2">
-        <f t="shared" si="40"/>
-        <v>12146.238848400002</v>
-      </c>
-      <c r="AV17" s="2">
-        <f t="shared" si="40"/>
-        <v>12635.944873884002</v>
-      </c>
       <c r="AW17" s="2">
-        <f t="shared" si="40"/>
-        <v>12984.576508122842</v>
+        <f t="shared" si="41"/>
+        <v>10919.13</v>
       </c>
       <c r="AX17" s="2">
-        <f t="shared" si="40"/>
-        <v>12986.22126635407</v>
+        <f t="shared" si="41"/>
+        <v>11129.86521</v>
       </c>
       <c r="AY17" s="2">
-        <f t="shared" si="40"/>
-        <v>13633.953968787611</v>
+        <f t="shared" si="41"/>
+        <v>11579.716784100001</v>
       </c>
       <c r="AZ17" s="2">
-        <f t="shared" si="40"/>
-        <v>13632.414722651987</v>
+        <f t="shared" si="41"/>
+        <v>11601.451984940999</v>
       </c>
       <c r="BA17" s="2">
-        <f t="shared" si="40"/>
-        <v>13990.838230426112</v>
+        <f t="shared" si="41"/>
+        <v>11528.47669429041</v>
       </c>
       <c r="BB17" s="2">
-        <f t="shared" si="40"/>
-        <v>14111.377335978821</v>
+        <f t="shared" si="41"/>
+        <v>10983.185897583315</v>
       </c>
       <c r="BC17" s="2">
-        <f t="shared" si="40"/>
-        <v>13886.752278612374</v>
+        <f t="shared" si="41"/>
+        <v>11273.964304889147</v>
       </c>
       <c r="BD17" s="2">
-        <f t="shared" ref="BD17:BH17" si="41">+BD15-BD16</f>
-        <v>13892.668662682307</v>
+        <f t="shared" si="41"/>
+        <v>11036.091637306537</v>
       </c>
       <c r="BE17" s="2">
         <f t="shared" si="41"/>
-        <v>14027.451448174168</v>
+        <v>11125.59876461581</v>
       </c>
       <c r="BF17" s="2">
         <f t="shared" si="41"/>
-        <v>14238.588304979701</v>
+        <v>11055.143020745825</v>
       </c>
       <c r="BG17" s="2">
         <f t="shared" si="41"/>
-        <v>14498.513820566552</v>
+        <v>10856.945885475669</v>
       </c>
       <c r="BH17" s="2">
-        <f t="shared" si="41"/>
-        <v>8207.5498102577585</v>
-      </c>
-    </row>
-    <row r="18" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="BH17:BL17" si="42">+BH15-BH16</f>
+        <v>10804.158940988958</v>
+      </c>
+      <c r="BI17" s="2">
+        <f t="shared" si="42"/>
+        <v>10840.970921403372</v>
+      </c>
+      <c r="BJ17" s="2">
+        <f t="shared" si="42"/>
+        <v>10936.810018091986</v>
+      </c>
+      <c r="BK17" s="2">
+        <f t="shared" si="42"/>
+        <v>11074.27804295512</v>
+      </c>
+      <c r="BL17" s="2">
+        <f t="shared" si="42"/>
+        <v>6549.3220796594742</v>
+      </c>
+    </row>
+    <row r="18" spans="2:124" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="12">
         <v>137.29499999999999</v>
@@ -6207,99 +6310,98 @@
         <v>359.4</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" ref="AE18:AE19" si="42">+AA18</f>
-        <v>300.10000000000002</v>
+        <v>369</v>
       </c>
       <c r="AF18" s="2">
         <f t="shared" ref="AF18:AF19" si="43">+AB18</f>
         <v>310.10000000000002</v>
       </c>
-      <c r="AN18" s="2">
+      <c r="AR18" s="2">
         <v>609</v>
       </c>
-      <c r="AO18" s="2">
+      <c r="AS18" s="2">
         <v>673</v>
       </c>
-      <c r="AP18" s="2">
-        <f t="shared" ref="AP18:AP19" si="44">SUM(Q18:T18)</f>
+      <c r="AT18" s="2">
+        <f t="shared" ref="AT18:AT19" si="44">SUM(Q18:T18)</f>
         <v>746.30000000000007</v>
       </c>
-      <c r="AQ18" s="2">
-        <f t="shared" si="31"/>
+      <c r="AU18" s="2">
+        <f t="shared" si="32"/>
         <v>917.80000000000007</v>
       </c>
-      <c r="AR18" s="2">
-        <f t="shared" ref="AR18:BC18" si="45">+AR15*0.1</f>
+      <c r="AV18" s="2">
+        <f t="shared" ref="AV18:BG18" si="45">+AV15*0.1</f>
         <v>1102.01</v>
-      </c>
-      <c r="AS18" s="2">
-        <f t="shared" si="45"/>
-        <v>1171.8900000000001</v>
-      </c>
-      <c r="AT18" s="2">
-        <f t="shared" si="45"/>
-        <v>1223.9928</v>
-      </c>
-      <c r="AU18" s="2">
-        <f t="shared" si="45"/>
-        <v>1306.0471880000005</v>
-      </c>
-      <c r="AV18" s="2">
-        <f t="shared" si="45"/>
-        <v>1358.7037498800003</v>
       </c>
       <c r="AW18" s="2">
         <f t="shared" si="45"/>
-        <v>1396.1910223788002</v>
+        <v>1174.1000000000001</v>
       </c>
       <c r="AX18" s="2">
         <f t="shared" si="45"/>
-        <v>1396.3678781025883</v>
+        <v>1196.7597000000001</v>
       </c>
       <c r="AY18" s="2">
         <f t="shared" si="45"/>
-        <v>1466.0165557836142</v>
+        <v>1245.1308370000002</v>
       </c>
       <c r="AZ18" s="2">
         <f t="shared" si="45"/>
-        <v>1465.8510454464504</v>
+        <v>1247.46795537</v>
       </c>
       <c r="BA18" s="2">
         <f t="shared" si="45"/>
-        <v>1472.7198137290645</v>
+        <v>1239.6211499237002</v>
       </c>
       <c r="BB18" s="2">
         <f t="shared" si="45"/>
-        <v>1485.4081406293499</v>
+        <v>1180.9877309229371</v>
       </c>
       <c r="BC18" s="2">
         <f t="shared" si="45"/>
-        <v>1461.7633977486712</v>
+        <v>1212.2542263321664</v>
       </c>
       <c r="BD18" s="2">
-        <f t="shared" ref="BD18:BH18" si="46">+BD15*0.1</f>
-        <v>1462.3861750191902</v>
+        <f t="shared" si="45"/>
+        <v>1186.676520140488</v>
       </c>
       <c r="BE18" s="2">
+        <f t="shared" si="45"/>
+        <v>1171.1156594332431</v>
+      </c>
+      <c r="BF18" s="2">
+        <f t="shared" si="45"/>
+        <v>1163.699265341666</v>
+      </c>
+      <c r="BG18" s="2">
+        <f t="shared" si="45"/>
+        <v>1142.8364089974389</v>
+      </c>
+      <c r="BH18" s="2">
+        <f t="shared" ref="BH18:BL18" si="46">+BH15*0.1</f>
+        <v>1137.2798885251536</v>
+      </c>
+      <c r="BI18" s="2">
         <f t="shared" si="46"/>
-        <v>1476.5738366499127</v>
-      </c>
-      <c r="BF18" s="2">
+        <v>1141.154833831934</v>
+      </c>
+      <c r="BJ18" s="2">
         <f t="shared" si="46"/>
-        <v>1498.7987689452318</v>
-      </c>
-      <c r="BG18" s="2">
+        <v>1151.2431597991565</v>
+      </c>
+      <c r="BK18" s="2">
         <f t="shared" si="46"/>
-        <v>1526.1593495333213</v>
-      </c>
-      <c r="BH18" s="2">
+        <v>1165.7134782058022</v>
+      </c>
+      <c r="BL18" s="2">
         <f t="shared" si="46"/>
-        <v>882.53223766212477</v>
-      </c>
-    </row>
-    <row r="19" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>704.2281806085457</v>
+      </c>
+    </row>
+    <row r="19" spans="2:124" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="12">
         <v>330.51</v>
@@ -6386,31 +6488,30 @@
         <v>878.1</v>
       </c>
       <c r="AE19" s="2">
-        <f t="shared" si="42"/>
-        <v>764</v>
+        <v>861.1</v>
       </c>
       <c r="AF19" s="2">
         <f t="shared" si="43"/>
         <v>899.8</v>
       </c>
-      <c r="AN19" s="2">
+      <c r="AR19" s="2">
         <v>1372</v>
       </c>
-      <c r="AO19" s="2">
+      <c r="AS19" s="2">
         <v>1658</v>
       </c>
-      <c r="AP19" s="2">
+      <c r="AT19" s="2">
         <f t="shared" si="44"/>
         <v>2206.5</v>
       </c>
-      <c r="AQ19" s="2">
-        <f t="shared" si="31"/>
+      <c r="AU19" s="2">
+        <f t="shared" si="32"/>
         <v>2796.7</v>
       </c>
     </row>
-    <row r="20" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:124" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="12">
         <f t="shared" ref="C20:D20" si="47">SUM(C18:C19)</f>
@@ -6526,101 +6627,105 @@
       </c>
       <c r="AE20" s="12">
         <f t="shared" si="56"/>
-        <v>1064.0999999999999</v>
+        <v>1230.0999999999999</v>
       </c>
       <c r="AF20" s="12">
         <f t="shared" si="56"/>
         <v>1209.9000000000001</v>
       </c>
       <c r="AG20" s="12"/>
-      <c r="AN20" s="12">
-        <f t="shared" ref="AN20:AP20" si="57">SUM(AN18:AN19)</f>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AR20" s="12">
+        <f t="shared" ref="AR20:AT20" si="57">SUM(AR18:AR19)</f>
         <v>1981</v>
       </c>
-      <c r="AO20" s="12">
+      <c r="AS20" s="12">
         <f t="shared" si="57"/>
         <v>2331</v>
       </c>
-      <c r="AP20" s="12">
+      <c r="AT20" s="12">
         <f t="shared" si="57"/>
         <v>2952.8</v>
       </c>
-      <c r="AQ20" s="12">
-        <f t="shared" ref="AQ20:BC20" si="58">SUM(AQ18:AQ19)</f>
+      <c r="AU20" s="12">
+        <f t="shared" ref="AU20:BG20" si="58">SUM(AU18:AU19)</f>
         <v>3714.5</v>
       </c>
-      <c r="AR20" s="12">
+      <c r="AV20" s="12">
         <f t="shared" si="58"/>
         <v>1102.01</v>
       </c>
-      <c r="AS20" s="12">
-        <f t="shared" si="58"/>
-        <v>1171.8900000000001</v>
-      </c>
-      <c r="AT20" s="12">
-        <f t="shared" si="58"/>
-        <v>1223.9928</v>
-      </c>
-      <c r="AU20" s="12">
-        <f t="shared" si="58"/>
-        <v>1306.0471880000005</v>
-      </c>
-      <c r="AV20" s="12">
-        <f t="shared" si="58"/>
-        <v>1358.7037498800003</v>
-      </c>
       <c r="AW20" s="12">
         <f t="shared" si="58"/>
-        <v>1396.1910223788002</v>
+        <v>1174.1000000000001</v>
       </c>
       <c r="AX20" s="12">
         <f t="shared" si="58"/>
-        <v>1396.3678781025883</v>
+        <v>1196.7597000000001</v>
       </c>
       <c r="AY20" s="12">
         <f t="shared" si="58"/>
-        <v>1466.0165557836142</v>
+        <v>1245.1308370000002</v>
       </c>
       <c r="AZ20" s="12">
         <f t="shared" si="58"/>
-        <v>1465.8510454464504</v>
+        <v>1247.46795537</v>
       </c>
       <c r="BA20" s="12">
         <f t="shared" si="58"/>
-        <v>1472.7198137290645</v>
+        <v>1239.6211499237002</v>
       </c>
       <c r="BB20" s="12">
         <f t="shared" si="58"/>
-        <v>1485.4081406293499</v>
+        <v>1180.9877309229371</v>
       </c>
       <c r="BC20" s="12">
         <f t="shared" si="58"/>
-        <v>1461.7633977486712</v>
+        <v>1212.2542263321664</v>
       </c>
       <c r="BD20" s="12">
-        <f t="shared" ref="BD20:BH20" si="59">SUM(BD18:BD19)</f>
-        <v>1462.3861750191902</v>
+        <f t="shared" si="58"/>
+        <v>1186.676520140488</v>
       </c>
       <c r="BE20" s="12">
+        <f t="shared" si="58"/>
+        <v>1171.1156594332431</v>
+      </c>
+      <c r="BF20" s="12">
+        <f t="shared" si="58"/>
+        <v>1163.699265341666</v>
+      </c>
+      <c r="BG20" s="12">
+        <f t="shared" si="58"/>
+        <v>1142.8364089974389</v>
+      </c>
+      <c r="BH20" s="12">
+        <f t="shared" ref="BH20:BL20" si="59">SUM(BH18:BH19)</f>
+        <v>1137.2798885251536</v>
+      </c>
+      <c r="BI20" s="12">
         <f t="shared" si="59"/>
-        <v>1476.5738366499127</v>
-      </c>
-      <c r="BF20" s="12">
+        <v>1141.154833831934</v>
+      </c>
+      <c r="BJ20" s="12">
         <f t="shared" si="59"/>
-        <v>1498.7987689452318</v>
-      </c>
-      <c r="BG20" s="12">
+        <v>1151.2431597991565</v>
+      </c>
+      <c r="BK20" s="12">
         <f t="shared" si="59"/>
-        <v>1526.1593495333213</v>
-      </c>
-      <c r="BH20" s="12">
+        <v>1165.7134782058022</v>
+      </c>
+      <c r="BL20" s="12">
         <f t="shared" si="59"/>
-        <v>882.53223766212477</v>
-      </c>
-    </row>
-    <row r="21" spans="2:120" x14ac:dyDescent="0.25">
+        <v>704.2281806085457</v>
+      </c>
+    </row>
+    <row r="21" spans="2:124" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="12">
         <f t="shared" ref="C21:D21" si="60">C17-C20</f>
@@ -6736,101 +6841,105 @@
       </c>
       <c r="AE21" s="12">
         <f t="shared" si="69"/>
-        <v>1524.3240000000001</v>
+        <v>1439.3000000000002</v>
       </c>
       <c r="AF21" s="12">
         <f t="shared" si="69"/>
-        <v>1425.7649999999994</v>
+        <v>1599.33</v>
       </c>
       <c r="AG21" s="12"/>
-      <c r="AN21" s="12">
-        <f t="shared" ref="AN21:AP21" si="70">AN17-AN20</f>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AR21" s="12">
+        <f t="shared" ref="AR21:AT21" si="70">AR17-AR20</f>
         <v>-1981</v>
       </c>
-      <c r="AO21" s="12">
+      <c r="AS21" s="12">
         <f t="shared" si="70"/>
         <v>4338.0879999999997</v>
       </c>
-      <c r="AP21" s="12">
+      <c r="AT21" s="12">
         <f t="shared" si="70"/>
         <v>5003.4999999999991</v>
       </c>
-      <c r="AQ21" s="12">
-        <f t="shared" ref="AQ21:BC21" si="71">AQ17-AQ20</f>
+      <c r="AU21" s="12">
+        <f t="shared" ref="AU21:BG21" si="71">AU17-AU20</f>
         <v>4901.8000000000011</v>
       </c>
-      <c r="AR21" s="12">
+      <c r="AV21" s="12">
         <f t="shared" si="71"/>
         <v>9146.6829999999991</v>
       </c>
-      <c r="AS21" s="12">
-        <f t="shared" si="71"/>
-        <v>9726.6870000000017</v>
-      </c>
-      <c r="AT21" s="12">
-        <f t="shared" si="71"/>
-        <v>10159.140240000001</v>
-      </c>
-      <c r="AU21" s="12">
-        <f t="shared" si="71"/>
-        <v>10840.191660400002</v>
-      </c>
-      <c r="AV21" s="12">
-        <f t="shared" si="71"/>
-        <v>11277.241124004002</v>
-      </c>
       <c r="AW21" s="12">
         <f t="shared" si="71"/>
-        <v>11588.385485744042</v>
+        <v>9745.0299999999988</v>
       </c>
       <c r="AX21" s="12">
         <f t="shared" si="71"/>
-        <v>11589.853388251482</v>
+        <v>9933.1055099999994</v>
       </c>
       <c r="AY21" s="12">
         <f t="shared" si="71"/>
-        <v>12167.937413003998</v>
+        <v>10334.5859471</v>
       </c>
       <c r="AZ21" s="12">
         <f t="shared" si="71"/>
-        <v>12166.563677205537</v>
+        <v>10353.984029570998</v>
       </c>
       <c r="BA21" s="12">
         <f t="shared" si="71"/>
-        <v>12518.118416697047</v>
+        <v>10288.85554436671</v>
       </c>
       <c r="BB21" s="12">
         <f t="shared" si="71"/>
-        <v>12625.969195349471</v>
+        <v>9802.198166660377</v>
       </c>
       <c r="BC21" s="12">
         <f t="shared" si="71"/>
-        <v>12424.988880863702</v>
+        <v>10061.71007855698</v>
       </c>
       <c r="BD21" s="12">
-        <f t="shared" ref="BD21:BH21" si="72">BD17-BD20</f>
-        <v>12430.282487663117</v>
+        <f t="shared" si="71"/>
+        <v>9849.4151171660487</v>
       </c>
       <c r="BE21" s="12">
+        <f t="shared" si="71"/>
+        <v>9954.4831051825677</v>
+      </c>
+      <c r="BF21" s="12">
+        <f t="shared" si="71"/>
+        <v>9891.4437554041597</v>
+      </c>
+      <c r="BG21" s="12">
+        <f t="shared" si="71"/>
+        <v>9714.1094764782301</v>
+      </c>
+      <c r="BH21" s="12">
+        <f t="shared" ref="BH21:BL21" si="72">BH17-BH20</f>
+        <v>9666.8790524638043</v>
+      </c>
+      <c r="BI21" s="12">
         <f t="shared" si="72"/>
-        <v>12550.877611524254</v>
-      </c>
-      <c r="BF21" s="12">
+        <v>9699.8160875714384</v>
+      </c>
+      <c r="BJ21" s="12">
         <f t="shared" si="72"/>
-        <v>12739.78953603447</v>
-      </c>
-      <c r="BG21" s="12">
+        <v>9785.5668582928301</v>
+      </c>
+      <c r="BK21" s="12">
         <f t="shared" si="72"/>
-        <v>12972.35447103323</v>
-      </c>
-      <c r="BH21" s="12">
+        <v>9908.5645647493184</v>
+      </c>
+      <c r="BL21" s="12">
         <f t="shared" si="72"/>
-        <v>7325.0175725956342</v>
-      </c>
-    </row>
-    <row r="22" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5845.0938990509285</v>
+      </c>
+    </row>
+    <row r="22" spans="2:124" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C22" s="12">
         <f>10.543-18.686</f>
@@ -6944,93 +7053,93 @@
         <v>7.8</v>
       </c>
       <c r="AE22" s="2">
-        <f>+AD22</f>
-        <v>7.8</v>
+        <f>125.7-3.3</f>
+        <v>122.4</v>
       </c>
       <c r="AF22" s="2">
         <f>+AE22</f>
-        <v>7.8</v>
-      </c>
-      <c r="AP22" s="2">
-        <f t="shared" ref="AP22:AP24" si="73">SUM(Q22:T22)</f>
+        <v>122.4</v>
+      </c>
+      <c r="AT22" s="2">
+        <f t="shared" ref="AT22:AT24" si="73">SUM(Q22:T22)</f>
         <v>89.6</v>
       </c>
-      <c r="AQ22" s="2">
+      <c r="AU22" s="2">
         <f>SUM(U22:X22)</f>
         <v>548</v>
       </c>
-      <c r="AR22" s="2">
-        <f t="shared" ref="AR22:BE22" si="74">+AQ34*$BK$32</f>
+      <c r="AV22" s="2">
+        <f t="shared" ref="AV22:BI22" si="74">+AU34*$BO$32</f>
         <v>411.48300000000006</v>
       </c>
-      <c r="AS22" s="2">
+      <c r="AW22" s="2">
         <f t="shared" si="74"/>
         <v>640.87898399999995</v>
       </c>
-      <c r="AT22" s="2">
-        <f t="shared" si="74"/>
-        <v>889.70056761600006</v>
-      </c>
-      <c r="AU22" s="2">
-        <f t="shared" si="74"/>
-        <v>1154.8727469987839</v>
-      </c>
-      <c r="AV22" s="2">
-        <f t="shared" si="74"/>
-        <v>1442.7542927763548</v>
-      </c>
-      <c r="AW22" s="2">
-        <f t="shared" si="74"/>
-        <v>1748.0341827790833</v>
-      </c>
       <c r="AX22" s="2">
         <f t="shared" si="74"/>
-        <v>2068.1082548236386</v>
+        <v>890.14079961599987</v>
       </c>
       <c r="AY22" s="2">
         <f t="shared" si="74"/>
-        <v>2395.8993342574413</v>
+        <v>1149.8987110467838</v>
       </c>
       <c r="AZ22" s="2">
         <f t="shared" si="74"/>
-        <v>2745.4314161917164</v>
+        <v>1425.5263428423066</v>
       </c>
       <c r="BA22" s="2">
         <f t="shared" si="74"/>
-        <v>3103.3192984332504</v>
+        <v>1708.2345917802261</v>
       </c>
       <c r="BB22" s="2">
         <f t="shared" si="74"/>
-        <v>3478.2338035963776</v>
+        <v>1996.1647550477526</v>
       </c>
       <c r="BC22" s="2">
         <f t="shared" si="74"/>
-        <v>3864.7346755710782</v>
+        <v>2279.3254651687475</v>
       </c>
       <c r="BD22" s="2">
         <f t="shared" si="74"/>
-        <v>4255.6880409255127</v>
+        <v>2575.5103182181647</v>
       </c>
       <c r="BE22" s="2">
         <f t="shared" si="74"/>
-        <v>4656.1513336116395</v>
+        <v>2873.708528667386</v>
       </c>
       <c r="BF22" s="2">
-        <f t="shared" ref="BF22:BH22" si="75">+BE34*$BK$32</f>
-        <v>5069.1200282949012</v>
+        <f t="shared" si="74"/>
+        <v>3181.5851278797845</v>
       </c>
       <c r="BG22" s="2">
-        <f>+BF34*$BK$32</f>
-        <v>5496.5338578388055</v>
+        <f t="shared" si="74"/>
+        <v>3495.3378210785995</v>
       </c>
       <c r="BH22" s="2">
+        <f t="shared" si="74"/>
+        <v>3812.3645562199636</v>
+      </c>
+      <c r="BI22" s="2">
+        <f t="shared" si="74"/>
+        <v>4135.8664028283738</v>
+      </c>
+      <c r="BJ22" s="2">
+        <f t="shared" ref="BJ22:BL22" si="75">+BI34*$BO$32</f>
+        <v>4467.9227825979697</v>
+      </c>
+      <c r="BK22" s="2">
+        <f>+BJ34*$BO$32</f>
+        <v>4810.0065339793491</v>
+      </c>
+      <c r="BL22" s="2">
         <f t="shared" si="75"/>
-        <v>5939.787177731735</v>
-      </c>
-    </row>
-    <row r="23" spans="2:120" x14ac:dyDescent="0.25">
+        <v>5163.2522403488374</v>
+      </c>
+    </row>
+    <row r="23" spans="2:124" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C23" s="12">
         <f t="shared" ref="C23:D23" si="76">+C21+C22</f>
@@ -7146,93 +7255,97 @@
       </c>
       <c r="AE23" s="12">
         <f t="shared" si="82"/>
-        <v>1532.124</v>
+        <v>1561.7000000000003</v>
       </c>
       <c r="AF23" s="12">
         <f t="shared" si="82"/>
-        <v>1433.5649999999994</v>
+        <v>1721.73</v>
       </c>
       <c r="AG23" s="12"/>
-      <c r="AP23" s="2">
-        <f>+AP21+AP22</f>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AT23" s="2">
+        <f>+AT21+AT22</f>
         <v>5093.0999999999995</v>
       </c>
-      <c r="AQ23" s="2">
-        <f t="shared" ref="AQ23:BC23" si="83">+AQ21+AQ22</f>
+      <c r="AU23" s="2">
+        <f t="shared" ref="AU23:BG23" si="83">+AU21+AU22</f>
         <v>5449.8000000000011</v>
       </c>
-      <c r="AR23" s="2">
+      <c r="AV23" s="2">
         <f t="shared" si="83"/>
         <v>9558.1659999999993</v>
       </c>
-      <c r="AS23" s="2">
-        <f t="shared" si="83"/>
-        <v>10367.565984000001</v>
-      </c>
-      <c r="AT23" s="2">
-        <f t="shared" si="83"/>
-        <v>11048.840807616001</v>
-      </c>
-      <c r="AU23" s="2">
-        <f t="shared" si="83"/>
-        <v>11995.064407398786</v>
-      </c>
-      <c r="AV23" s="2">
-        <f t="shared" si="83"/>
-        <v>12719.995416780357</v>
-      </c>
       <c r="AW23" s="2">
         <f t="shared" si="83"/>
-        <v>13336.419668523125</v>
+        <v>10385.908983999998</v>
       </c>
       <c r="AX23" s="2">
         <f t="shared" si="83"/>
-        <v>13657.961643075121</v>
+        <v>10823.246309615999</v>
       </c>
       <c r="AY23" s="2">
         <f t="shared" si="83"/>
-        <v>14563.836747261439</v>
+        <v>11484.484658146785</v>
       </c>
       <c r="AZ23" s="2">
         <f t="shared" si="83"/>
-        <v>14911.995093397254</v>
+        <v>11779.510372413304</v>
       </c>
       <c r="BA23" s="2">
         <f t="shared" si="83"/>
-        <v>15621.437715130298</v>
+        <v>11997.090136146937</v>
       </c>
       <c r="BB23" s="2">
         <f t="shared" si="83"/>
-        <v>16104.20299894585</v>
+        <v>11798.362921708129</v>
       </c>
       <c r="BC23" s="2">
         <f t="shared" si="83"/>
-        <v>16289.723556434781</v>
+        <v>12341.035543725728</v>
       </c>
       <c r="BD23" s="2">
-        <f t="shared" ref="BD23:BH23" si="84">+BD21+BD22</f>
-        <v>16685.97052858863</v>
+        <f t="shared" si="83"/>
+        <v>12424.925435384213</v>
       </c>
       <c r="BE23" s="2">
+        <f t="shared" si="83"/>
+        <v>12828.191633849954</v>
+      </c>
+      <c r="BF23" s="2">
+        <f t="shared" si="83"/>
+        <v>13073.028883283943</v>
+      </c>
+      <c r="BG23" s="2">
+        <f t="shared" si="83"/>
+        <v>13209.44729755683</v>
+      </c>
+      <c r="BH23" s="2">
+        <f t="shared" ref="BH23:BL23" si="84">+BH21+BH22</f>
+        <v>13479.243608683768</v>
+      </c>
+      <c r="BI23" s="2">
         <f t="shared" si="84"/>
-        <v>17207.028945135895</v>
-      </c>
-      <c r="BF23" s="2">
+        <v>13835.682490399813</v>
+      </c>
+      <c r="BJ23" s="2">
         <f t="shared" si="84"/>
-        <v>17808.909564329369</v>
-      </c>
-      <c r="BG23" s="2">
+        <v>14253.489640890799</v>
+      </c>
+      <c r="BK23" s="2">
         <f t="shared" si="84"/>
-        <v>18468.888328872035</v>
-      </c>
-      <c r="BH23" s="2">
+        <v>14718.571098728667</v>
+      </c>
+      <c r="BL23" s="2">
         <f t="shared" si="84"/>
-        <v>13264.80475032737</v>
-      </c>
-    </row>
-    <row r="24" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11008.346139399766</v>
+      </c>
+    </row>
+    <row r="24" spans="2:124" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C24" s="12">
         <v>8.0549999999999997</v>
@@ -7320,93 +7433,92 @@
         <v>282.2</v>
       </c>
       <c r="AE24" s="2">
-        <f>+AE23*0.1</f>
-        <v>153.2124</v>
+        <v>263.7</v>
       </c>
       <c r="AF24" s="2">
         <f>+AF23*0.1</f>
-        <v>143.35649999999995</v>
-      </c>
-      <c r="AP24" s="2">
+        <v>172.173</v>
+      </c>
+      <c r="AT24" s="2">
         <f t="shared" si="73"/>
         <v>1011.4</v>
       </c>
-      <c r="AQ24" s="2">
+      <c r="AU24" s="2">
         <f>SUM(U24:X24)</f>
         <v>919.39999999999986</v>
       </c>
-      <c r="AR24" s="2">
-        <f t="shared" ref="AR24:BC24" si="85">+AR23*0.2</f>
+      <c r="AV24" s="2">
+        <f t="shared" ref="AV24:BG24" si="85">+AV23*0.2</f>
         <v>1911.6332</v>
-      </c>
-      <c r="AS24" s="2">
-        <f t="shared" si="85"/>
-        <v>2073.5131968000001</v>
-      </c>
-      <c r="AT24" s="2">
-        <f t="shared" si="85"/>
-        <v>2209.7681615232004</v>
-      </c>
-      <c r="AU24" s="2">
-        <f t="shared" si="85"/>
-        <v>2399.0128814797572</v>
-      </c>
-      <c r="AV24" s="2">
-        <f t="shared" si="85"/>
-        <v>2543.9990833560714</v>
       </c>
       <c r="AW24" s="2">
         <f t="shared" si="85"/>
-        <v>2667.2839337046253</v>
+        <v>2077.1817967999996</v>
       </c>
       <c r="AX24" s="2">
         <f t="shared" si="85"/>
-        <v>2731.5923286150246</v>
+        <v>2164.6492619231999</v>
       </c>
       <c r="AY24" s="2">
         <f t="shared" si="85"/>
-        <v>2912.7673494522878</v>
+        <v>2296.8969316293569</v>
       </c>
       <c r="AZ24" s="2">
         <f t="shared" si="85"/>
-        <v>2982.3990186794508</v>
+        <v>2355.9020744826607</v>
       </c>
       <c r="BA24" s="2">
         <f t="shared" si="85"/>
-        <v>3124.2875430260597</v>
+        <v>2399.4180272293875</v>
       </c>
       <c r="BB24" s="2">
         <f t="shared" si="85"/>
-        <v>3220.84059978917</v>
+        <v>2359.6725843416257</v>
       </c>
       <c r="BC24" s="2">
         <f t="shared" si="85"/>
-        <v>3257.9447112869566</v>
+        <v>2468.2071087451459</v>
       </c>
       <c r="BD24" s="2">
-        <f t="shared" ref="BD24:BH24" si="86">+BD23*0.2</f>
-        <v>3337.1941057177264</v>
+        <f t="shared" si="85"/>
+        <v>2484.9850870768428</v>
       </c>
       <c r="BE24" s="2">
+        <f t="shared" si="85"/>
+        <v>2565.6383267699912</v>
+      </c>
+      <c r="BF24" s="2">
+        <f t="shared" si="85"/>
+        <v>2614.6057766567887</v>
+      </c>
+      <c r="BG24" s="2">
+        <f t="shared" si="85"/>
+        <v>2641.8894595113661</v>
+      </c>
+      <c r="BH24" s="2">
+        <f t="shared" ref="BH24:BL24" si="86">+BH23*0.2</f>
+        <v>2695.8487217367538</v>
+      </c>
+      <c r="BI24" s="2">
         <f t="shared" si="86"/>
-        <v>3441.4057890271793</v>
-      </c>
-      <c r="BF24" s="2">
-        <f>+BF23*0.2</f>
-        <v>3561.7819128658739</v>
-      </c>
-      <c r="BG24" s="2">
-        <f>+BG23*0.2</f>
-        <v>3693.7776657744071</v>
-      </c>
-      <c r="BH24" s="2">
+        <v>2767.1364980799626</v>
+      </c>
+      <c r="BJ24" s="2">
+        <f>+BJ23*0.2</f>
+        <v>2850.6979281781601</v>
+      </c>
+      <c r="BK24" s="2">
+        <f>+BK23*0.2</f>
+        <v>2943.7142197457338</v>
+      </c>
+      <c r="BL24" s="2">
         <f t="shared" si="86"/>
-        <v>2652.9609500654742</v>
-      </c>
-    </row>
-    <row r="25" spans="2:120" x14ac:dyDescent="0.25">
+        <v>2201.6692278799533</v>
+      </c>
+    </row>
+    <row r="25" spans="2:124" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C25" s="12">
         <f t="shared" ref="C25:D25" si="87">+C23-C24</f>
@@ -7522,333 +7634,337 @@
       </c>
       <c r="AE25" s="12">
         <f t="shared" si="91"/>
-        <v>1378.9115999999999</v>
+        <v>1298.0000000000002</v>
       </c>
       <c r="AF25" s="12">
         <f t="shared" si="91"/>
-        <v>1290.2084999999995</v>
+        <v>1549.557</v>
       </c>
       <c r="AG25" s="12"/>
-      <c r="AP25" s="2">
-        <f>+AP23-AP24</f>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AT25" s="2">
+        <f>+AT23-AT24</f>
         <v>4081.6999999999994</v>
       </c>
-      <c r="AQ25" s="2">
-        <f t="shared" ref="AQ25:AW25" si="92">+AQ23-AQ24</f>
+      <c r="AU25" s="2">
+        <f t="shared" ref="AU25:BA25" si="92">+AU23-AU24</f>
         <v>4530.4000000000015</v>
       </c>
-      <c r="AR25" s="2">
+      <c r="AV25" s="2">
         <f t="shared" si="92"/>
         <v>7646.532799999999</v>
       </c>
-      <c r="AS25" s="2">
-        <f t="shared" si="92"/>
-        <v>8294.0527872000002</v>
-      </c>
-      <c r="AT25" s="2">
-        <f t="shared" si="92"/>
-        <v>8839.0726460928017</v>
-      </c>
-      <c r="AU25" s="2">
-        <f t="shared" si="92"/>
-        <v>9596.0515259190288</v>
-      </c>
-      <c r="AV25" s="2">
-        <f t="shared" si="92"/>
-        <v>10175.996333424286</v>
-      </c>
       <c r="AW25" s="2">
         <f t="shared" si="92"/>
-        <v>10669.135734818501</v>
+        <v>8308.7271871999983</v>
       </c>
       <c r="AX25" s="2">
-        <f t="shared" ref="AX25:BC25" si="93">+AX23-AX24</f>
-        <v>10926.369314460097</v>
+        <f t="shared" si="92"/>
+        <v>8658.5970476927996</v>
       </c>
       <c r="AY25" s="2">
-        <f t="shared" si="93"/>
-        <v>11651.069397809151</v>
+        <f t="shared" si="92"/>
+        <v>9187.5877265174277</v>
       </c>
       <c r="AZ25" s="2">
-        <f t="shared" si="93"/>
-        <v>11929.596074717803</v>
+        <f t="shared" si="92"/>
+        <v>9423.6082979306429</v>
       </c>
       <c r="BA25" s="2">
-        <f t="shared" si="93"/>
-        <v>12497.150172104239</v>
+        <f t="shared" si="92"/>
+        <v>9597.6721089175498</v>
       </c>
       <c r="BB25" s="2">
-        <f t="shared" si="93"/>
-        <v>12883.36239915668</v>
+        <f t="shared" ref="BB25:BG25" si="93">+BB23-BB24</f>
+        <v>9438.6903373665027</v>
       </c>
       <c r="BC25" s="2">
         <f t="shared" si="93"/>
-        <v>13031.778845147825</v>
+        <v>9872.8284349805817</v>
       </c>
       <c r="BD25" s="2">
-        <f t="shared" ref="BD25:BH25" si="94">+BD23-BD24</f>
-        <v>13348.776422870904</v>
+        <f t="shared" si="93"/>
+        <v>9939.9403483073711</v>
       </c>
       <c r="BE25" s="2">
+        <f t="shared" si="93"/>
+        <v>10262.553307079963</v>
+      </c>
+      <c r="BF25" s="2">
+        <f t="shared" si="93"/>
+        <v>10458.423106627155</v>
+      </c>
+      <c r="BG25" s="2">
+        <f t="shared" si="93"/>
+        <v>10567.557838045464</v>
+      </c>
+      <c r="BH25" s="2">
+        <f t="shared" ref="BH25:BL25" si="94">+BH23-BH24</f>
+        <v>10783.394886947015</v>
+      </c>
+      <c r="BI25" s="2">
         <f t="shared" si="94"/>
-        <v>13765.623156108715</v>
-      </c>
-      <c r="BF25" s="2">
+        <v>11068.54599231985</v>
+      </c>
+      <c r="BJ25" s="2">
         <f t="shared" si="94"/>
-        <v>14247.127651463496</v>
-      </c>
-      <c r="BG25" s="2">
+        <v>11402.791712712638</v>
+      </c>
+      <c r="BK25" s="2">
         <f t="shared" si="94"/>
-        <v>14775.110663097628</v>
-      </c>
-      <c r="BH25" s="2">
+        <v>11774.856878982933</v>
+      </c>
+      <c r="BL25" s="2">
         <f t="shared" si="94"/>
-        <v>10611.843800261897</v>
-      </c>
-      <c r="BI25" s="2">
-        <f t="shared" ref="BI25:CN25" si="95">+BH25*(1+$BK$30)</f>
-        <v>10081.251610248801</v>
-      </c>
-      <c r="BJ25" s="2">
-        <f t="shared" si="95"/>
-        <v>9577.1890297363607</v>
-      </c>
-      <c r="BK25" s="2">
-        <f t="shared" si="95"/>
-        <v>9098.3295782495425</v>
-      </c>
-      <c r="BL25" s="2">
-        <f t="shared" si="95"/>
-        <v>8643.4130993370654</v>
+        <v>8806.6769115198131</v>
       </c>
       <c r="BM25" s="2">
-        <f t="shared" si="95"/>
-        <v>8211.2424443702112</v>
+        <f t="shared" ref="BM25:CR25" si="95">+BL25*(1+$BO$30)</f>
+        <v>8366.3430659438218</v>
       </c>
       <c r="BN25" s="2">
         <f t="shared" si="95"/>
-        <v>7800.6803221517002</v>
+        <v>7948.0259126466299</v>
       </c>
       <c r="BO25" s="2">
         <f t="shared" si="95"/>
-        <v>7410.6463060441147</v>
+        <v>7550.6246170142977</v>
       </c>
       <c r="BP25" s="2">
         <f t="shared" si="95"/>
-        <v>7040.1139907419083</v>
+        <v>7173.0933861635822</v>
       </c>
       <c r="BQ25" s="2">
         <f t="shared" si="95"/>
-        <v>6688.1082912048123</v>
+        <v>6814.4387168554031</v>
       </c>
       <c r="BR25" s="2">
         <f t="shared" si="95"/>
-        <v>6353.702876644571</v>
+        <v>6473.716781012633</v>
       </c>
       <c r="BS25" s="2">
         <f t="shared" si="95"/>
-        <v>6036.0177328123418</v>
+        <v>6150.0309419620007</v>
       </c>
       <c r="BT25" s="2">
         <f t="shared" si="95"/>
-        <v>5734.2168461717247</v>
+        <v>5842.5293948639001</v>
       </c>
       <c r="BU25" s="2">
         <f t="shared" si="95"/>
-        <v>5447.5060038631382</v>
+        <v>5550.4029251207048</v>
       </c>
       <c r="BV25" s="2">
         <f t="shared" si="95"/>
-        <v>5175.1307036699809</v>
+        <v>5272.8827788646695</v>
       </c>
       <c r="BW25" s="2">
         <f t="shared" si="95"/>
-        <v>4916.3741684864817</v>
+        <v>5009.2386399214356</v>
       </c>
       <c r="BX25" s="2">
         <f t="shared" si="95"/>
-        <v>4670.5554600621572</v>
+        <v>4758.7767079253636</v>
       </c>
       <c r="BY25" s="2">
         <f t="shared" si="95"/>
-        <v>4437.0276870590487</v>
+        <v>4520.837872529095</v>
       </c>
       <c r="BZ25" s="2">
         <f t="shared" si="95"/>
-        <v>4215.1763027060961</v>
+        <v>4294.7959789026399</v>
       </c>
       <c r="CA25" s="2">
         <f t="shared" si="95"/>
-        <v>4004.4174875707909</v>
+        <v>4080.0561799575075</v>
       </c>
       <c r="CB25" s="2">
         <f t="shared" si="95"/>
-        <v>3804.1966131922513</v>
+        <v>3876.053370959632</v>
       </c>
       <c r="CC25" s="2">
         <f t="shared" si="95"/>
-        <v>3613.9867825326387</v>
+        <v>3682.2507024116503</v>
       </c>
       <c r="CD25" s="2">
         <f t="shared" si="95"/>
-        <v>3433.2874434060068</v>
+        <v>3498.1381672910675</v>
       </c>
       <c r="CE25" s="2">
         <f t="shared" si="95"/>
-        <v>3261.6230712357064</v>
+        <v>3323.2312589265139</v>
       </c>
       <c r="CF25" s="2">
         <f t="shared" si="95"/>
-        <v>3098.541917673921</v>
+        <v>3157.069695980188</v>
       </c>
       <c r="CG25" s="2">
         <f t="shared" si="95"/>
-        <v>2943.6148217902251</v>
+        <v>2999.2162111811786</v>
       </c>
       <c r="CH25" s="2">
         <f t="shared" si="95"/>
-        <v>2796.4340807007138</v>
+        <v>2849.2554006221194</v>
       </c>
       <c r="CI25" s="2">
         <f t="shared" si="95"/>
-        <v>2656.6123766656779</v>
+        <v>2706.7926305910132</v>
       </c>
       <c r="CJ25" s="2">
         <f t="shared" si="95"/>
-        <v>2523.7817578323939</v>
+        <v>2571.4529990614624</v>
       </c>
       <c r="CK25" s="2">
         <f t="shared" si="95"/>
-        <v>2397.5926699407742</v>
+        <v>2442.8803491083891</v>
       </c>
       <c r="CL25" s="2">
         <f t="shared" si="95"/>
-        <v>2277.7130364437353</v>
+        <v>2320.7363316529695</v>
       </c>
       <c r="CM25" s="2">
         <f t="shared" si="95"/>
-        <v>2163.8273846215484</v>
+        <v>2204.699515070321</v>
       </c>
       <c r="CN25" s="2">
         <f t="shared" si="95"/>
-        <v>2055.6360153904707</v>
+        <v>2094.4645393168048</v>
       </c>
       <c r="CO25" s="2">
-        <f t="shared" ref="CO25:DP25" si="96">+CN25*(1+$BK$30)</f>
-        <v>1952.854214620947</v>
+        <f t="shared" si="95"/>
+        <v>1989.7413123509646</v>
       </c>
       <c r="CP25" s="2">
-        <f t="shared" si="96"/>
-        <v>1855.2115038898996</v>
+        <f t="shared" si="95"/>
+        <v>1890.2542467334163</v>
       </c>
       <c r="CQ25" s="2">
-        <f t="shared" si="96"/>
-        <v>1762.4509286954046</v>
+        <f t="shared" si="95"/>
+        <v>1795.7415343967455</v>
       </c>
       <c r="CR25" s="2">
-        <f t="shared" si="96"/>
-        <v>1674.3283822606343</v>
+        <f t="shared" si="95"/>
+        <v>1705.9544576769081</v>
       </c>
       <c r="CS25" s="2">
-        <f t="shared" si="96"/>
-        <v>1590.6119631476024</v>
+        <f t="shared" ref="CS25:DT25" si="96">+CR25*(1+$BO$30)</f>
+        <v>1620.6567347930627</v>
       </c>
       <c r="CT25" s="2">
         <f t="shared" si="96"/>
-        <v>1511.0813649902223</v>
+        <v>1539.6238980534094</v>
       </c>
       <c r="CU25" s="2">
         <f t="shared" si="96"/>
-        <v>1435.5272967407111</v>
+        <v>1462.642703150739</v>
       </c>
       <c r="CV25" s="2">
         <f t="shared" si="96"/>
-        <v>1363.7509319036756</v>
+        <v>1389.5105679932019</v>
       </c>
       <c r="CW25" s="2">
         <f t="shared" si="96"/>
-        <v>1295.5633853084917</v>
+        <v>1320.0350395935418</v>
       </c>
       <c r="CX25" s="2">
         <f t="shared" si="96"/>
-        <v>1230.7852160430671</v>
+        <v>1254.0332876138646</v>
       </c>
       <c r="CY25" s="2">
         <f t="shared" si="96"/>
-        <v>1169.2459552409136</v>
+        <v>1191.3316232331713</v>
       </c>
       <c r="CZ25" s="2">
         <f t="shared" si="96"/>
-        <v>1110.783657478868</v>
+        <v>1131.7650420715127</v>
       </c>
       <c r="DA25" s="2">
         <f t="shared" si="96"/>
-        <v>1055.2444746049246</v>
+        <v>1075.1767899679369</v>
       </c>
       <c r="DB25" s="2">
         <f t="shared" si="96"/>
-        <v>1002.4822508746782</v>
+        <v>1021.41795046954</v>
       </c>
       <c r="DC25" s="2">
         <f t="shared" si="96"/>
-        <v>952.35813833094426</v>
+        <v>970.34705294606295</v>
       </c>
       <c r="DD25" s="2">
         <f t="shared" si="96"/>
-        <v>904.74023141439704</v>
+        <v>921.8297002987598</v>
       </c>
       <c r="DE25" s="2">
         <f t="shared" si="96"/>
-        <v>859.50321984367713</v>
+        <v>875.73821528382177</v>
       </c>
       <c r="DF25" s="2">
         <f t="shared" si="96"/>
-        <v>816.52805885149326</v>
+        <v>831.95130451963064</v>
       </c>
       <c r="DG25" s="2">
         <f t="shared" si="96"/>
-        <v>775.70165590891861</v>
+        <v>790.35373929364903</v>
       </c>
       <c r="DH25" s="2">
         <f t="shared" si="96"/>
-        <v>736.91657311347262</v>
+        <v>750.8360523289665</v>
       </c>
       <c r="DI25" s="2">
         <f t="shared" si="96"/>
-        <v>700.07074445779892</v>
+        <v>713.29424971251819</v>
       </c>
       <c r="DJ25" s="2">
         <f t="shared" si="96"/>
-        <v>665.06720723490889</v>
+        <v>677.62953722689224</v>
       </c>
       <c r="DK25" s="2">
         <f t="shared" si="96"/>
-        <v>631.81384687316347</v>
+        <v>643.74806036554764</v>
       </c>
       <c r="DL25" s="2">
         <f t="shared" si="96"/>
-        <v>600.22315452950522</v>
+        <v>611.56065734727019</v>
       </c>
       <c r="DM25" s="2">
         <f t="shared" si="96"/>
-        <v>570.21199680302993</v>
+        <v>580.98262447990669</v>
       </c>
       <c r="DN25" s="2">
         <f t="shared" si="96"/>
-        <v>541.70139696287845</v>
+        <v>551.93349325591134</v>
       </c>
       <c r="DO25" s="2">
         <f t="shared" si="96"/>
-        <v>514.61632711473453</v>
+        <v>524.33681859311571</v>
       </c>
       <c r="DP25" s="2">
         <f t="shared" si="96"/>
-        <v>488.88551075899778</v>
-      </c>
-    </row>
-    <row r="26" spans="2:120" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>498.11997766345991</v>
+      </c>
+      <c r="DQ25" s="2">
+        <f t="shared" si="96"/>
+        <v>473.21397878028688</v>
+      </c>
+      <c r="DR25" s="2">
+        <f t="shared" si="96"/>
+        <v>449.55327984127251</v>
+      </c>
+      <c r="DS25" s="2">
+        <f t="shared" si="96"/>
+        <v>427.07561584920887</v>
+      </c>
+      <c r="DT25" s="2">
+        <f t="shared" si="96"/>
+        <v>405.72183505674843</v>
+      </c>
+    </row>
+    <row r="26" spans="2:124" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C26" s="21">
         <f t="shared" ref="C26:D26" si="97">+C25/C27</f>
@@ -7964,91 +8080,95 @@
       </c>
       <c r="AE26" s="21">
         <f t="shared" si="103"/>
-        <v>5.3260393974507529</v>
+        <v>5.0388198757763982</v>
       </c>
       <c r="AF26" s="21">
         <f t="shared" si="103"/>
-        <v>4.9834241019698711</v>
+        <v>6.0153610248447205</v>
       </c>
       <c r="AG26" s="21"/>
-      <c r="AP26" s="1">
-        <f>+AP25/AP27</f>
+      <c r="AH26" s="21"/>
+      <c r="AI26" s="21"/>
+      <c r="AJ26" s="21"/>
+      <c r="AK26" s="21"/>
+      <c r="AT26" s="1">
+        <f>+AT25/AT27</f>
         <v>15.753377074488615</v>
       </c>
-      <c r="AQ26" s="1">
-        <f t="shared" ref="AQ26:BC26" si="104">+AQ25/AQ27</f>
+      <c r="AU26" s="1">
+        <f t="shared" ref="AU26:BG26" si="104">+AU25/AU27</f>
         <v>17.38783342928421</v>
       </c>
-      <c r="AR26" s="1">
+      <c r="AV26" s="1">
         <f t="shared" si="104"/>
         <v>29.347659950105541</v>
       </c>
-      <c r="AS26" s="1">
-        <f t="shared" si="104"/>
-        <v>31.832864276338515</v>
-      </c>
-      <c r="AT26" s="1">
-        <f t="shared" si="104"/>
-        <v>33.924669530196894</v>
-      </c>
-      <c r="AU26" s="1">
-        <f t="shared" si="104"/>
-        <v>36.829980909303508</v>
-      </c>
-      <c r="AV26" s="1">
-        <f t="shared" si="104"/>
-        <v>39.055829335729364</v>
-      </c>
       <c r="AW26" s="1">
         <f t="shared" si="104"/>
-        <v>40.948515581725196</v>
+        <v>31.88918513605833</v>
       </c>
       <c r="AX26" s="1">
         <f t="shared" si="104"/>
-        <v>41.935787044559952</v>
+        <v>33.231997880225677</v>
       </c>
       <c r="AY26" s="1">
         <f t="shared" si="104"/>
-        <v>44.71721127541413</v>
+        <v>35.262282581145371</v>
       </c>
       <c r="AZ26" s="1">
         <f t="shared" si="104"/>
-        <v>45.786206389245066</v>
+        <v>36.168137777511582</v>
       </c>
       <c r="BA26" s="1">
         <f t="shared" si="104"/>
-        <v>47.964498837475489</v>
+        <v>36.836200763452503</v>
       </c>
       <c r="BB26" s="1">
         <f t="shared" si="104"/>
-        <v>49.446794853796504</v>
+        <v>36.226023171623496</v>
       </c>
       <c r="BC26" s="1">
         <f t="shared" si="104"/>
-        <v>50.016422357120796</v>
+        <v>37.892260353024682</v>
       </c>
       <c r="BD26" s="1">
-        <f t="shared" ref="BD26:BH26" si="105">+BD25/BD27</f>
-        <v>51.233070131916726</v>
+        <f t="shared" si="104"/>
+        <v>38.149838220331496</v>
       </c>
       <c r="BE26" s="1">
+        <f t="shared" si="104"/>
+        <v>39.388038023718913</v>
+      </c>
+      <c r="BF26" s="1">
+        <f t="shared" si="104"/>
+        <v>40.139793155352734</v>
+      </c>
+      <c r="BG26" s="1">
+        <f t="shared" si="104"/>
+        <v>40.558656066188696</v>
+      </c>
+      <c r="BH26" s="1">
+        <f t="shared" ref="BH26:BL26" si="105">+BH25/BH27</f>
+        <v>41.387046198223047</v>
+      </c>
+      <c r="BI26" s="1">
         <f t="shared" si="105"/>
-        <v>52.832942452921571</v>
-      </c>
-      <c r="BF26" s="1">
+        <v>42.481466099865095</v>
+      </c>
+      <c r="BJ26" s="1">
         <f t="shared" si="105"/>
-        <v>54.680973523175957</v>
-      </c>
-      <c r="BG26" s="1">
+        <v>43.764312848638028</v>
+      </c>
+      <c r="BK26" s="1">
         <f t="shared" si="105"/>
-        <v>56.707390762224634</v>
-      </c>
-      <c r="BH26" s="1">
+        <v>45.192311951575256</v>
+      </c>
+      <c r="BL26" s="1">
         <f t="shared" si="105"/>
-        <v>40.728627135912092</v>
-      </c>
-    </row>
-    <row r="27" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>33.800333569448526</v>
+      </c>
+    </row>
+    <row r="27" spans="2:124" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
@@ -8137,39 +8257,22 @@
         <v>258.89999999999998</v>
       </c>
       <c r="AE27" s="2">
-        <f>+AD27</f>
-        <v>258.89999999999998</v>
+        <v>257.60000000000002</v>
       </c>
       <c r="AF27" s="2">
         <f>+AE27</f>
-        <v>258.89999999999998</v>
-      </c>
-      <c r="AP27" s="2">
+        <v>257.60000000000002</v>
+      </c>
+      <c r="AT27" s="2">
         <f>AVERAGE(Q27:T27)</f>
         <v>259.09999999999997</v>
       </c>
-      <c r="AQ27" s="2">
+      <c r="AU27" s="2">
         <f>AVERAGE(U27:X27)</f>
         <v>260.55</v>
       </c>
-      <c r="AR27" s="2">
-        <f t="shared" ref="AR27:BC27" si="106">+AQ27</f>
-        <v>260.55</v>
-      </c>
-      <c r="AS27" s="2">
-        <f t="shared" si="106"/>
-        <v>260.55</v>
-      </c>
-      <c r="AT27" s="2">
-        <f t="shared" si="106"/>
-        <v>260.55</v>
-      </c>
-      <c r="AU27" s="2">
-        <f t="shared" si="106"/>
-        <v>260.55</v>
-      </c>
       <c r="AV27" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" ref="AV27:BG27" si="106">+AU27</f>
         <v>260.55</v>
       </c>
       <c r="AW27" s="2">
@@ -8201,29 +8304,45 @@
         <v>260.55</v>
       </c>
       <c r="BD27" s="2">
-        <f t="shared" ref="BD27" si="107">+BC27</f>
+        <f t="shared" si="106"/>
         <v>260.55</v>
       </c>
       <c r="BE27" s="2">
-        <f t="shared" ref="BE27" si="108">+BD27</f>
+        <f t="shared" si="106"/>
         <v>260.55</v>
       </c>
       <c r="BF27" s="2">
-        <f t="shared" ref="BF27" si="109">+BE27</f>
+        <f t="shared" si="106"/>
         <v>260.55</v>
       </c>
       <c r="BG27" s="2">
-        <f t="shared" ref="BG27" si="110">+BF27</f>
+        <f t="shared" si="106"/>
         <v>260.55</v>
       </c>
       <c r="BH27" s="2">
-        <f t="shared" ref="BH27" si="111">+BG27</f>
+        <f t="shared" ref="BH27" si="107">+BG27</f>
         <v>260.55</v>
       </c>
-    </row>
-    <row r="29" spans="2:120" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="BI27" s="2">
+        <f t="shared" ref="BI27" si="108">+BH27</f>
+        <v>260.55</v>
+      </c>
+      <c r="BJ27" s="2">
+        <f t="shared" ref="BJ27" si="109">+BI27</f>
+        <v>260.55</v>
+      </c>
+      <c r="BK27" s="2">
+        <f t="shared" ref="BK27" si="110">+BJ27</f>
+        <v>260.55</v>
+      </c>
+      <c r="BL27" s="2">
+        <f t="shared" ref="BL27" si="111">+BK27</f>
+        <v>260.55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:124" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -8327,93 +8446,97 @@
       </c>
       <c r="AE29" s="25">
         <f t="shared" ref="AE29" si="121">+AE15/AA15-1</f>
-        <v>7.3343194198924877E-2</v>
+        <v>0.10985244777950132</v>
       </c>
       <c r="AF29" s="25">
         <f t="shared" ref="AF29" si="122">+AF15/AB15-1</f>
-        <v>4.0350274725274637E-2</v>
+        <v>0.10885989010989006</v>
       </c>
       <c r="AG29" s="25"/>
-      <c r="AP29" s="30">
-        <f>+AP15/AO15-1</f>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="AT29" s="30">
+        <f>+AT15/AS15-1</f>
         <v>0.17938019093393875</v>
       </c>
-      <c r="AQ29" s="30">
-        <f>+AQ15/AP15-1</f>
+      <c r="AU29" s="30">
+        <f>+AU15/AT15-1</f>
         <v>0.10496204572426637</v>
       </c>
-      <c r="AR29" s="30">
-        <f>+AR15/AQ15-1</f>
+      <c r="AV29" s="30">
+        <f>+AV15/AU15-1</f>
         <v>0.11660401446911095</v>
       </c>
-      <c r="AS29" s="30">
-        <f>+AS15/AR15-1</f>
-        <v>6.3411402800337857E-2</v>
-      </c>
-      <c r="AT29" s="30">
-        <f t="shared" ref="AT29:BH29" si="123">+AT15/AS15-1</f>
-        <v>4.4460486905767427E-2</v>
-      </c>
-      <c r="AU29" s="30">
-        <f t="shared" si="123"/>
-        <v>6.7038293035710961E-2</v>
-      </c>
-      <c r="AV29" s="30">
-        <f t="shared" si="123"/>
-        <v>4.0317503351953832E-2</v>
-      </c>
       <c r="AW29" s="30">
-        <f t="shared" si="123"/>
-        <v>2.7590468122363543E-2</v>
+        <f>+AW15/AV15-1</f>
+        <v>6.5416829248373665E-2</v>
       </c>
       <c r="AX29" s="30">
-        <f t="shared" si="123"/>
-        <v>1.2667014824874201E-4</v>
+        <f t="shared" ref="AX29:BL29" si="123">+AX15/AW15-1</f>
+        <v>1.9299633762030366E-2</v>
       </c>
       <c r="AY29" s="30">
         <f t="shared" si="123"/>
-        <v>4.987845880246522E-2</v>
+        <v>4.0418420673757671E-2</v>
       </c>
       <c r="AZ29" s="30">
         <f t="shared" si="123"/>
-        <v>-1.1289800003344563E-4</v>
+        <v>1.877006255528002E-3</v>
       </c>
       <c r="BA29" s="30">
         <f t="shared" si="123"/>
-        <v>4.6858569320202825E-3</v>
+        <v>-6.2901859823505379E-3</v>
       </c>
       <c r="BB29" s="30">
         <f t="shared" si="123"/>
-        <v>8.6155742470506169E-3</v>
+        <v>-4.7299466457451089E-2</v>
       </c>
       <c r="BC29" s="30">
         <f t="shared" si="123"/>
-        <v>-1.5918010837520202E-2</v>
+        <v>2.6474868951258834E-2</v>
       </c>
       <c r="BD29" s="30">
         <f t="shared" si="123"/>
-        <v>4.2604519409805697E-4</v>
+        <v>-2.1099292240924661E-2</v>
       </c>
       <c r="BE29" s="30">
         <f t="shared" si="123"/>
-        <v>9.7017202932296875E-3</v>
+        <v>-1.3112975982201625E-2</v>
       </c>
       <c r="BF29" s="30">
         <f t="shared" si="123"/>
-        <v>1.5051690436113763E-2</v>
+        <v>-6.3327597337109465E-3</v>
       </c>
       <c r="BG29" s="30">
         <f t="shared" si="123"/>
-        <v>1.825500604550423E-2</v>
+        <v>-1.7928048049511869E-2</v>
       </c>
       <c r="BH29" s="30">
         <f t="shared" si="123"/>
-        <v>-0.42172995373517774</v>
-      </c>
-    </row>
-    <row r="30" spans="2:120" x14ac:dyDescent="0.25">
+        <v>-4.862043621063572E-3</v>
+      </c>
+      <c r="BI29" s="30">
+        <f t="shared" si="123"/>
+        <v>3.4072046343889273E-3</v>
+      </c>
+      <c r="BJ29" s="30">
+        <f t="shared" si="123"/>
+        <v>8.8404532567649685E-3</v>
+      </c>
+      <c r="BK29" s="30">
+        <f t="shared" si="123"/>
+        <v>1.256929805269813E-2</v>
+      </c>
+      <c r="BL29" s="30">
+        <f t="shared" si="123"/>
+        <v>-0.39588226972167095</v>
+      </c>
+    </row>
+    <row r="30" spans="2:124" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C30" s="19">
         <f t="shared" ref="C30" si="124">C17/C15</f>
@@ -8529,40 +8652,28 @@
       </c>
       <c r="AE30" s="19">
         <f t="shared" si="131"/>
-        <v>0.87</v>
+        <v>0.86770250942660254</v>
       </c>
       <c r="AF30" s="19">
         <f t="shared" si="131"/>
         <v>0.87</v>
       </c>
       <c r="AG30" s="19"/>
-      <c r="AO30" s="19">
-        <f t="shared" ref="AO30:AP30" si="132">AO17/AO15</f>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
+      <c r="AS30" s="19">
+        <f t="shared" ref="AS30:AT30" si="132">AS17/AS15</f>
         <v>0.88060528435424446</v>
       </c>
-      <c r="AP30" s="19">
+      <c r="AT30" s="19">
         <f t="shared" si="132"/>
         <v>0.89078349268904367</v>
       </c>
-      <c r="AQ30" s="19">
-        <f t="shared" ref="AQ30:BC30" si="133">AQ17/AQ15</f>
+      <c r="AU30" s="19">
+        <f t="shared" ref="AU30:BG30" si="133">AU17/AU15</f>
         <v>0.87304064118022551</v>
-      </c>
-      <c r="AR30" s="19">
-        <f t="shared" si="133"/>
-        <v>0.93</v>
-      </c>
-      <c r="AS30" s="19">
-        <f t="shared" si="133"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="AT30" s="19">
-        <f t="shared" si="133"/>
-        <v>0.93</v>
-      </c>
-      <c r="AU30" s="19">
-        <f t="shared" si="133"/>
-        <v>0.92999999999999994</v>
       </c>
       <c r="AV30" s="19">
         <f t="shared" si="133"/>
@@ -8570,11 +8681,11 @@
       </c>
       <c r="AW30" s="19">
         <f t="shared" si="133"/>
-        <v>0.93</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="AX30" s="19">
         <f t="shared" si="133"/>
-        <v>0.92999999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="AY30" s="19">
         <f t="shared" si="133"/>
@@ -8582,50 +8693,66 @@
       </c>
       <c r="AZ30" s="19">
         <f t="shared" si="133"/>
-        <v>0.93</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="BA30" s="19">
         <f t="shared" si="133"/>
-        <v>0.95</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="BB30" s="19">
         <f t="shared" si="133"/>
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="BC30" s="19">
         <f t="shared" si="133"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="BD30" s="19">
+        <f t="shared" si="133"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="BE30" s="19">
+        <f t="shared" si="133"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="BF30" s="19">
+        <f t="shared" si="133"/>
         <v>0.95</v>
       </c>
-      <c r="BD30" s="19">
-        <f t="shared" ref="BD30:BH30" si="134">BD17/BD15</f>
+      <c r="BG30" s="19">
+        <f t="shared" si="133"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="BH30" s="19">
+        <f t="shared" ref="BH30:BL30" si="134">BH17/BH15</f>
         <v>0.95</v>
       </c>
-      <c r="BE30" s="19">
+      <c r="BI30" s="19">
+        <f t="shared" si="134"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="BJ30" s="19">
         <f t="shared" si="134"/>
         <v>0.95</v>
       </c>
-      <c r="BF30" s="19">
-        <f t="shared" si="134"/>
-        <v>0.95000000000000007</v>
-      </c>
-      <c r="BG30" s="19">
+      <c r="BK30" s="19">
         <f t="shared" si="134"/>
         <v>0.95</v>
       </c>
-      <c r="BH30" s="19">
+      <c r="BL30" s="19">
         <f t="shared" si="134"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="BJ30" t="s">
-        <v>288</v>
-      </c>
-      <c r="BK30" s="23">
+        <v>0.93</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>285</v>
+      </c>
+      <c r="BO30" s="23">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="31" spans="2:120" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:124" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C31" s="19">
         <f t="shared" ref="C31" si="135">+C18/C15</f>
@@ -8741,37 +8868,25 @@
       </c>
       <c r="AE31" s="19">
         <f t="shared" si="141"/>
-        <v>0.10086716859370801</v>
+        <v>0.11994539071642178</v>
       </c>
       <c r="AF31" s="19">
         <f t="shared" si="141"/>
-        <v>0.10236012543323983</v>
+        <v>9.6035924434809544E-2</v>
       </c>
       <c r="AG31" s="19"/>
-      <c r="AO31" s="19"/>
-      <c r="AP31" s="19">
-        <f>+AP18/AP15</f>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="19"/>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="19">
+        <f>+AT18/AT15</f>
         <v>8.3555386372287793E-2</v>
       </c>
-      <c r="AQ31" s="19">
-        <f t="shared" ref="AQ31:BC31" si="142">+AQ18/AQ15</f>
+      <c r="AU31" s="19">
+        <f t="shared" ref="AU31:BG31" si="142">+AU18/AU15</f>
         <v>9.2995450538538693E-2</v>
-      </c>
-      <c r="AR31" s="19">
-        <f t="shared" si="142"/>
-        <v>0.1</v>
-      </c>
-      <c r="AS31" s="19">
-        <f t="shared" si="142"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="AT31" s="19">
-        <f t="shared" si="142"/>
-        <v>0.1</v>
-      </c>
-      <c r="AU31" s="19">
-        <f t="shared" si="142"/>
-        <v>0.10000000000000002</v>
       </c>
       <c r="AV31" s="19">
         <f t="shared" si="142"/>
@@ -8803,38 +8918,54 @@
       </c>
       <c r="BC31" s="19">
         <f t="shared" si="142"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="BD31" s="19">
+        <f t="shared" si="142"/>
         <v>0.1</v>
       </c>
-      <c r="BD31" s="19">
-        <f t="shared" ref="BD31:BH31" si="143">+BD18/BD15</f>
+      <c r="BE31" s="19">
+        <f t="shared" si="142"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="BF31" s="19">
+        <f t="shared" si="142"/>
         <v>0.1</v>
       </c>
-      <c r="BE31" s="19">
+      <c r="BG31" s="19">
+        <f t="shared" si="142"/>
+        <v>0.1</v>
+      </c>
+      <c r="BH31" s="19">
+        <f t="shared" ref="BH31:BL31" si="143">+BH18/BH15</f>
+        <v>0.1</v>
+      </c>
+      <c r="BI31" s="19">
         <f t="shared" si="143"/>
         <v>0.1</v>
       </c>
-      <c r="BF31" s="19">
+      <c r="BJ31" s="19">
         <f t="shared" si="143"/>
         <v>0.1</v>
       </c>
-      <c r="BG31" s="19">
+      <c r="BK31" s="19">
         <f t="shared" si="143"/>
         <v>0.1</v>
       </c>
-      <c r="BH31" s="19">
+      <c r="BL31" s="19">
         <f t="shared" si="143"/>
-        <v>0.1</v>
-      </c>
-      <c r="BJ31" t="s">
-        <v>286</v>
-      </c>
-      <c r="BK31" s="23">
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>283</v>
+      </c>
+      <c r="BO31" s="23">
         <v>0.06</v>
       </c>
     </row>
-    <row r="32" spans="2:120" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:124" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C32" s="19">
         <f t="shared" ref="C32" si="144">C24/C23</f>
@@ -8950,36 +9081,24 @@
       </c>
       <c r="AE32" s="19">
         <f t="shared" si="151"/>
-        <v>0.1</v>
+        <v>0.16885445348018183</v>
       </c>
       <c r="AF32" s="19">
         <f t="shared" si="151"/>
         <v>0.1</v>
       </c>
       <c r="AG32" s="19"/>
-      <c r="AP32" s="23">
-        <f>+AP24/AP23</f>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
+      <c r="AT32" s="23">
+        <f>+AT24/AT23</f>
         <v>0.19858239579038309</v>
       </c>
-      <c r="AQ32" s="23">
-        <f t="shared" ref="AQ32:BC32" si="152">+AQ24/AQ23</f>
+      <c r="AU32" s="23">
+        <f t="shared" ref="AU32:BG32" si="152">+AU24/AU23</f>
         <v>0.16870343865829932</v>
-      </c>
-      <c r="AR32" s="23">
-        <f t="shared" si="152"/>
-        <v>0.2</v>
-      </c>
-      <c r="AS32" s="23">
-        <f t="shared" si="152"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="AT32" s="23">
-        <f t="shared" si="152"/>
-        <v>0.2</v>
-      </c>
-      <c r="AU32" s="23">
-        <f t="shared" si="152"/>
-        <v>0.2</v>
       </c>
       <c r="AV32" s="23">
         <f t="shared" si="152"/>
@@ -8991,7 +9110,7 @@
       </c>
       <c r="AX32" s="23">
         <f t="shared" si="152"/>
-        <v>0.20000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="AY32" s="23">
         <f t="shared" si="152"/>
@@ -8999,7 +9118,7 @@
       </c>
       <c r="AZ32" s="23">
         <f t="shared" si="152"/>
-        <v>0.2</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="BA32" s="23">
         <f t="shared" si="152"/>
@@ -9007,49 +9126,65 @@
       </c>
       <c r="BB32" s="23">
         <f t="shared" si="152"/>
-        <v>0.2</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="BC32" s="23">
         <f t="shared" si="152"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="BD32" s="23">
+        <f t="shared" si="152"/>
         <v>0.2</v>
       </c>
-      <c r="BD32" s="23">
-        <f t="shared" ref="BD32:BH32" si="153">+BD24/BD23</f>
+      <c r="BE32" s="23">
+        <f t="shared" si="152"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="BF32" s="23">
+        <f t="shared" si="152"/>
         <v>0.2</v>
       </c>
-      <c r="BE32" s="23">
+      <c r="BG32" s="23">
+        <f t="shared" si="152"/>
+        <v>0.2</v>
+      </c>
+      <c r="BH32" s="23">
+        <f t="shared" ref="BH32:BL32" si="153">+BH24/BH23</f>
+        <v>0.2</v>
+      </c>
+      <c r="BI32" s="23">
         <f t="shared" si="153"/>
         <v>0.2</v>
       </c>
-      <c r="BF32" s="23">
+      <c r="BJ32" s="23">
         <f t="shared" si="153"/>
         <v>0.2</v>
       </c>
-      <c r="BG32" s="23">
+      <c r="BK32" s="23">
         <f t="shared" si="153"/>
         <v>0.2</v>
       </c>
-      <c r="BH32" s="23">
+      <c r="BL32" s="23">
         <f t="shared" si="153"/>
         <v>0.2</v>
       </c>
-      <c r="BJ32" t="s">
-        <v>285</v>
-      </c>
-      <c r="BK32" s="23">
+      <c r="BN32" t="s">
+        <v>282</v>
+      </c>
+      <c r="BO32" s="23">
         <v>0.03</v>
       </c>
     </row>
-    <row r="33" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="BJ33" t="s">
-        <v>287</v>
-      </c>
-      <c r="BK33" s="2">
-        <f>NPV(BK31,AS25:CP25)+Main!M5-Main!M6</f>
-        <v>160470.11149521108</v>
-      </c>
-    </row>
-    <row r="34" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BN33" t="s">
+        <v>284</v>
+      </c>
+      <c r="BO33" s="2">
+        <f>NPV(BO31,AW25:CT25)+Main!M5-Main!M6</f>
+        <v>140032.21312109416</v>
+      </c>
+    </row>
+    <row r="34" spans="2:67" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
@@ -9131,93 +9266,97 @@
         <f>6201.2+5156.5</f>
         <v>11357.7</v>
       </c>
-      <c r="AP34" s="2">
+      <c r="AE34" s="2">
+        <f>6287+5722.8</f>
+        <v>12009.8</v>
+      </c>
+      <c r="AT34" s="2">
         <f>+T34</f>
         <v>10778.5</v>
       </c>
-      <c r="AQ34" s="2">
+      <c r="AU34" s="2">
         <f>+X34</f>
         <v>13716.100000000002</v>
       </c>
-      <c r="AR34" s="2">
-        <f t="shared" ref="AR34:BC34" si="154">+AQ34+AR25</f>
+      <c r="AV34" s="2">
+        <f t="shared" ref="AV34:BG34" si="154">+AU34+AV25</f>
         <v>21362.632799999999</v>
-      </c>
-      <c r="AS34" s="2">
-        <f t="shared" si="154"/>
-        <v>29656.685587200001</v>
-      </c>
-      <c r="AT34" s="2">
-        <f t="shared" si="154"/>
-        <v>38495.7582332928</v>
-      </c>
-      <c r="AU34" s="2">
-        <f t="shared" si="154"/>
-        <v>48091.809759211828</v>
-      </c>
-      <c r="AV34" s="2">
-        <f t="shared" si="154"/>
-        <v>58267.806092636114</v>
       </c>
       <c r="AW34" s="2">
         <f t="shared" si="154"/>
-        <v>68936.941827454619</v>
+        <v>29671.359987199998</v>
       </c>
       <c r="AX34" s="2">
         <f t="shared" si="154"/>
-        <v>79863.311141914717</v>
+        <v>38329.957034892795</v>
       </c>
       <c r="AY34" s="2">
         <f t="shared" si="154"/>
-        <v>91514.380539723876</v>
+        <v>47517.544761410223</v>
       </c>
       <c r="AZ34" s="2">
         <f t="shared" si="154"/>
-        <v>103443.97661444168</v>
+        <v>56941.153059340868</v>
       </c>
       <c r="BA34" s="2">
         <f t="shared" si="154"/>
-        <v>115941.12678654592</v>
+        <v>66538.825168258423</v>
       </c>
       <c r="BB34" s="2">
         <f t="shared" si="154"/>
-        <v>128824.48918570261</v>
+        <v>75977.51550562492</v>
       </c>
       <c r="BC34" s="2">
         <f t="shared" si="154"/>
-        <v>141856.26803085042</v>
+        <v>85850.343940605497</v>
       </c>
       <c r="BD34" s="2">
-        <f t="shared" ref="BD34" si="155">+BC34+BD25</f>
-        <v>155205.04445372132</v>
+        <f t="shared" si="154"/>
+        <v>95790.284288912866</v>
       </c>
       <c r="BE34" s="2">
-        <f t="shared" ref="BE34" si="156">+BD34+BE25</f>
-        <v>168970.66760983004</v>
+        <f t="shared" si="154"/>
+        <v>106052.83759599282</v>
       </c>
       <c r="BF34" s="2">
-        <f t="shared" ref="BF34" si="157">+BE34+BF25</f>
-        <v>183217.79526129353</v>
+        <f t="shared" si="154"/>
+        <v>116511.26070261998</v>
       </c>
       <c r="BG34" s="2">
-        <f t="shared" ref="BG34" si="158">+BF34+BG25</f>
-        <v>197992.90592439118</v>
+        <f t="shared" si="154"/>
+        <v>127078.81854066545</v>
       </c>
       <c r="BH34" s="2">
-        <f t="shared" ref="BH34" si="159">+BG34+BH25</f>
-        <v>208604.74972465308</v>
-      </c>
-      <c r="BJ34" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="BK34" s="1">
-        <f>BK33/Main!M3</f>
-        <v>624.89045682268738</v>
-      </c>
-    </row>
-    <row r="35" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="BH34" si="155">+BG34+BH25</f>
+        <v>137862.21342761247</v>
+      </c>
+      <c r="BI34" s="2">
+        <f t="shared" ref="BI34" si="156">+BH34+BI25</f>
+        <v>148930.75941993232</v>
+      </c>
+      <c r="BJ34" s="2">
+        <f t="shared" ref="BJ34" si="157">+BI34+BJ25</f>
+        <v>160333.55113264496</v>
+      </c>
+      <c r="BK34" s="2">
+        <f t="shared" ref="BK34" si="158">+BJ34+BK25</f>
+        <v>172108.40801162791</v>
+      </c>
+      <c r="BL34" s="2">
+        <f t="shared" ref="BL34" si="159">+BK34+BL25</f>
+        <v>180915.08492314772</v>
+      </c>
+      <c r="BN34" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="BO34" s="1">
+        <f>BO33/Main!M3</f>
+        <v>542.76051597323317</v>
+      </c>
+    </row>
+    <row r="35" spans="2:67" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -9271,10 +9410,13 @@
       <c r="AC35" s="2">
         <v>1805.1</v>
       </c>
-    </row>
-    <row r="36" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE35" s="2">
+        <v>1946.4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:67" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -9328,10 +9470,13 @@
       <c r="AC36" s="2">
         <v>1359.7</v>
       </c>
-    </row>
-    <row r="37" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE36" s="2">
+        <v>1626.8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:67" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -9385,10 +9530,13 @@
       <c r="AC37" s="2">
         <v>642.79999999999995</v>
       </c>
-    </row>
-    <row r="38" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE37" s="2">
+        <v>709.4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:67" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -9442,10 +9590,13 @@
       <c r="AC38" s="2">
         <v>1295.9000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE38" s="2">
+        <v>1425.1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:67" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -9512,10 +9663,13 @@
       <c r="AC39" s="2">
         <v>1529.2</v>
       </c>
-    </row>
-    <row r="40" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE39" s="2">
+        <v>1517.8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:67" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -9569,10 +9723,13 @@
       <c r="AC40" s="2">
         <v>2544.3000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE40" s="2">
+        <v>2937.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:67" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -9626,10 +9783,13 @@
       <c r="AC41" s="2">
         <v>1338.5</v>
       </c>
-    </row>
-    <row r="42" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE41" s="2">
+        <v>1591.8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:67" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -9683,10 +9843,13 @@
       <c r="AC42" s="2">
         <v>1007.3</v>
       </c>
-    </row>
-    <row r="43" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE42" s="2">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="43" spans="2:67" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -9767,13 +9930,20 @@
         <v>22880.5</v>
       </c>
       <c r="AD43" s="12"/>
-      <c r="AE43" s="12"/>
+      <c r="AE43" s="12">
+        <f t="shared" ref="AE43" si="162">SUM(AE34:AE42)</f>
+        <v>24862.299999999996</v>
+      </c>
       <c r="AF43" s="12"/>
       <c r="AG43" s="12"/>
-    </row>
-    <row r="45" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+    </row>
+    <row r="45" spans="2:67" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -9827,10 +9997,13 @@
       <c r="AC45" s="2">
         <v>3396.8</v>
       </c>
-    </row>
-    <row r="46" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE45" s="2">
+        <v>4033.8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:67" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -9884,10 +10057,13 @@
       <c r="AC46" s="2">
         <v>386.4</v>
       </c>
-    </row>
-    <row r="47" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE46" s="2">
+        <v>441.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:67" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -9941,10 +10117,13 @@
       <c r="AC47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:67" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -10012,10 +10191,13 @@
         <f>1537.7+111.4</f>
         <v>1649.1000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE48" s="2">
+        <v>1834.8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -10069,10 +10251,13 @@
       <c r="AC49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -10126,10 +10311,13 @@
       <c r="AC50" s="2">
         <v>951.9</v>
       </c>
-    </row>
-    <row r="51" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE50" s="2">
+        <v>1233.4000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -10183,10 +10371,13 @@
       <c r="AC51" s="2">
         <v>16496.3</v>
       </c>
-    </row>
-    <row r="52" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE51" s="2">
+        <v>17318.8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -10199,51 +10390,51 @@
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="12">
-        <f t="shared" ref="M52:R52" si="162">SUM(M45:M51)</f>
+        <f t="shared" ref="M52:R52" si="163">SUM(M45:M51)</f>
         <v>12115.059000000001</v>
       </c>
       <c r="N52" s="12">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>12221.686000000002</v>
       </c>
       <c r="O52" s="12">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>12618.745000000001</v>
       </c>
       <c r="P52" s="12">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>13432.5</v>
       </c>
       <c r="Q52" s="12">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>14256.1</v>
       </c>
       <c r="R52" s="12">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>15582.2</v>
       </c>
       <c r="S52" s="12">
-        <f t="shared" ref="S52:X52" si="163">SUM(S45:S51)</f>
+        <f t="shared" ref="S52:X52" si="164">SUM(S45:S51)</f>
         <v>16706.400000000001</v>
       </c>
       <c r="T52" s="12">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>18150.900000000001</v>
       </c>
       <c r="U52" s="12">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>18974.199999999997</v>
       </c>
       <c r="V52" s="12">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>20349.2</v>
       </c>
       <c r="W52" s="12">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>21726.2</v>
       </c>
       <c r="X52" s="12">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>22730.2</v>
       </c>
       <c r="Y52" s="12">
@@ -10251,29 +10442,36 @@
         <v>23917.399999999998</v>
       </c>
       <c r="Z52" s="12">
-        <f t="shared" ref="Z52:AC52" si="164">SUM(Z45:Z51)</f>
+        <f t="shared" ref="Z52:AC52" si="165">SUM(Z45:Z51)</f>
         <v>0</v>
       </c>
       <c r="AA52" s="12">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AB52" s="12">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AC52" s="12">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>22880.5</v>
       </c>
       <c r="AD52" s="12"/>
-      <c r="AE52" s="12"/>
+      <c r="AE52" s="12">
+        <f t="shared" ref="AE52" si="166">SUM(AE45:AE51)</f>
+        <v>24862.3</v>
+      </c>
       <c r="AF52" s="12"/>
       <c r="AG52" s="12"/>
-    </row>
-    <row r="54" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="12"/>
+    </row>
+    <row r="54" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -10286,77 +10484,85 @@
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="12">
-        <f t="shared" ref="M54:P54" si="165">+M25</f>
+        <f t="shared" ref="M54:P54" si="167">+M25</f>
         <v>779.8</v>
       </c>
       <c r="N54" s="12">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>897.40000000000009</v>
       </c>
       <c r="O54" s="12">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>810.59600000000034</v>
       </c>
       <c r="P54" s="12">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>868.69999999999982</v>
       </c>
       <c r="Q54" s="12">
-        <f t="shared" ref="Q54:AC54" si="166">+Q25</f>
+        <f t="shared" ref="Q54:AE54" si="168">+Q25</f>
         <v>1002.4000000000001</v>
       </c>
       <c r="R54" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>984.70000000000016</v>
       </c>
       <c r="S54" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>1104.7999999999995</v>
       </c>
       <c r="T54" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>989.79999999999984</v>
       </c>
       <c r="U54" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>1141.0999999999995</v>
       </c>
       <c r="V54" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>1124.5</v>
       </c>
       <c r="W54" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>1115.4000000000003</v>
       </c>
       <c r="X54" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>1149.4000000000003</v>
       </c>
       <c r="Y54" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>1318.5999999999995</v>
       </c>
       <c r="Z54" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>1138.5999999999999</v>
       </c>
       <c r="AA54" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>1158.0000000000002</v>
       </c>
       <c r="AB54" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>1123.7999999999997</v>
       </c>
       <c r="AC54" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>1188.4499999999998</v>
       </c>
-    </row>
-    <row r="55" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD54" s="2">
+        <f t="shared" si="168"/>
+        <v>1052.8999999999996</v>
+      </c>
+      <c r="AE54" s="2">
+        <f t="shared" si="168"/>
+        <v>1298.0000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -10420,9 +10626,9 @@
         <v>646.29999999999995</v>
       </c>
     </row>
-    <row r="56" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -10486,9 +10692,9 @@
         <v>166.1</v>
       </c>
     </row>
-    <row r="57" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -10552,7 +10758,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="58" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -10576,9 +10782,9 @@
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -10642,9 +10848,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -10708,9 +10914,9 @@
         <v>-191.6</v>
       </c>
     </row>
-    <row r="61" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -10774,9 +10980,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -10840,9 +11046,9 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="63" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -10911,9 +11117,9 @@
         <v>-268.5</v>
       </c>
     </row>
-    <row r="64" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -10926,55 +11132,55 @@
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
       <c r="M64" s="12">
-        <f t="shared" ref="M64:Y64" si="167">SUM(M55:M63)</f>
+        <f t="shared" ref="M64:Y64" si="169">SUM(M55:M63)</f>
         <v>921.05499999999995</v>
       </c>
       <c r="N64" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>-199.76700000000002</v>
       </c>
       <c r="O64" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>927.21900000000028</v>
       </c>
       <c r="P64" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>994.99299999999994</v>
       </c>
       <c r="Q64" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>956.20000000000016</v>
       </c>
       <c r="R64" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>1139.7999999999997</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>955.49999999999989</v>
       </c>
       <c r="T64" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>1078.3999999999996</v>
       </c>
       <c r="U64" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>899.9</v>
       </c>
       <c r="V64" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>1134.4000000000001</v>
       </c>
       <c r="W64" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>1268.4000000000003</v>
       </c>
       <c r="X64" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>234.59999999999968</v>
       </c>
       <c r="Y64" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>1306.6000000000001</v>
       </c>
       <c r="AC64" s="2">
@@ -10984,7 +11190,7 @@
     </row>
     <row r="66" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -11050,7 +11256,7 @@
     </row>
     <row r="67" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -11107,7 +11313,7 @@
     </row>
     <row r="68" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -11178,7 +11384,7 @@
     </row>
     <row r="69" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -11191,27 +11397,27 @@
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
       <c r="M69" s="12">
-        <f t="shared" ref="M69:R69" si="168">M66+M68</f>
+        <f t="shared" ref="M69:R69" si="170">M66+M68</f>
         <v>-74.308999999999997</v>
       </c>
       <c r="N69" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>-79.64100000000002</v>
       </c>
       <c r="O69" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>-52.952000000000012</v>
       </c>
       <c r="P69" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>-133.99800000000002</v>
       </c>
       <c r="Q69" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>-51.000000000000007</v>
       </c>
       <c r="R69" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>-61.499999999999993</v>
       </c>
       <c r="S69" s="12">
@@ -11249,7 +11455,7 @@
     </row>
     <row r="71" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -11315,7 +11521,7 @@
     </row>
     <row r="72" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -11381,7 +11587,7 @@
     </row>
     <row r="73" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -11444,7 +11650,7 @@
     </row>
     <row r="74" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -11512,7 +11718,7 @@
     </row>
     <row r="75" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -11578,7 +11784,7 @@
     </row>
     <row r="76" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -11591,65 +11797,65 @@
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
       <c r="M76" s="12">
-        <f t="shared" ref="M76:P76" si="169">SUM(M71:M75)</f>
+        <f t="shared" ref="M76:P76" si="171">SUM(M71:M75)</f>
         <v>-518.654</v>
       </c>
       <c r="N76" s="12">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>33.550000000000004</v>
       </c>
       <c r="O76" s="12">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>-656.66099999999994</v>
       </c>
       <c r="P76" s="12">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>-336.23500000000018</v>
       </c>
       <c r="Q76" s="12">
-        <f t="shared" ref="Q76:Y76" si="170">SUM(Q71:Q75)</f>
+        <f t="shared" ref="Q76:Y76" si="172">SUM(Q71:Q75)</f>
         <v>-95.4</v>
       </c>
       <c r="R76" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>47.699999999999982</v>
       </c>
       <c r="S76" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>-60.199999999999996</v>
       </c>
       <c r="T76" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>40.200000000000024</v>
       </c>
       <c r="U76" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>-294.70000000000005</v>
       </c>
       <c r="V76" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>17.300000000000018</v>
       </c>
       <c r="W76" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>-165.00000000000006</v>
       </c>
       <c r="X76" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>-119.80000000000005</v>
       </c>
       <c r="Y76" s="2">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>-357.5</v>
       </c>
       <c r="AC76" s="2">
-        <f t="shared" ref="AC76" si="171">SUM(AC71:AC75)</f>
+        <f t="shared" ref="AC76" si="173">SUM(AC71:AC75)</f>
         <v>-680.40000000000009</v>
       </c>
     </row>
     <row r="77" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -11715,7 +11921,7 @@
     </row>
     <row r="78" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -11728,19 +11934,19 @@
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
       <c r="M78" s="12">
-        <f t="shared" ref="M78:P78" si="172">+M76+M77+M69+M64</f>
+        <f t="shared" ref="M78:P78" si="174">+M76+M77+M69+M64</f>
         <v>324.06200000000001</v>
       </c>
       <c r="N78" s="12">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>-241.83900000000006</v>
       </c>
       <c r="O78" s="12">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>209.14500000000032</v>
       </c>
       <c r="P78" s="12">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>519.83199999999977</v>
       </c>
       <c r="Q78" s="12">
@@ -11807,7 +12013,7 @@
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P80" s="12">
         <v>3900</v>
@@ -11854,7 +12060,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11862,7 +12068,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11870,7 +12076,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -11878,75 +12084,75 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C14" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -11988,15 +12194,15 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -12032,7 +12238,7 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -12040,7 +12246,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -12053,7 +12259,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -12061,7 +12267,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -12069,7 +12275,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -12120,10 +12326,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -12131,7 +12337,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -12147,7 +12353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E64667-B707-436E-8242-61F1E098F287}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12165,7 +12373,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -12173,7 +12381,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -12181,7 +12389,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -12197,109 +12405,109 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="C12" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C21" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C24" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C26" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C28" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -12313,7 +12521,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680057B1-62FF-469A-BFF1-F8D2D83B9698}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
@@ -12333,7 +12541,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -12341,7 +12549,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -12349,7 +12557,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12357,60 +12565,65 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C8" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -12423,9 +12636,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C3D72A-F23C-49FA-B015-8CB9FAFD237F}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12433,63 +12646,78 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="18" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="18" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>391</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="C16" s="18" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
